--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE193B02-FCD0-534E-AF98-B789A6B813CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F5BD1-36DF-4E43-B015-303C03613493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="5" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
     <sheet name="overall" sheetId="2" r:id="rId2"/>
+    <sheet name="map" sheetId="3" r:id="rId3"/>
+    <sheet name="map_update" sheetId="4" r:id="rId4"/>
+    <sheet name="nepali_world" sheetId="5" r:id="rId5"/>
+    <sheet name="nepali_world_update" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="403">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -182,6 +189,1059 @@
   </si>
   <si>
     <t>सक्रिय केस</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख ९</t>
+  </si>
+  <si>
+    <t>नखुलेको</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Achham</t>
+  </si>
+  <si>
+    <t>Arghakhanchi</t>
+  </si>
+  <si>
+    <t>Baglung</t>
+  </si>
+  <si>
+    <t>Baitadi</t>
+  </si>
+  <si>
+    <t>Bajhang</t>
+  </si>
+  <si>
+    <t>Bajura</t>
+  </si>
+  <si>
+    <t>Banke</t>
+  </si>
+  <si>
+    <t>Bara</t>
+  </si>
+  <si>
+    <t>Bardiya</t>
+  </si>
+  <si>
+    <t>Bhaktapur</t>
+  </si>
+  <si>
+    <t>Bhojpur</t>
+  </si>
+  <si>
+    <t>Chitawan</t>
+  </si>
+  <si>
+    <t>Dadeldhura</t>
+  </si>
+  <si>
+    <t>Dailekh</t>
+  </si>
+  <si>
+    <t>Dang</t>
+  </si>
+  <si>
+    <t>Darchula</t>
+  </si>
+  <si>
+    <t>Dhading</t>
+  </si>
+  <si>
+    <t>Dhankuta</t>
+  </si>
+  <si>
+    <t>Dhanusa</t>
+  </si>
+  <si>
+    <t>Dolakha</t>
+  </si>
+  <si>
+    <t>Dolpa</t>
+  </si>
+  <si>
+    <t>Doti</t>
+  </si>
+  <si>
+    <t>Gorkha</t>
+  </si>
+  <si>
+    <t>Gulmi</t>
+  </si>
+  <si>
+    <t>Humla</t>
+  </si>
+  <si>
+    <t>Ilam</t>
+  </si>
+  <si>
+    <t>Jajarkot</t>
+  </si>
+  <si>
+    <t>Jhapa</t>
+  </si>
+  <si>
+    <t>Jumla</t>
+  </si>
+  <si>
+    <t>Kailali</t>
+  </si>
+  <si>
+    <t>Kalikot</t>
+  </si>
+  <si>
+    <t>Kanchanpur</t>
+  </si>
+  <si>
+    <t>Kapilbastu</t>
+  </si>
+  <si>
+    <t>Kaski</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>Kavrepalanchok</t>
+  </si>
+  <si>
+    <t>Khotang</t>
+  </si>
+  <si>
+    <t>Lalitpur</t>
+  </si>
+  <si>
+    <t>Lamjung</t>
+  </si>
+  <si>
+    <t>Mahottari</t>
+  </si>
+  <si>
+    <t>Makwanpur</t>
+  </si>
+  <si>
+    <t>Manang</t>
+  </si>
+  <si>
+    <t>Morang</t>
+  </si>
+  <si>
+    <t>Mugu</t>
+  </si>
+  <si>
+    <t>Mustang</t>
+  </si>
+  <si>
+    <t>Myagdi</t>
+  </si>
+  <si>
+    <t>Nawalparasi</t>
+  </si>
+  <si>
+    <t>Nuwakot</t>
+  </si>
+  <si>
+    <t>Okhaldhunga</t>
+  </si>
+  <si>
+    <t>Palpa</t>
+  </si>
+  <si>
+    <t>Panchthar</t>
+  </si>
+  <si>
+    <t>Parbat</t>
+  </si>
+  <si>
+    <t>Parsa</t>
+  </si>
+  <si>
+    <t>Pyuthan</t>
+  </si>
+  <si>
+    <t>Ramechhap</t>
+  </si>
+  <si>
+    <t>Rasuwa</t>
+  </si>
+  <si>
+    <t>Rautahat</t>
+  </si>
+  <si>
+    <t>Rolpa</t>
+  </si>
+  <si>
+    <t>Rukum</t>
+  </si>
+  <si>
+    <t>Rupandehi</t>
+  </si>
+  <si>
+    <t>Salyan</t>
+  </si>
+  <si>
+    <t>Sankhuwasabha</t>
+  </si>
+  <si>
+    <t>Saptari</t>
+  </si>
+  <si>
+    <t>Sarlahi</t>
+  </si>
+  <si>
+    <t>Sindhuli</t>
+  </si>
+  <si>
+    <t>Sindhupalchok</t>
+  </si>
+  <si>
+    <t>Siraha</t>
+  </si>
+  <si>
+    <t>Solukhumbu</t>
+  </si>
+  <si>
+    <t>Sunsari</t>
+  </si>
+  <si>
+    <t>Surkhet</t>
+  </si>
+  <si>
+    <t>Syangja</t>
+  </si>
+  <si>
+    <t>Tanahu</t>
+  </si>
+  <si>
+    <t>Taplejung</t>
+  </si>
+  <si>
+    <t>Terhathum</t>
+  </si>
+  <si>
+    <t>Udayapur</t>
+  </si>
+  <si>
+    <t>Confirmed COVID-19 cases in Nepal by district</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>Active cases</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Chitwan</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>cases</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Antigua</t>
+  </si>
+  <si>
+    <t>Barbuda</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Republic of Congo</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Heard Island</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Chagos Archipelago</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Siachen Glacier</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Nevis</t>
+  </si>
+  <si>
+    <t>Saint Kitts</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Bonaire</t>
+  </si>
+  <si>
+    <t>Sint Eustatius</t>
+  </si>
+  <si>
+    <t>Saba</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Madeira Islands</t>
+  </si>
+  <si>
+    <t>Azores</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Georgia</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Ascension Island</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vatican</t>
+  </si>
+  <si>
+    <t>Grenadines</t>
+  </si>
+  <si>
+    <t>Saint Vincent</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>casesN</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -289,7 +1349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +1368,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -321,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -378,15 +1444,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +1471,27 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,6 +1512,136 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="nepali_world"/>
+      <sheetName val="update data"/>
+      <sheetName val="old"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Australia</v>
+          </cell>
+          <cell r="C2">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Bahrain</v>
+          </cell>
+          <cell r="C3">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Germany</v>
+          </cell>
+          <cell r="C4">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>China</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Japan</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Kuwait</v>
+          </cell>
+          <cell r="C7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Malaysia</v>
+          </cell>
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Myanmar</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Portugal</v>
+          </cell>
+          <cell r="C10">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Saudi Arabia</v>
+          </cell>
+          <cell r="C11">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Spain</v>
+          </cell>
+          <cell r="C12">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>United Arab Emirates</v>
+          </cell>
+          <cell r="C13">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>UK</v>
+          </cell>
+          <cell r="C14">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>USA</v>
+          </cell>
+          <cell r="C15">
+            <v>500</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,17 +2014,17 @@
       <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -838,17 +2046,17 @@
       <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -870,17 +2078,17 @@
       <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -900,19 +2108,19 @@
         <v>10</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -934,17 +2142,17 @@
       <c r="F6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
       <c r="P6"/>
     </row>
     <row r="7" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -966,17 +2174,17 @@
       <c r="F7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -998,17 +2206,17 @@
       <c r="F8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1030,17 +2238,17 @@
       <c r="F9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1062,17 +2270,17 @@
       <c r="F10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
       <c r="P10"/>
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1094,17 +2302,17 @@
       <c r="F11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1126,17 +2334,17 @@
       <c r="F12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
       <c r="P12"/>
     </row>
     <row r="13" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1158,17 +2366,17 @@
       <c r="F13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1190,17 +2398,17 @@
       <c r="F14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1222,15 +2430,15 @@
       <c r="F15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1252,17 +2460,17 @@
       <c r="F16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1284,17 +2492,17 @@
       <c r="F17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1316,17 +2524,17 @@
       <c r="F18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1348,17 +2556,17 @@
       <c r="F19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1380,17 +2588,17 @@
       <c r="F20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1412,17 +2620,17 @@
       <c r="F21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1444,17 +2652,17 @@
       <c r="F22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1476,17 +2684,17 @@
       <c r="F23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1508,17 +2716,17 @@
       <c r="F24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1540,17 +2748,17 @@
       <c r="F25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1572,17 +2780,17 @@
       <c r="F26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1604,17 +2812,17 @@
       <c r="F27" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1636,17 +2844,17 @@
       <c r="F28" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1668,17 +2876,17 @@
       <c r="F29" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1700,17 +2908,17 @@
       <c r="F30" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1732,17 +2940,17 @@
       <c r="F31" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1764,22 +2972,240 @@
       <c r="F32" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
+        <v>32</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="19">
+        <v>18</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="N33" s="23"/>
       <c r="R33" s="12"/>
+    </row>
+    <row r="34" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
+        <v>33</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="21">
+        <v>18</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
+        <v>34</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="19">
+        <v>20</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
+        <v>35</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="21">
+        <v>33</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
+        <v>36</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="19">
+        <v>40</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <v>37</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="21">
+        <v>41</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
+        <v>38</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="19">
+        <v>41</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <v>39</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="21">
+        <v>52</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
+        <v>40</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="35">
+        <v>58</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
+        <v>41</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="35">
+        <v>42</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="19">
+        <v>36</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
@@ -1887,7 +3313,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1899,44 +3325,3385 @@
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="29" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" s="26" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" ht="62" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
-        <v>8414</v>
-      </c>
-      <c r="B2" s="31">
-        <v>31</v>
-      </c>
-      <c r="C2" s="32">
+    <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+      <c r="A2" s="27">
+        <v>8773</v>
+      </c>
+      <c r="B2" s="28">
+        <v>42</v>
+      </c>
+      <c r="C2" s="29">
         <v>4</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="30">
         <v>0</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="31">
         <v>0</v>
       </c>
-      <c r="F2" s="35">
-        <v>27</v>
+      <c r="F2" s="32">
+        <f>B2-C2</f>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F40CF7-9584-3D43-9273-49D4405146AF}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7092C9DD-A343-5C4D-8235-021966E86C81}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>24</v>
+      </c>
+      <c r="H11" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>37</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C54A67-FFF9-F147-A547-2706EC5F8302}">
+  <dimension ref="A1:B253"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A2, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A3, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A4, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A5, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A6, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A7, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A8, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A9, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A10, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A11, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A12, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A13, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A14, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A15, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A16, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A17, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A18, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A19, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A20, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A21, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A22, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A23, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A24, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A25, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A26, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A27, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A28, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A29, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A30, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A31, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A32, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A33, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A34, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A35, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A36, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A37, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A38, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A39, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A40, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A41, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A42, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A43, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A44, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A45, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A46, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A47, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A48, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A49, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A50, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A51, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A52, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A53, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A54, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A55, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A56, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A57, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A58, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A59, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A60, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A61, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A62, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A63, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A64, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A65, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A66, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A67, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A68, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A69, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A70, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A71, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A72, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A73, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>214</v>
+      </c>
+      <c r="B74" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A74, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A75, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>216</v>
+      </c>
+      <c r="B76" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A76, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A77, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>218</v>
+      </c>
+      <c r="B78" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A78, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>219</v>
+      </c>
+      <c r="B79" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A79, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A80, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>221</v>
+      </c>
+      <c r="B81" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A81, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>222</v>
+      </c>
+      <c r="B82">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A82, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>223</v>
+      </c>
+      <c r="B83" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A83, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A84, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>225</v>
+      </c>
+      <c r="B85" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A85, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A86, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A87, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A88, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A89, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>230</v>
+      </c>
+      <c r="B90" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A90, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>231</v>
+      </c>
+      <c r="B91" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A91, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B92" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A92, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>233</v>
+      </c>
+      <c r="B93" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A93, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A94, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A95, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>236</v>
+      </c>
+      <c r="B96" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A96, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>237</v>
+      </c>
+      <c r="B97" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A97, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>238</v>
+      </c>
+      <c r="B98" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A98, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>239</v>
+      </c>
+      <c r="B99" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A99, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>240</v>
+      </c>
+      <c r="B100" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A100, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>241</v>
+      </c>
+      <c r="B101" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A101, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A102, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>243</v>
+      </c>
+      <c r="B103" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A103, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>244</v>
+      </c>
+      <c r="B104" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A104, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A105, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>246</v>
+      </c>
+      <c r="B106" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A106, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>247</v>
+      </c>
+      <c r="B107" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A107, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>248</v>
+      </c>
+      <c r="B108" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A108, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>249</v>
+      </c>
+      <c r="B109" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A109, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A110, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>251</v>
+      </c>
+      <c r="B111" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A111, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>252</v>
+      </c>
+      <c r="B112" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A112, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>253</v>
+      </c>
+      <c r="B113" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A113, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>254</v>
+      </c>
+      <c r="B114" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A114, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>255</v>
+      </c>
+      <c r="B115" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A115, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>256</v>
+      </c>
+      <c r="B116" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A116, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>257</v>
+      </c>
+      <c r="B117">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A117, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>258</v>
+      </c>
+      <c r="B118" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A118, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>259</v>
+      </c>
+      <c r="B119" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A119, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>260</v>
+      </c>
+      <c r="B120" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A120, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A121, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A122, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A123, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>264</v>
+      </c>
+      <c r="B124" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A124, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>265</v>
+      </c>
+      <c r="B125" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A125, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>266</v>
+      </c>
+      <c r="B126" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A126, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>267</v>
+      </c>
+      <c r="B127" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A127, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>268</v>
+      </c>
+      <c r="B128">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A128, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>269</v>
+      </c>
+      <c r="B129" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A129, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A130, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>271</v>
+      </c>
+      <c r="B131" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A131, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>272</v>
+      </c>
+      <c r="B132" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A132, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>273</v>
+      </c>
+      <c r="B133" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A133, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A134, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>275</v>
+      </c>
+      <c r="B135" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A135, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>276</v>
+      </c>
+      <c r="B136" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A136, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>277</v>
+      </c>
+      <c r="B137" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A137, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>278</v>
+      </c>
+      <c r="B138" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A138, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A139, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A140, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A141, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A142, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>283</v>
+      </c>
+      <c r="B143" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A143, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A144, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A145, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A146, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>287</v>
+      </c>
+      <c r="B147" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A147, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>288</v>
+      </c>
+      <c r="B148" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A148, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>289</v>
+      </c>
+      <c r="B149" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A149, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>290</v>
+      </c>
+      <c r="B150" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A150, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>291</v>
+      </c>
+      <c r="B151">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A151, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>292</v>
+      </c>
+      <c r="B152" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A152, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>293</v>
+      </c>
+      <c r="B153" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A153, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>294</v>
+      </c>
+      <c r="B154" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A154, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>295</v>
+      </c>
+      <c r="B155" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A155, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>296</v>
+      </c>
+      <c r="B156" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A156, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>297</v>
+      </c>
+      <c r="B157" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A157, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>298</v>
+      </c>
+      <c r="B158" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A158, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>299</v>
+      </c>
+      <c r="B159" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A159, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>300</v>
+      </c>
+      <c r="B160">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A160, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>301</v>
+      </c>
+      <c r="B161" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A161, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>302</v>
+      </c>
+      <c r="B162" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A162, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>303</v>
+      </c>
+      <c r="B163" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A163, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>304</v>
+      </c>
+      <c r="B164" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A164, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>305</v>
+      </c>
+      <c r="B165" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A165, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>306</v>
+      </c>
+      <c r="B166" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A166, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>307</v>
+      </c>
+      <c r="B167" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A167, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>308</v>
+      </c>
+      <c r="B168" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A168, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>309</v>
+      </c>
+      <c r="B169" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A169, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>310</v>
+      </c>
+      <c r="B170" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A170, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>311</v>
+      </c>
+      <c r="B171" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A171, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>312</v>
+      </c>
+      <c r="B172" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A172, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>313</v>
+      </c>
+      <c r="B173" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A173, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>314</v>
+      </c>
+      <c r="B174" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A174, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>315</v>
+      </c>
+      <c r="B175" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A175, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>316</v>
+      </c>
+      <c r="B176" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A176, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>317</v>
+      </c>
+      <c r="B177" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A177, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>318</v>
+      </c>
+      <c r="B178" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A178, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>319</v>
+      </c>
+      <c r="B179" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A179, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>320</v>
+      </c>
+      <c r="B180" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A180, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>321</v>
+      </c>
+      <c r="B181" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A181, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>322</v>
+      </c>
+      <c r="B182" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A182, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>323</v>
+      </c>
+      <c r="B183" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A183, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>324</v>
+      </c>
+      <c r="B184" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A184, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>325</v>
+      </c>
+      <c r="B185" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A185, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>326</v>
+      </c>
+      <c r="B186" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A186, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>327</v>
+      </c>
+      <c r="B187" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A187, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>328</v>
+      </c>
+      <c r="B188" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A188, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>329</v>
+      </c>
+      <c r="B189">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A189, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>330</v>
+      </c>
+      <c r="B190" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A190, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>331</v>
+      </c>
+      <c r="B191" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A191, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>332</v>
+      </c>
+      <c r="B192" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A192, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>333</v>
+      </c>
+      <c r="B193" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A193, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>334</v>
+      </c>
+      <c r="B194" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A194, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>335</v>
+      </c>
+      <c r="B195" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A195, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>336</v>
+      </c>
+      <c r="B196" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A196, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>337</v>
+      </c>
+      <c r="B197" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A197, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>338</v>
+      </c>
+      <c r="B198">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A198, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>339</v>
+      </c>
+      <c r="B199" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A199, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>340</v>
+      </c>
+      <c r="B200" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A200, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>341</v>
+      </c>
+      <c r="B201" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A201, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>342</v>
+      </c>
+      <c r="B202" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A202, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>343</v>
+      </c>
+      <c r="B203" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A203, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>344</v>
+      </c>
+      <c r="B204" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A204, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>345</v>
+      </c>
+      <c r="B205" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A205, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>346</v>
+      </c>
+      <c r="B206" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A206, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>347</v>
+      </c>
+      <c r="B207" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A207, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>348</v>
+      </c>
+      <c r="B208" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A208, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>349</v>
+      </c>
+      <c r="B209" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A209, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>350</v>
+      </c>
+      <c r="B210" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A210, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>351</v>
+      </c>
+      <c r="B211" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A211, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>352</v>
+      </c>
+      <c r="B212" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A212, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>353</v>
+      </c>
+      <c r="B213" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A213, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>354</v>
+      </c>
+      <c r="B214" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A214, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>355</v>
+      </c>
+      <c r="B215" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A215, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>356</v>
+      </c>
+      <c r="B216" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A216, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>357</v>
+      </c>
+      <c r="B217" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A217, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>358</v>
+      </c>
+      <c r="B218" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A218, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>359</v>
+      </c>
+      <c r="B219" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A219, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>360</v>
+      </c>
+      <c r="B220" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A220, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>361</v>
+      </c>
+      <c r="B221" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A221, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>362</v>
+      </c>
+      <c r="B222" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A222, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>363</v>
+      </c>
+      <c r="B223" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A223, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>364</v>
+      </c>
+      <c r="B224" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A224, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>365</v>
+      </c>
+      <c r="B225" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A225, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>366</v>
+      </c>
+      <c r="B226" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A226, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>367</v>
+      </c>
+      <c r="B227" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A227, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>368</v>
+      </c>
+      <c r="B228" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A228, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>369</v>
+      </c>
+      <c r="B229" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A229, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>370</v>
+      </c>
+      <c r="B230" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A230, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>371</v>
+      </c>
+      <c r="B231" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A231, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>372</v>
+      </c>
+      <c r="B232" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A232, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>373</v>
+      </c>
+      <c r="B233" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A233, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>374</v>
+      </c>
+      <c r="B234" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A234, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>375</v>
+      </c>
+      <c r="B235" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A235, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>376</v>
+      </c>
+      <c r="B236" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A236, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>377</v>
+      </c>
+      <c r="B237" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A237, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>378</v>
+      </c>
+      <c r="B238" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A238, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>379</v>
+      </c>
+      <c r="B239">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A239, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>380</v>
+      </c>
+      <c r="B240" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A240, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>381</v>
+      </c>
+      <c r="B241" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A241, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>382</v>
+      </c>
+      <c r="B242" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A242, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>383</v>
+      </c>
+      <c r="B243" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A243, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>384</v>
+      </c>
+      <c r="B244" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A244, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>385</v>
+      </c>
+      <c r="B245" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A245, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>386</v>
+      </c>
+      <c r="B246" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A246, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>387</v>
+      </c>
+      <c r="B247" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A247, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>388</v>
+      </c>
+      <c r="B248" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A248, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>389</v>
+      </c>
+      <c r="B249" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A249, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>390</v>
+      </c>
+      <c r="B250" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A250, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>391</v>
+      </c>
+      <c r="B251" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A251, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>392</v>
+      </c>
+      <c r="B252" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A252, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>393</v>
+      </c>
+      <c r="B253" t="str">
+        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A253, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE6DB38-87E3-DC48-9FFA-21F97C9B98B3}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="str">
+        <f>INDEX(F2:F15, MATCH(B2,E2:E15))</f>
+        <v>Australia</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="41">
+        <v>9</v>
+      </c>
+      <c r="D2" s="41">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="str">
+        <f>INDEX(F3:F15, MATCH(B3,E3:E15))</f>
+        <v>Bahrain</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="41">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="str">
+        <f>INDEX(F4:F15, MATCH(B4,E4:E15))</f>
+        <v>Germany</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="41">
+        <v>4</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="str">
+        <f>INDEX(F5:F15, MATCH(B5,E5:E15))</f>
+        <v>China</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="str">
+        <f>INDEX(F6:F15, MATCH(B6,E6:E15))</f>
+        <v>Japan</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="str">
+        <f>INDEX(F7:F15, MATCH(B7,E7:E15))</f>
+        <v>Kuwait</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="41">
+        <v>5</v>
+      </c>
+      <c r="D7" s="41">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="str">
+        <f>INDEX(F8:F15, MATCH(B8,E8:E15))</f>
+        <v>Malaysia</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="41">
+        <v>1</v>
+      </c>
+      <c r="D8" s="41">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="str">
+        <f>INDEX(F9:F15, MATCH(B9,E9:E15))</f>
+        <v>Myanmar</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="41">
+        <v>1</v>
+      </c>
+      <c r="D9" s="41">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="str">
+        <f>INDEX(F10:F15, MATCH(B10,E10:E15))</f>
+        <v>Portugal</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="41">
+        <v>8</v>
+      </c>
+      <c r="D10" s="41">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="str">
+        <f>INDEX(F11:F15, MATCH(B11,E11:E15))</f>
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" s="41">
+        <v>4</v>
+      </c>
+      <c r="D11" s="41">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="str">
+        <f>INDEX(F12:F15, MATCH(B12,E12:E15))</f>
+        <v>Spain</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="41">
+        <v>18</v>
+      </c>
+      <c r="D12" s="41">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="str">
+        <f>INDEX(F13:F15, MATCH(B13,E13:E15))</f>
+        <v>United Arab Emirates</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="41">
+        <v>10</v>
+      </c>
+      <c r="D13" s="41">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="str">
+        <f>INDEX(F14:F15, MATCH(B14,E14:E15))</f>
+        <v>UK</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="41">
+        <v>100</v>
+      </c>
+      <c r="D14" s="41">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>401</v>
+      </c>
+      <c r="F14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="str">
+        <f>INDEX(F15:F15, MATCH(B15,E15:E15))</f>
+        <v>USA</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="41">
+        <v>500</v>
+      </c>
+      <c r="D15" s="41">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>402</v>
+      </c>
+      <c r="F15" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F5BD1-36DF-4E43-B015-303C03613493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9879B329-3966-9040-9063-2A7396ADDEED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="5" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>२०७७ बैशाख ५</t>
   </si>
   <si>
-    <t>मंसिर २४ गते दिल्लीबाट आएका १२ भारतीय नागरीक</t>
-  </si>
-  <si>
     <t>युकेबाट हङकङ हुँदै चैत ५ मा नेपाल फर्केका आमा छोरा</t>
   </si>
   <si>
@@ -1242,6 +1239,9 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>मंसिर २४ गते दिल्लीबाट आएका भारतीय नागरीक</t>
   </si>
 </sst>
 </file>
@@ -1482,16 +1482,16 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1943,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2047,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
@@ -2399,7 +2399,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
@@ -2460,17 +2460,17 @@
       <c r="F16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2524,17 +2524,17 @@
       <c r="F18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+      <c r="G18" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2557,7 +2557,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>40</v>
+        <v>402</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
@@ -2588,17 +2588,17 @@
       <c r="F20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
+      <c r="G20" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2621,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>40</v>
+        <v>402</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
@@ -2652,17 +2652,17 @@
       <c r="F22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
+      <c r="G22" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>40</v>
+        <v>402</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
@@ -2716,17 +2716,17 @@
       <c r="F24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
+      <c r="G24" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2749,7 +2749,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>40</v>
+        <v>402</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="39"/>
@@ -2780,17 +2780,17 @@
       <c r="F26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
+      <c r="G26" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2813,7 +2813,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>40</v>
+        <v>402</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
@@ -2844,17 +2844,17 @@
       <c r="F28" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
+      <c r="G28" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2877,7 +2877,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>40</v>
+        <v>402</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
@@ -2894,7 +2894,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="21">
         <v>63</v>
@@ -2908,17 +2908,17 @@
       <c r="F30" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
+      <c r="G30" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2926,7 +2926,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="19">
         <v>27</v>
@@ -2941,7 +2941,7 @@
         <v>4</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
@@ -2967,22 +2967,22 @@
         <v>7</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
+      <c r="G32" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -2999,7 +2999,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>4</v>
@@ -3021,7 +3021,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>4</v>
@@ -3041,7 +3041,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>4</v>
@@ -3061,7 +3061,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>4</v>
@@ -3081,7 +3081,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>4</v>
@@ -3101,7 +3101,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>4</v>
@@ -3121,7 +3121,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>4</v>
@@ -3141,7 +3141,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>4</v>
@@ -3161,7 +3161,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>4</v>
@@ -3175,13 +3175,13 @@
         <v>38</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>4</v>
@@ -3201,7 +3201,7 @@
         <v>13</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>4</v>
@@ -3272,37 +3272,37 @@
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="G7:O7"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="G9:O9"/>
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="G11:O11"/>
-    <mergeCell ref="G12:O12"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="G18:O18"/>
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="G21:O21"/>
-    <mergeCell ref="G22:O22"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="G29:O29"/>
-    <mergeCell ref="G30:O30"/>
-    <mergeCell ref="G31:O31"/>
     <mergeCell ref="G32:O32"/>
     <mergeCell ref="G24:O24"/>
     <mergeCell ref="G25:O25"/>
     <mergeCell ref="G26:O26"/>
     <mergeCell ref="G27:O27"/>
     <mergeCell ref="G28:O28"/>
+    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="G29:O29"/>
+    <mergeCell ref="G30:O30"/>
+    <mergeCell ref="G31:O31"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="G18:O18"/>
+    <mergeCell ref="G19:O19"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="G21:O21"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="G15:O15"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="G9:O9"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="G6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3327,22 +3327,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="26" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
@@ -3383,25 +3383,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3409,47 +3409,47 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -3457,92 +3457,92 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -3550,12 +3550,12 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3563,17 +3563,17 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -3581,92 +3581,92 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -3674,22 +3674,22 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3697,92 +3697,92 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B76">
         <v>24</v>
@@ -3805,49 +3805,49 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
         <v>136</v>
       </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
       <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
         <v>136</v>
       </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
       <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
         <v>136</v>
-      </c>
-      <c r="F3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12">
         <v>42</v>
@@ -4100,15 +4100,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
         <v>140</v>
-      </c>
-      <c r="B1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A2, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A3, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A4, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A5, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A6, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A7, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A8, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A9, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A10, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A11, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A12, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A13, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A14, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A15, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A16, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A17, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A18, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A19, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A20, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A21, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A22, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A23, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A24, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A25, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A26, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A27, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A28, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A29, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A30, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A31, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A32, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B33" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A33, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A34, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B35" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A35, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A36, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A37, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A38, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A39, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A40, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A41, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B42" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A42, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A43, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B44" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A44, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B45" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A45, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B46" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A46, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B47" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A47, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B48" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A48, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B49" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A49, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B50" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A50, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B51" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A51, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B52" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A52, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B53" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A53, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B54" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A54, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B55" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A55, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B56" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A56, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B57" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A57, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B58">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A58, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B59" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A59, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B60" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A60, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B61" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A61, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B62" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A62, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B63" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A63, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B64" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A64, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B65" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A65, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B66" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A66, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B67" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A67, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B68">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A68, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B69" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A69, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B70" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A70, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B71" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A71, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B72" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A72, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B73" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A73, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B74" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A74, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B75" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A75, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B76" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A76, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B77" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A77, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B78" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A78, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B79" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A79, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B80" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A80, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B81" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A81, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B82">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A82, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B83" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A83, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B84" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A84, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B85" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A85, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B86" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A86, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B87" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A87, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B88" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A88, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B89" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A89, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B90" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A90, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B91" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A91, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B92" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A92, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B93" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A93, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B94" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A94, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B95" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A95, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B96" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A96, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B97" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A97, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B98" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A98, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B99" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A99, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B100" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A100, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B101" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A101, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B102" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A102, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B103" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A103, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B104" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A104, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B105" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A105, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B106" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A106, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B107" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A107, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B108" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A108, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B109" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A109, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B110" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A110, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B111" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A111, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B112" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A112, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B113" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A113, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B114" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A114, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B115" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A115, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B116" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A116, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B117">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A117, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B118" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A118, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B119" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A119, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B120" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A120, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B121" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A121, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B122" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A122, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B123" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A123, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B124" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A124, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B125" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A125, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B126" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A126, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B127" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A127, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B128">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A128, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B129" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A129, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B130" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A130, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B131" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A131, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B132" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A132, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B133" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A133, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B134" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A134, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B135" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A135, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B136" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A136, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B137" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A137, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B138" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A138, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B139" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A139, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B140" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A140, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B141" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A141, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B142" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A142, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B143" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A143, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B144" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A144, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B145" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A145, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B146" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A146, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B147" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A147, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B148" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A148, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B149" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A149, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B150" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A150, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B151">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A151, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B152" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A152, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B153" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A153, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B154" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A154, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B155" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A155, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B156" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A156, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B157" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A157, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B158" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A158, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B159" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A159, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B160">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A160, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B161" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A161, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B162" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A162, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B163" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A163, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B164" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A164, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B165" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A165, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B166" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A166, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B167" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A167, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B168" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A168, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B169" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A169, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B170" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A170, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B171" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A171, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B172" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A172, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B173" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A173, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B174" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A174, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B175" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A175, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B176" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A176, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B177" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A177, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B178" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A178, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B179" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A179, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5710,7 +5710,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B180" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A180, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B181" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A181, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B182" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A182, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B183" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A183, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B184" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A184, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B185" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A185, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B186" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A186, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B187" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A187, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B188" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A188, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B189">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A189, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B190" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A190, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B191" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A191, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B192" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A192, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B193" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A193, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B194" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A194, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B195" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A195, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B196" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A196, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B197" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A197, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B198">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A198, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B199" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A199, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B200" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A200, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B201" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A201, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B202" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A202, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B203" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A203, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B204" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A204, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B205" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A205, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B206" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A206, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B207" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A207, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B208" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A208, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B209" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A209, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B210" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A210, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5989,7 +5989,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B211" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A211, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B212" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A212, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B213" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A213, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B214" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A214, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B215" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A215, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B216" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A216, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6043,7 +6043,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B217" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A217, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6052,7 +6052,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B218" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A218, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B219" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A219, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B220" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A220, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B221" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A221, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B222" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A222, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B223" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A223, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B224" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A224, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B225" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A225, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B226" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A226, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B227" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A227, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B228" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A228, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B229" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A229, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B230" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A230, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B231" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A231, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B232" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A232, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B233" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A233, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B234" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A234, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6205,7 +6205,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B235" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A235, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6214,7 +6214,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B236" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A236, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B237" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A237, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B238" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A238, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B239">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A239, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B240" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A240, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B241" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A241, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6268,7 +6268,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B242" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A242, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B243" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A243, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B244" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A244, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B245" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A245, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B246" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A246, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B247" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A247, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B248" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A248, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B249" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A249, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6340,7 +6340,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B250" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A250, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B251" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A251, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6358,7 +6358,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B252" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A252, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B253" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A253, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6383,7 +6383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE6DB38-87E3-DC48-9FFA-21F97C9B98B3}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -6393,317 +6393,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" t="s">
         <v>397</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>398</v>
       </c>
-      <c r="F1" t="s">
-        <v>399</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="str">
+      <c r="A2" s="38" t="str">
         <f>INDEX(F2:F15, MATCH(B2,E2:E15))</f>
         <v>Australia</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="41">
+      <c r="B2" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="38">
         <v>9</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="38">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="str">
+      <c r="A3" s="38" t="str">
         <f>INDEX(F3:F15, MATCH(B3,E3:E15))</f>
         <v>Bahrain</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="41">
+      <c r="B3" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="38">
         <v>3</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="38">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="str">
+      <c r="A4" s="38" t="str">
         <f>INDEX(F4:F15, MATCH(B4,E4:E15))</f>
         <v>Germany</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="41">
+      <c r="B4" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="38">
         <v>4</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="38">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="str">
+      <c r="A5" s="38" t="str">
         <f>INDEX(F5:F15, MATCH(B5,E5:E15))</f>
         <v>China</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="41">
+      <c r="B5" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="38">
         <v>1</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="38">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="str">
+      <c r="A6" s="38" t="str">
         <f>INDEX(F6:F15, MATCH(B6,E6:E15))</f>
         <v>Japan</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="41">
+      <c r="B6" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="38">
         <v>1</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="38">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="str">
+      <c r="A7" s="38" t="str">
         <f>INDEX(F7:F15, MATCH(B7,E7:E15))</f>
         <v>Kuwait</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="41">
+      <c r="B7" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="38">
         <v>5</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="38">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="str">
+      <c r="A8" s="38" t="str">
         <f>INDEX(F8:F15, MATCH(B8,E8:E15))</f>
         <v>Malaysia</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8" s="41">
+      <c r="B8" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="38">
         <v>1</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="38">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="str">
+      <c r="A9" s="38" t="str">
         <f>INDEX(F9:F15, MATCH(B9,E9:E15))</f>
         <v>Myanmar</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" s="41">
+      <c r="B9" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="38">
         <v>1</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="38">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="str">
+      <c r="A10" s="38" t="str">
         <f>INDEX(F10:F15, MATCH(B10,E10:E15))</f>
         <v>Portugal</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="41">
+      <c r="B10" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="38">
         <v>8</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="38">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="str">
+      <c r="A11" s="38" t="str">
         <f>INDEX(F11:F15, MATCH(B11,E11:E15))</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="C11" s="41">
+      <c r="B11" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="38">
         <v>4</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="38">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="str">
+      <c r="A12" s="38" t="str">
         <f>INDEX(F12:F15, MATCH(B12,E12:E15))</f>
         <v>Spain</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="41">
+      <c r="B12" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="38">
         <v>18</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="38">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="str">
+      <c r="A13" s="38" t="str">
         <f>INDEX(F13:F15, MATCH(B13,E13:E15))</f>
         <v>United Arab Emirates</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="41">
+      <c r="B13" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="38">
         <v>10</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="38">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="str">
+      <c r="A14" s="38" t="str">
         <f>INDEX(F14:F15, MATCH(B14,E14:E15))</f>
         <v>UK</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="C14" s="41">
+      <c r="B14" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="38">
         <v>100</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="38">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="str">
+      <c r="A15" s="38" t="str">
         <f>INDEX(F15:F15, MATCH(B15,E15:E15))</f>
         <v>USA</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="C15" s="41">
+      <c r="B15" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" s="38">
         <v>500</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="38">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9879B329-3966-9040-9063-2A7396ADDEED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC526333-541B-284C-8D3F-53B4666B0246}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="1" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -1483,13 +1483,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1943,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32:O32"/>
     </sheetView>
   </sheetViews>
@@ -2014,17 +2014,17 @@
       <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2046,17 +2046,17 @@
       <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2078,17 +2078,17 @@
       <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2110,17 +2110,17 @@
       <c r="F5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2142,17 +2142,17 @@
       <c r="F6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
       <c r="P6"/>
     </row>
     <row r="7" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2174,17 +2174,17 @@
       <c r="F7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2206,17 +2206,17 @@
       <c r="F8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2238,17 +2238,17 @@
       <c r="F9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2270,17 +2270,17 @@
       <c r="F10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
       <c r="P10"/>
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2302,17 +2302,17 @@
       <c r="F11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2334,17 +2334,17 @@
       <c r="F12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
       <c r="P12"/>
     </row>
     <row r="13" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2366,17 +2366,17 @@
       <c r="F13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2398,17 +2398,17 @@
       <c r="F14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2430,15 +2430,15 @@
       <c r="F15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2460,17 +2460,17 @@
       <c r="F16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2492,17 +2492,17 @@
       <c r="F17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2524,17 +2524,17 @@
       <c r="F18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2556,17 +2556,17 @@
       <c r="F19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2588,17 +2588,17 @@
       <c r="F20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2620,17 +2620,17 @@
       <c r="F21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2652,17 +2652,17 @@
       <c r="F22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2684,17 +2684,17 @@
       <c r="F23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2716,17 +2716,17 @@
       <c r="F24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,17 +2748,17 @@
       <c r="F25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2780,17 +2780,17 @@
       <c r="F26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2812,17 +2812,17 @@
       <c r="F27" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2844,17 +2844,17 @@
       <c r="F28" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,17 +2876,17 @@
       <c r="F29" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2908,17 +2908,17 @@
       <c r="F30" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2940,17 +2940,17 @@
       <c r="F31" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2972,17 +2972,17 @@
       <c r="F32" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -3272,37 +3272,37 @@
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="G9:O9"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="G15:O15"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="G18:O18"/>
+    <mergeCell ref="G19:O19"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="G21:O21"/>
+    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="G29:O29"/>
+    <mergeCell ref="G30:O30"/>
+    <mergeCell ref="G31:O31"/>
     <mergeCell ref="G32:O32"/>
     <mergeCell ref="G24:O24"/>
     <mergeCell ref="G25:O25"/>
     <mergeCell ref="G26:O26"/>
     <mergeCell ref="G27:O27"/>
     <mergeCell ref="G28:O28"/>
-    <mergeCell ref="G22:O22"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="G29:O29"/>
-    <mergeCell ref="G30:O30"/>
-    <mergeCell ref="G31:O31"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="G18:O18"/>
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="G21:O21"/>
-    <mergeCell ref="G12:O12"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G7:O7"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="G9:O9"/>
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="G11:O11"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="G6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3312,8 +3312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4D57B-B68B-5E42-9689-ABFDDD3556B4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3353,7 +3353,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="30">
         <v>0</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="F2" s="32">
         <f>B2-C2</f>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC526333-541B-284C-8D3F-53B4666B0246}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B6D108-E1F9-C543-8409-1A09FAF1CBC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="1" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="4" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="404">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -446,9 +446,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Chitwan</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -1242,6 +1239,12 @@
   </si>
   <si>
     <t>मंसिर २४ गते दिल्लीबाट आएका भारतीय नागरीक</t>
+  </si>
+  <si>
+    <t>धरान</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख १०</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1483,15 +1486,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1944,7 +1948,7 @@
   <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:O32"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2014,17 +2018,17 @@
       <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2046,17 +2050,17 @@
       <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2076,19 +2080,19 @@
         <v>9</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2110,17 +2114,17 @@
       <c r="F5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2142,17 +2146,17 @@
       <c r="F6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
       <c r="P6"/>
     </row>
     <row r="7" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2174,17 +2178,17 @@
       <c r="F7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2206,17 +2210,17 @@
       <c r="F8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2238,17 +2242,17 @@
       <c r="F9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2268,19 +2272,19 @@
         <v>28</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
       <c r="P10"/>
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2302,17 +2306,17 @@
       <c r="F11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2334,17 +2338,17 @@
       <c r="F12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
       <c r="P12"/>
     </row>
     <row r="13" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2366,17 +2370,17 @@
       <c r="F13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2398,17 +2402,17 @@
       <c r="F14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2430,15 +2434,15 @@
       <c r="F15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2460,17 +2464,17 @@
       <c r="F16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2492,17 +2496,17 @@
       <c r="F17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2524,17 +2528,17 @@
       <c r="F18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
+      <c r="G18" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2556,17 +2560,17 @@
       <c r="F19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
+      <c r="G19" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2588,17 +2592,17 @@
       <c r="F20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
+      <c r="G20" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2620,17 +2624,17 @@
       <c r="F21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
+      <c r="G21" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2652,17 +2656,17 @@
       <c r="F22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
+      <c r="G22" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2684,17 +2688,17 @@
       <c r="F23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
+      <c r="G23" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2716,17 +2720,17 @@
       <c r="F24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
+      <c r="G24" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,17 +2752,17 @@
       <c r="F25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
+      <c r="G25" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2780,17 +2784,17 @@
       <c r="F26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
+      <c r="G26" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2812,17 +2816,17 @@
       <c r="F27" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
+      <c r="G27" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2844,17 +2848,17 @@
       <c r="F28" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
+      <c r="G28" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,17 +2880,17 @@
       <c r="F29" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
+      <c r="G29" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2908,17 +2912,17 @@
       <c r="F30" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2940,17 +2944,17 @@
       <c r="F31" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2972,17 +2976,17 @@
       <c r="F32" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
+      <c r="G32" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -3204,6 +3208,66 @@
         <v>51</v>
       </c>
       <c r="F43" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="42">
+        <v>43</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="C44" s="42">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="42">
+        <v>44</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="C45" s="42">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="42">
+        <v>45</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="C46" s="42">
+        <v>72</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="F46" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3272,37 +3336,37 @@
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="G7:O7"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="G9:O9"/>
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="G11:O11"/>
-    <mergeCell ref="G12:O12"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="G18:O18"/>
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="G21:O21"/>
-    <mergeCell ref="G22:O22"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="G29:O29"/>
-    <mergeCell ref="G30:O30"/>
-    <mergeCell ref="G31:O31"/>
     <mergeCell ref="G32:O32"/>
     <mergeCell ref="G24:O24"/>
     <mergeCell ref="G25:O25"/>
     <mergeCell ref="G26:O26"/>
     <mergeCell ref="G27:O27"/>
     <mergeCell ref="G28:O28"/>
+    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="G29:O29"/>
+    <mergeCell ref="G30:O30"/>
+    <mergeCell ref="G31:O31"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="G18:O18"/>
+    <mergeCell ref="G19:O19"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="G21:O21"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="G15:O15"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="G9:O9"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="G6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3312,8 +3376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4D57B-B68B-5E42-9689-ABFDDD3556B4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3347,13 +3411,13 @@
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
-        <v>8773</v>
+        <v>9011</v>
       </c>
       <c r="B2" s="28">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="30">
         <v>0</v>
@@ -3363,7 +3427,7 @@
       </c>
       <c r="F2" s="32">
         <f>B2-C2</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3376,7 +3440,7 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3393,17 +3457,26 @@
       <c r="A2" t="s">
         <v>55</v>
       </c>
+      <c r="B2" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A2, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
+      <c r="B3" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A3, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>57</v>
       </c>
       <c r="B4">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A4, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
         <v>2</v>
       </c>
     </row>
@@ -3411,47 +3484,80 @@
       <c r="A5" t="s">
         <v>58</v>
       </c>
+      <c r="B5" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A5, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>59</v>
       </c>
+      <c r="B6" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A6, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
+      <c r="B7" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A7, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>61</v>
       </c>
+      <c r="B8" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A8, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>62</v>
       </c>
+      <c r="B9" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A9, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
+      <c r="B10" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A10, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>64</v>
       </c>
+      <c r="B11" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A11, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
+      <c r="B12" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A12, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
       <c r="B13">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A13, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
         <v>2</v>
       </c>
     </row>
@@ -3459,92 +3565,161 @@
       <c r="A14" t="s">
         <v>67</v>
       </c>
+      <c r="B14" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A14, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
+      <c r="B15" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A15, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>69</v>
       </c>
+      <c r="B16" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A16, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>70</v>
       </c>
+      <c r="B17" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A17, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>71</v>
       </c>
+      <c r="B18" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A18, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
+      <c r="B19" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A19, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>73</v>
       </c>
+      <c r="B20" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A20, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
+      <c r="B21" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A21, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
+      <c r="B22" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A22, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>76</v>
       </c>
+      <c r="B23" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A23, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>77</v>
       </c>
+      <c r="B24" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A24, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>78</v>
       </c>
+      <c r="B25" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A25, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>79</v>
       </c>
+      <c r="B26" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A26, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>80</v>
       </c>
+      <c r="B27" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A27, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>81</v>
       </c>
+      <c r="B28" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A28, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>82</v>
       </c>
+      <c r="B29" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A29, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>83</v>
       </c>
+      <c r="B30" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A30, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>84</v>
       </c>
       <c r="B31">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A31, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
         <v>4</v>
       </c>
     </row>
@@ -3552,12 +3727,17 @@
       <c r="A32" t="s">
         <v>85</v>
       </c>
+      <c r="B32" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A32, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>86</v>
       </c>
       <c r="B33">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A33, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
         <v>1</v>
       </c>
     </row>
@@ -3565,17 +3745,26 @@
       <c r="A34" t="s">
         <v>87</v>
       </c>
+      <c r="B34" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A34, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>88</v>
       </c>
+      <c r="B35" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A35, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>89</v>
       </c>
       <c r="B36">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A36, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
         <v>5</v>
       </c>
     </row>
@@ -3583,92 +3772,161 @@
       <c r="A37" t="s">
         <v>90</v>
       </c>
+      <c r="B37" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A37, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>91</v>
       </c>
+      <c r="B38" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A38, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>92</v>
       </c>
+      <c r="B39" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A39, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>93</v>
       </c>
+      <c r="B40" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A40, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>94</v>
       </c>
+      <c r="B41" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A41, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>95</v>
       </c>
+      <c r="B42" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A42, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>96</v>
       </c>
+      <c r="B43" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A43, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>97</v>
       </c>
+      <c r="B44" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A44, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>98</v>
       </c>
+      <c r="B45" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A45, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>99</v>
       </c>
+      <c r="B46" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A46, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>100</v>
       </c>
+      <c r="B47" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A47, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>101</v>
       </c>
+      <c r="B48" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A48, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>102</v>
       </c>
+      <c r="B49" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A49, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>103</v>
       </c>
+      <c r="B50" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A50, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>104</v>
       </c>
+      <c r="B51" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A51, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>105</v>
       </c>
+      <c r="B52" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A52, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>106</v>
       </c>
+      <c r="B53" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A53, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>107</v>
       </c>
       <c r="B54">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A54, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
         <v>3</v>
       </c>
     </row>
@@ -3676,22 +3934,35 @@
       <c r="A55" t="s">
         <v>108</v>
       </c>
+      <c r="B55" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A55, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>109</v>
       </c>
+      <c r="B56" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A56, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>110</v>
       </c>
+      <c r="B57" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A57, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>111</v>
       </c>
       <c r="B58">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A58, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
         <v>1</v>
       </c>
     </row>
@@ -3699,92 +3970,161 @@
       <c r="A59" t="s">
         <v>112</v>
       </c>
+      <c r="B59" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A59, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>113</v>
       </c>
+      <c r="B60" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A60, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>114</v>
       </c>
+      <c r="B61" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A61, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>115</v>
       </c>
+      <c r="B62" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A62, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>116</v>
       </c>
+      <c r="B63" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A63, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>117</v>
       </c>
+      <c r="B64" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A64, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>118</v>
       </c>
+      <c r="B65" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A65, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>119</v>
       </c>
+      <c r="B66" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A66, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>120</v>
       </c>
+      <c r="B67" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A67, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>121</v>
       </c>
+      <c r="B68" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A68, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>122</v>
       </c>
+      <c r="B69" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A69, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>123</v>
       </c>
+      <c r="B70">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A70, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>124</v>
       </c>
+      <c r="B71" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A71, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>125</v>
       </c>
+      <c r="B72" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A72, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>126</v>
       </c>
+      <c r="B73" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A73, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>127</v>
       </c>
+      <c r="B74" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A74, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>128</v>
       </c>
+      <c r="B75" t="str">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A75, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>129</v>
       </c>
       <c r="B76">
+        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A76, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
         <v>24</v>
       </c>
     </row>
@@ -3795,10 +4135,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7092C9DD-A343-5C4D-8235-021966E86C81}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3873,7 +4213,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -4055,27 +4395,38 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13">
         <v>42</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>5</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D13" s="37">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F13" s="36">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>37</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H13" s="37">
         <v>0.88100000000000001</v>
       </c>
     </row>
@@ -4088,7 +4439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C54A67-FFF9-F147-A547-2706EC5F8302}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -4100,15 +4451,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A2, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4117,7 +4468,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A3, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4126,7 +4477,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A4, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4135,7 +4486,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A5, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4144,7 +4495,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A6, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4153,7 +4504,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A7, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4162,7 +4513,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A8, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4171,7 +4522,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A9, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4180,7 +4531,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A10, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4189,7 +4540,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A11, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4198,7 +4549,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A12, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4207,7 +4558,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A13, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4216,7 +4567,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A14, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4225,7 +4576,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A15, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4234,7 +4585,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A16, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4243,7 +4594,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A17, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4252,7 +4603,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A18, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4261,7 +4612,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A19, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4270,7 +4621,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A20, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4279,7 +4630,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A21, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4288,7 +4639,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A22, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4297,7 +4648,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A23, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4306,7 +4657,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A24, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4315,7 +4666,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A25, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4324,7 +4675,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A26, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4333,7 +4684,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A27, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4342,7 +4693,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A28, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4351,7 +4702,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A29, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4360,7 +4711,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A30, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4369,7 +4720,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A31, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4378,7 +4729,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A32, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4387,7 +4738,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A33, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4396,7 +4747,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A34, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4405,7 +4756,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A35, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4414,7 +4765,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A36, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4423,7 +4774,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B37" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A37, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4432,7 +4783,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B38" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A38, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4441,7 +4792,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B39" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A39, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4450,7 +4801,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A40, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4459,7 +4810,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A41, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4468,7 +4819,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A42, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4477,7 +4828,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A43, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4486,7 +4837,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B44" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A44, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4495,7 +4846,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B45" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A45, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4504,7 +4855,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B46" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A46, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4513,7 +4864,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B47" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A47, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4522,7 +4873,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A48, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4531,7 +4882,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B49" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A49, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4540,7 +4891,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B50" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A50, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4549,7 +4900,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B51" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A51, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4558,7 +4909,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B52" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A52, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4567,7 +4918,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B53" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A53, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4576,7 +4927,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B54" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A54, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4585,7 +4936,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B55" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A55, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4594,7 +4945,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A56, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4603,7 +4954,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B57" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A57, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4612,7 +4963,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B58">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A58, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4621,7 +4972,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B59" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A59, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4630,7 +4981,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B60" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A60, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4639,7 +4990,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B61" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A61, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4648,7 +4999,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B62" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A62, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4657,7 +5008,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B63" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A63, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4666,7 +5017,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B64" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A64, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4675,7 +5026,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B65" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A65, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4684,7 +5035,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B66" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A66, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4693,7 +5044,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B67" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A67, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4702,7 +5053,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B68">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A68, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4711,7 +5062,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B69" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A69, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4720,7 +5071,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B70" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A70, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4729,7 +5080,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B71" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A71, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4738,7 +5089,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B72" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A72, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4747,7 +5098,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B73" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A73, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4756,7 +5107,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B74" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A74, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4765,7 +5116,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B75" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A75, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4774,7 +5125,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B76" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A76, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4783,7 +5134,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B77" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A77, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4792,7 +5143,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B78" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A78, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4801,7 +5152,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B79" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A79, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4810,7 +5161,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B80" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A80, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4819,7 +5170,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B81" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A81, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4828,7 +5179,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B82">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A82, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4837,7 +5188,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B83" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A83, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4846,7 +5197,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B84" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A84, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4855,7 +5206,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B85" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A85, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4864,7 +5215,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B86" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A86, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4873,7 +5224,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B87" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A87, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4882,7 +5233,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B88" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A88, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4891,7 +5242,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B89" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A89, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4900,7 +5251,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B90" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A90, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4909,7 +5260,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B91" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A91, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4918,7 +5269,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B92" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A92, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4927,7 +5278,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B93" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A93, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4936,7 +5287,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B94" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A94, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4945,7 +5296,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B95" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A95, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4954,7 +5305,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B96" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A96, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4963,7 +5314,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B97" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A97, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4972,7 +5323,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B98" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A98, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4981,7 +5332,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B99" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A99, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4990,7 +5341,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B100" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A100, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4999,7 +5350,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B101" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A101, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5008,7 +5359,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B102" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A102, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5017,7 +5368,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B103" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A103, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5026,7 +5377,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B104" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A104, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5035,7 +5386,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B105" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A105, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5044,7 +5395,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B106" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A106, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5053,7 +5404,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B107" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A107, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5062,7 +5413,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B108" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A108, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5071,7 +5422,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B109" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A109, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5080,7 +5431,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B110" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A110, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5089,7 +5440,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B111" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A111, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5098,7 +5449,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B112" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A112, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5107,7 +5458,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B113" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A113, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5116,7 +5467,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B114" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A114, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5125,7 +5476,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B115" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A115, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5134,7 +5485,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B116" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A116, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5143,7 +5494,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B117">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A117, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5152,7 +5503,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B118" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A118, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5161,7 +5512,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B119" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A119, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5170,7 +5521,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B120" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A120, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5179,7 +5530,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B121" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A121, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5188,7 +5539,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B122" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A122, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5197,7 +5548,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B123" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A123, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5206,7 +5557,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B124" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A124, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5215,7 +5566,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B125" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A125, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5224,7 +5575,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B126" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A126, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5233,7 +5584,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B127" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A127, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5242,7 +5593,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B128">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A128, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5251,7 +5602,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B129" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A129, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5260,7 +5611,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B130" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A130, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5269,7 +5620,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B131" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A131, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5278,7 +5629,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B132" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A132, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5287,7 +5638,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B133" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A133, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5296,7 +5647,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B134" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A134, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5305,7 +5656,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B135" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A135, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5314,7 +5665,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B136" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A136, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5323,7 +5674,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B137" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A137, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5332,7 +5683,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B138" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A138, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5341,7 +5692,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B139" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A139, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5350,7 +5701,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B140" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A140, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5359,7 +5710,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B141" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A141, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5368,7 +5719,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B142" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A142, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5377,7 +5728,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B143" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A143, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5386,7 +5737,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B144" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A144, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5395,7 +5746,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B145" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A145, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5404,7 +5755,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B146" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A146, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5413,7 +5764,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B147" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A147, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5422,7 +5773,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B148" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A148, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5431,7 +5782,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B149" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A149, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5440,7 +5791,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B150" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A150, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5449,7 +5800,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B151">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A151, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5458,7 +5809,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B152" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A152, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5467,7 +5818,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B153" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A153, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5476,7 +5827,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B154" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A154, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5485,7 +5836,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B155" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A155, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5494,7 +5845,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B156" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A156, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5503,7 +5854,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B157" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A157, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5512,7 +5863,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B158" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A158, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5521,7 +5872,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B159" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A159, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5530,7 +5881,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B160">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A160, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5539,7 +5890,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B161" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A161, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5548,7 +5899,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B162" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A162, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5557,7 +5908,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B163" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A163, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5566,7 +5917,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B164" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A164, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5575,7 +5926,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B165" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A165, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5584,7 +5935,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B166" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A166, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5593,7 +5944,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B167" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A167, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5602,7 +5953,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B168" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A168, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5611,7 +5962,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B169" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A169, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5620,7 +5971,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B170" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A170, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5629,7 +5980,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B171" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A171, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5638,7 +5989,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B172" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A172, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5647,7 +5998,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B173" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A173, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5656,7 +6007,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B174" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A174, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5665,7 +6016,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B175" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A175, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5674,7 +6025,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B176" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A176, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5683,7 +6034,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B177" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A177, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5692,7 +6043,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B178" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A178, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5701,7 +6052,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B179" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A179, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5710,7 +6061,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B180" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A180, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5719,7 +6070,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B181" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A181, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5728,7 +6079,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B182" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A182, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5737,7 +6088,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B183" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A183, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5746,7 +6097,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B184" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A184, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5755,7 +6106,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B185" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A185, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5764,7 +6115,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B186" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A186, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5773,7 +6124,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B187" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A187, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5782,7 +6133,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B188" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A188, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5791,7 +6142,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B189">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A189, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5800,7 +6151,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B190" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A190, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5809,7 +6160,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B191" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A191, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5818,7 +6169,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B192" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A192, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5827,7 +6178,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B193" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A193, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5836,7 +6187,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B194" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A194, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5845,7 +6196,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B195" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A195, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5854,7 +6205,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B196" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A196, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5863,7 +6214,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B197" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A197, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5872,7 +6223,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B198">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A198, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5881,7 +6232,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B199" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A199, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5890,7 +6241,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B200" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A200, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5899,7 +6250,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B201" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A201, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5908,7 +6259,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B202" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A202, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5917,7 +6268,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B203" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A203, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5926,7 +6277,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B204" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A204, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5935,7 +6286,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B205" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A205, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5944,7 +6295,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B206" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A206, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5953,7 +6304,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B207" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A207, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5962,7 +6313,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B208" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A208, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5971,7 +6322,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B209" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A209, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5980,7 +6331,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B210" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A210, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5989,7 +6340,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B211" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A211, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5998,7 +6349,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B212" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A212, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6007,7 +6358,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B213" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A213, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6016,7 +6367,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B214" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A214, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6025,7 +6376,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B215" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A215, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6034,7 +6385,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B216" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A216, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6043,7 +6394,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B217" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A217, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6052,7 +6403,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B218" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A218, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6061,7 +6412,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B219" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A219, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6070,7 +6421,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B220" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A220, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6079,7 +6430,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B221" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A221, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6088,7 +6439,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B222" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A222, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6097,7 +6448,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B223" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A223, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6106,7 +6457,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B224" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A224, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6115,7 +6466,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B225" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A225, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6124,7 +6475,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B226" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A226, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6133,7 +6484,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B227" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A227, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6142,7 +6493,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B228" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A228, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6151,7 +6502,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B229" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A229, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6160,7 +6511,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B230" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A230, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6169,7 +6520,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B231" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A231, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6178,7 +6529,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B232" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A232, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6187,7 +6538,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B233" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A233, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6196,7 +6547,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B234" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A234, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6205,7 +6556,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B235" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A235, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6214,7 +6565,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B236" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A236, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6223,7 +6574,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B237" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A237, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6232,7 +6583,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B238" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A238, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6241,7 +6592,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B239">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A239, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6250,7 +6601,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B240" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A240, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6259,7 +6610,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B241" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A241, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6268,7 +6619,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B242" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A242, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6277,7 +6628,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B243" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A243, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6286,7 +6637,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B244" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A244, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6295,7 +6646,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B245" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A245, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6304,7 +6655,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B246" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A246, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6313,7 +6664,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B247" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A247, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6322,7 +6673,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B248" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A248, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6331,7 +6682,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B249" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A249, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6340,7 +6691,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B250" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A250, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6349,7 +6700,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B251" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A251, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6358,7 +6709,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B252" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A252, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6367,7 +6718,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B253" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A253, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6394,22 +6745,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" t="s">
         <v>396</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>397</v>
-      </c>
-      <c r="F1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6418,7 +6769,7 @@
         <v>Australia</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="38">
         <v>9</v>
@@ -6427,10 +6778,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6439,7 +6790,7 @@
         <v>Bahrain</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="38">
         <v>3</v>
@@ -6448,10 +6799,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -6460,7 +6811,7 @@
         <v>Germany</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="38">
         <v>4</v>
@@ -6469,10 +6820,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -6481,7 +6832,7 @@
         <v>China</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -6490,10 +6841,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -6502,7 +6853,7 @@
         <v>Japan</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" s="38">
         <v>1</v>
@@ -6511,10 +6862,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -6523,7 +6874,7 @@
         <v>Kuwait</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C7" s="38">
         <v>5</v>
@@ -6532,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -6544,7 +6895,7 @@
         <v>Malaysia</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8" s="38">
         <v>1</v>
@@ -6553,10 +6904,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -6565,7 +6916,7 @@
         <v>Myanmar</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C9" s="38">
         <v>1</v>
@@ -6574,10 +6925,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -6586,7 +6937,7 @@
         <v>Portugal</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C10" s="38">
         <v>8</v>
@@ -6595,10 +6946,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -6607,7 +6958,7 @@
         <v>Saudi Arabia</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C11" s="38">
         <v>4</v>
@@ -6616,10 +6967,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -6628,7 +6979,7 @@
         <v>Spain</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="38">
         <v>18</v>
@@ -6637,10 +6988,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -6649,7 +7000,7 @@
         <v>United Arab Emirates</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="38">
         <v>10</v>
@@ -6658,10 +7009,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -6670,7 +7021,7 @@
         <v>UK</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C14" s="38">
         <v>100</v>
@@ -6679,10 +7030,10 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -6691,7 +7042,7 @@
         <v>USA</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C15" s="38">
         <v>500</v>
@@ -6700,10 +7051,10 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B6D108-E1F9-C543-8409-1A09FAF1CBC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D8F1A9-2C46-B745-B1B4-BA1B074480EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="4" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="406">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -1245,6 +1245,12 @@
   </si>
   <si>
     <t>२०७७ बैशाख १०</t>
+  </si>
+  <si>
+    <t>अछाम</t>
+  </si>
+  <si>
+    <t>सुनसरी</t>
   </si>
 </sst>
 </file>
@@ -1486,16 +1492,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1947,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2018,17 +2024,17 @@
       <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2050,17 +2056,17 @@
       <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2082,17 +2088,17 @@
       <c r="F4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2114,17 +2120,17 @@
       <c r="F5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2146,17 +2152,17 @@
       <c r="F6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
       <c r="P6"/>
     </row>
     <row r="7" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2178,17 +2184,17 @@
       <c r="F7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2210,17 +2216,17 @@
       <c r="F8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2242,17 +2248,17 @@
       <c r="F9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2274,17 +2280,17 @@
       <c r="F10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
       <c r="P10"/>
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2306,17 +2312,17 @@
       <c r="F11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2338,17 +2344,17 @@
       <c r="F12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
       <c r="P12"/>
     </row>
     <row r="13" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2370,17 +2376,17 @@
       <c r="F13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2402,17 +2408,17 @@
       <c r="F14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2434,15 +2440,15 @@
       <c r="F15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2464,17 +2470,17 @@
       <c r="F16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2496,17 +2502,17 @@
       <c r="F17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2528,17 +2534,17 @@
       <c r="F18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2560,17 +2566,17 @@
       <c r="F19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2592,17 +2598,17 @@
       <c r="F20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2624,17 +2630,17 @@
       <c r="F21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2656,17 +2662,17 @@
       <c r="F22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2688,17 +2694,17 @@
       <c r="F23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2720,17 +2726,17 @@
       <c r="F24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2752,17 +2758,17 @@
       <c r="F25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2784,17 +2790,17 @@
       <c r="F26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2816,17 +2822,17 @@
       <c r="F27" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2848,17 +2854,17 @@
       <c r="F28" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2880,17 +2886,17 @@
       <c r="F29" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2912,17 +2918,17 @@
       <c r="F30" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2944,17 +2950,17 @@
       <c r="F31" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2976,17 +2982,17 @@
       <c r="F32" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -3212,13 +3218,13 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="42">
+      <c r="A44" s="39">
         <v>43</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="C44" s="42">
+        <v>405</v>
+      </c>
+      <c r="C44" s="39">
         <v>24</v>
       </c>
       <c r="D44" t="s">
@@ -3232,13 +3238,13 @@
       </c>
     </row>
     <row r="45" spans="1:18" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="42">
+      <c r="A45" s="39">
         <v>44</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="C45" s="42">
+        <v>405</v>
+      </c>
+      <c r="C45" s="39">
         <v>60</v>
       </c>
       <c r="D45" t="s">
@@ -3252,13 +3258,13 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="42">
+      <c r="A46" s="39">
         <v>45</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="C46" s="42">
+        <v>405</v>
+      </c>
+      <c r="C46" s="39">
         <v>72</v>
       </c>
       <c r="D46" t="s">
@@ -3336,37 +3342,37 @@
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="G9:O9"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="G15:O15"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="G18:O18"/>
+    <mergeCell ref="G19:O19"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="G21:O21"/>
+    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="G29:O29"/>
+    <mergeCell ref="G30:O30"/>
+    <mergeCell ref="G31:O31"/>
     <mergeCell ref="G32:O32"/>
     <mergeCell ref="G24:O24"/>
     <mergeCell ref="G25:O25"/>
     <mergeCell ref="G26:O26"/>
     <mergeCell ref="G27:O27"/>
     <mergeCell ref="G28:O28"/>
-    <mergeCell ref="G22:O22"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="G29:O29"/>
-    <mergeCell ref="G30:O30"/>
-    <mergeCell ref="G31:O31"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="G18:O18"/>
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="G21:O21"/>
-    <mergeCell ref="G12:O12"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G7:O7"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="G9:O9"/>
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="G11:O11"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="G6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3440,7 +3446,7 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4135,20 +4141,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7092C9DD-A343-5C4D-8235-021966E86C81}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -4164,8 +4180,17 @@
       <c r="E2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>404</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -4184,8 +4209,14 @@
       <c r="F3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -4210,8 +4241,17 @@
       <c r="H4" s="36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -4236,8 +4276,14 @@
       <c r="H5" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -4262,8 +4308,14 @@
       <c r="H6" s="36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -4288,8 +4340,14 @@
       <c r="H7" s="36">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -4314,8 +4372,14 @@
       <c r="H8" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -4340,8 +4404,14 @@
       <c r="H9" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -4366,8 +4436,14 @@
       <c r="H10" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -4392,8 +4468,14 @@
       <c r="H11" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -4403,8 +4485,14 @@
       <c r="D12" s="36"/>
       <c r="F12" s="36"/>
       <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -4428,6 +4516,432 @@
       </c>
       <c r="H13" s="37">
         <v>0.88100000000000001</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>83</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="10:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>88</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>92</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L42" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>96</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>97</v>
+      </c>
+      <c r="L44" s="34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>98</v>
+      </c>
+      <c r="L45" s="34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="10:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>99</v>
+      </c>
+      <c r="L46" s="34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="J76" t="s">
+        <v>129</v>
+      </c>
+      <c r="K76" s="33" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4439,7 +4953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C54A67-FFF9-F147-A547-2706EC5F8302}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D8F1A9-2C46-B745-B1B4-BA1B074480EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C67FA1-42DE-2342-ADD9-230DAA14580E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="403">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -122,18 +122,12 @@
     <t>२०७६ चैत २२</t>
   </si>
   <si>
-    <t>धनगडि</t>
-  </si>
-  <si>
     <t>चौथो केसको भाउजु</t>
   </si>
   <si>
     <t>२०७६ चैत ३०</t>
   </si>
   <si>
-    <t>बिरगंज</t>
-  </si>
-  <si>
     <t>भारतीय नागरिक</t>
   </si>
   <si>
@@ -446,9 +440,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -1241,9 +1232,6 @@
     <t>मंसिर २४ गते दिल्लीबाट आएका भारतीय नागरीक</t>
   </si>
   <si>
-    <t>धरान</t>
-  </si>
-  <si>
     <t>२०७७ बैशाख १०</t>
   </si>
   <si>
@@ -1251,6 +1239,9 @@
   </si>
   <si>
     <t>सुनसरी</t>
+  </si>
+  <si>
+    <t>पर्सा</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1493,14 +1484,24 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1953,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2024,17 +2025,17 @@
       <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,17 +2057,17 @@
       <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="G3" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2088,17 +2089,17 @@
       <c r="F4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2106,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="19">
         <v>34</v>
@@ -2120,17 +2121,17 @@
       <c r="F5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2152,17 +2153,17 @@
       <c r="F6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
       <c r="P6"/>
     </row>
     <row r="7" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2184,17 +2185,17 @@
       <c r="F7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2202,7 +2203,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="17">
         <v>34</v>
@@ -2216,17 +2217,17 @@
       <c r="F8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+      <c r="G8" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2248,17 +2249,17 @@
       <c r="F9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2280,17 +2281,17 @@
       <c r="F10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
       <c r="P10"/>
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2298,7 +2299,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>32</v>
+        <v>402</v>
       </c>
       <c r="C11" s="19">
         <v>37</v>
@@ -2307,22 +2308,22 @@
         <v>7</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
+      <c r="G11" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2330,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>32</v>
+        <v>402</v>
       </c>
       <c r="C12" s="17">
         <v>55</v>
@@ -2339,22 +2340,22 @@
         <v>7</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
+      <c r="G12" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
       <c r="P12"/>
     </row>
     <row r="13" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2362,7 +2363,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>32</v>
+        <v>402</v>
       </c>
       <c r="C13" s="19">
         <v>44</v>
@@ -2371,22 +2372,22 @@
         <v>7</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
+      <c r="G13" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,22 +2404,22 @@
         <v>13</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
+      <c r="G14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2426,7 +2427,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="19">
         <v>19</v>
@@ -2435,20 +2436,20 @@
         <v>7</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2465,22 +2466,22 @@
         <v>13</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
+      <c r="G16" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2497,22 +2498,22 @@
         <v>7</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
+      <c r="G17" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2520,7 +2521,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="21">
         <v>29</v>
@@ -2529,22 +2530,22 @@
         <v>7</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
+      <c r="G18" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2552,7 +2553,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="19">
         <v>40</v>
@@ -2561,22 +2562,22 @@
         <v>7</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
+      <c r="G19" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2584,7 +2585,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="21">
         <v>20</v>
@@ -2593,22 +2594,22 @@
         <v>7</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
+      <c r="G20" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2616,7 +2617,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="19">
         <v>25</v>
@@ -2625,22 +2626,22 @@
         <v>7</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
+      <c r="G21" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2648,7 +2649,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="21">
         <v>22</v>
@@ -2657,22 +2658,22 @@
         <v>7</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
+      <c r="G22" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2680,7 +2681,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="19">
         <v>28</v>
@@ -2689,22 +2690,22 @@
         <v>7</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
+      <c r="G23" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2712,7 +2713,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="21">
         <v>28</v>
@@ -2721,22 +2722,22 @@
         <v>7</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
+      <c r="G24" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2744,7 +2745,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="19">
         <v>28</v>
@@ -2753,22 +2754,22 @@
         <v>7</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
+      <c r="G25" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2776,7 +2777,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="21">
         <v>28</v>
@@ -2785,22 +2786,22 @@
         <v>7</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
+      <c r="G26" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2808,7 +2809,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="19">
         <v>26</v>
@@ -2817,22 +2818,22 @@
         <v>7</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
+      <c r="G27" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2840,7 +2841,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="21">
         <v>29</v>
@@ -2849,22 +2850,22 @@
         <v>7</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
+      <c r="G28" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2872,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="19">
         <v>34</v>
@@ -2881,22 +2882,22 @@
         <v>7</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
+      <c r="G29" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2904,7 +2905,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="21">
         <v>63</v>
@@ -2913,22 +2914,22 @@
         <v>13</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
+      <c r="G30" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2936,7 +2937,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="19">
         <v>27</v>
@@ -2945,22 +2946,22 @@
         <v>7</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
+      <c r="G31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2968,7 +2969,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="21">
         <v>65</v>
@@ -2977,22 +2978,22 @@
         <v>7</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
+      <c r="G32" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -3000,7 +3001,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" s="19">
         <v>18</v>
@@ -3009,7 +3010,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>4</v>
@@ -3022,7 +3023,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="21">
         <v>18</v>
@@ -3031,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>4</v>
@@ -3042,7 +3043,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="19">
         <v>20</v>
@@ -3051,7 +3052,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>4</v>
@@ -3062,7 +3063,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="21">
         <v>33</v>
@@ -3071,7 +3072,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>4</v>
@@ -3082,7 +3083,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="19">
         <v>40</v>
@@ -3091,7 +3092,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>4</v>
@@ -3102,7 +3103,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="21">
         <v>41</v>
@@ -3111,7 +3112,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>4</v>
@@ -3122,7 +3123,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="19">
         <v>41</v>
@@ -3131,7 +3132,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>4</v>
@@ -3142,7 +3143,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="21">
         <v>52</v>
@@ -3151,7 +3152,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>4</v>
@@ -3162,7 +3163,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="35">
         <v>58</v>
@@ -3171,7 +3172,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>4</v>
@@ -3182,16 +3183,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D42" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>4</v>
@@ -3202,7 +3203,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43" s="19">
         <v>36</v>
@@ -3211,7 +3212,7 @@
         <v>13</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>4</v>
@@ -3222,7 +3223,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C44" s="39">
         <v>24</v>
@@ -3231,7 +3232,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>4</v>
@@ -3242,7 +3243,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C45" s="39">
         <v>60</v>
@@ -3251,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>4</v>
@@ -3262,7 +3263,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C46" s="39">
         <v>72</v>
@@ -3271,7 +3272,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>4</v>
@@ -3342,37 +3343,37 @@
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="G7:O7"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="G9:O9"/>
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="G11:O11"/>
-    <mergeCell ref="G12:O12"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="G18:O18"/>
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="G21:O21"/>
-    <mergeCell ref="G22:O22"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="G29:O29"/>
-    <mergeCell ref="G30:O30"/>
-    <mergeCell ref="G31:O31"/>
     <mergeCell ref="G32:O32"/>
     <mergeCell ref="G24:O24"/>
     <mergeCell ref="G25:O25"/>
     <mergeCell ref="G26:O26"/>
     <mergeCell ref="G27:O27"/>
     <mergeCell ref="G28:O28"/>
+    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="G29:O29"/>
+    <mergeCell ref="G30:O30"/>
+    <mergeCell ref="G31:O31"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="G18:O18"/>
+    <mergeCell ref="G19:O19"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="G21:O21"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="G15:O15"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="G9:O9"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="G6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3397,22 +3398,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="26" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
@@ -3446,691 +3447,691 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A2, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A2,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A3, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A3,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A4, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A4,map_update!$B$4:$B$78,0)),"")</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A5, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A5,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A6, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A6,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A7, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A7,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A8, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A8,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A9, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A9,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A10, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A10,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A11, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A11,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A12, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A12,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A13, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A13,map_update!$B$4:$B$78,0)),"")</f>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A14, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A14,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A15, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A15,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A16, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A16,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A17, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A17,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A18, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A18,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A19, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A19,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A20, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A20,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A21, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A21,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A22, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A22,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A23, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A23,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A24, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A24,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A25, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A25,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A26, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A26,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A27, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A27,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A28, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A28,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A29, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A29,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A30, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A30,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A31, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A31,map_update!$B$4:$B$78,0)),"")</f>
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A32, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A32,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A33, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A33,map_update!$B$4:$B$78,0)),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A34, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A34,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B35" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A35, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A35,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B36">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A36, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A36,map_update!$B$4:$B$78,0)),"")</f>
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A37, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A37,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A38, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A38,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A39, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A39,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B40" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A40, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A40,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A41, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A41,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B42" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A42, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A42,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A43, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A43,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A44, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A44,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B45" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A45, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A45,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A46, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A46,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A47, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A47,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A48, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A48,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A49, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A49,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A50, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A50,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B51" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A51, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A51,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A52, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A52,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B53" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A53, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A53,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A54, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A54,map_update!$B$4:$B$78,0)),"")</f>
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A55, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A55,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A56, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A56,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A57, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A57,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A58, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A58,map_update!$B$4:$B$78,0)),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B59" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A59, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A59,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A60, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A60,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B61" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A61, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A61,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B62" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A62, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A62,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B63" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A63, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A63,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B64" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A64, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A64,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B65" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A65, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A65,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B66" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A66, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A66,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B67" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A67, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A67,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B68" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A68, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A68,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B69" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A69, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A69,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A70, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
-        <v>3</v>
+        <v>121</v>
+      </c>
+      <c r="B70" t="str">
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A70,map_update!$B$4:$B$78,0)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B71" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A71, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A71,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B72" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A72, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A72,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B73" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A73, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A73,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B74" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A74, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A74,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B75" t="str">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A75, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A75,map_update!$B$4:$B$78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B76">
-        <f>IFERROR(INDEX(map_update!$B$4:'map_update'!$B$12, MATCH(map!A76, map_update!$A$4:'map_update'!$A$12,0)),"")</f>
+        <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A76,map_update!$B$4:$B$78,0)),"")</f>
         <v>24</v>
       </c>
     </row>
@@ -4141,808 +4142,1005 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7092C9DD-A343-5C4D-8235-021966E86C81}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="44"/>
+    <col min="13" max="13" width="16.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>130</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="C4" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A4) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A4))</f>
+        <v/>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E4" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="44"/>
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="C5" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A5) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A5))</f>
+        <v/>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
-        <v>404</v>
-      </c>
-      <c r="L2" s="18" t="s">
+      <c r="C6" s="45">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A6) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A6))</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="44"/>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A7) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A7))</f>
+        <v/>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="44"/>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A8) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A8))</f>
+        <v/>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="44"/>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A9) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A9))</f>
+        <v/>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="44"/>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A10) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A10))</f>
+        <v/>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="44"/>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A11) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A11))</f>
+        <v/>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="I11" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="44"/>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A12) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A12))</f>
+        <v/>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="44"/>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A13) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A13))</f>
+        <v/>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>37</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A14) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A14))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="45">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A15) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A15))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A16) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A16))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A17) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A17))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="44"/>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A18) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A18))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="44"/>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A19) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A19))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="44"/>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A20) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A20))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="44"/>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A21) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A21))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="44"/>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A22) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A22))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="44"/>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A23) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A23))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="44"/>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A24) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A24))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="44"/>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A25) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A25))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="44"/>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A26) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A26))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A27) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A27))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="44"/>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A28) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A28))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="44"/>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A29) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A29))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="44"/>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A30) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A30))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="A31" s="44"/>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A31) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A31))</f>
+        <v/>
+      </c>
+      <c r="L31" s="45"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="A32" s="44"/>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A32) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A32))</f>
+        <v/>
+      </c>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="45">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A33) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A33))</f>
+        <v>4</v>
+      </c>
+      <c r="L33" s="45"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="44"/>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A34) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A34))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="45">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A35) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A35))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="44"/>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A36) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A36))</f>
+        <v/>
+      </c>
+      <c r="L36" s="45"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="44"/>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A37) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A37))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="45" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="45">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A38) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A38))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="44"/>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A39) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A39))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="44"/>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A40) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A40))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="44"/>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A41) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A41))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="44"/>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A42) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A42))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="44"/>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A43) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A43))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="44"/>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A44) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A44))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="44"/>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A45) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A45))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="44"/>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A46) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A46))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="44"/>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A47) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A47))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="44"/>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A48) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A48))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="44"/>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A49) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A49))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="44"/>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A50) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A50))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="44"/>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A51) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A51))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="44"/>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A52) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A52))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="44"/>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A53) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A53))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="44"/>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A54) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A54))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="44"/>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A55) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A55))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="45">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A56) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A56))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="44"/>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A57) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A57))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="44"/>
+      <c r="B58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A58) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A58))</f>
+        <v/>
+      </c>
+      <c r="L58" s="45"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="44"/>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A59) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A59))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="45">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A60) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A60))</f>
         <v>1</v>
       </c>
-      <c r="D4" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="36">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="36">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="36">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="36">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="36">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="36">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="36">
-        <v>0.6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="36">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="36">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="36">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="36">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="36">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" s="36">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="44"/>
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A61) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A61))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="44"/>
+      <c r="B62" t="s">
         <v>111</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="36">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="36">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="36">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11">
+      <c r="C62" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A62) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A62))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="44"/>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A63) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A63))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="44"/>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A64) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A64))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="44"/>
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A65) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A65))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="44"/>
+      <c r="B66" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A66) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A66))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="44"/>
+      <c r="B67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A67) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A67))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="44"/>
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A68) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A68))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="44"/>
+      <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A69) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A69))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="44"/>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A70) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A70))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="44"/>
+      <c r="B71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A71) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A71))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="44"/>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A72) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A72))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="44"/>
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A73) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A73))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="44"/>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A74) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A74))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="44"/>
+      <c r="B75" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A75) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A75))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="44"/>
+      <c r="B76" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A76) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A76))</f>
+        <v/>
+      </c>
+      <c r="L76" s="46"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="44"/>
+      <c r="B77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="45" t="str">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A77) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A77))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="45">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A78) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A78))</f>
         <v>24</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="36">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="36">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>24</v>
-      </c>
-      <c r="H11" s="36">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="J12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13">
-        <v>42</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="37">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="36">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>37</v>
-      </c>
-      <c r="H13" s="37">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="J13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J18" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J19" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J20" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J21" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J22" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J23" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J24" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J25" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J27" t="s">
-        <v>80</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J28" t="s">
-        <v>81</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J29" t="s">
-        <v>82</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J30" t="s">
-        <v>83</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J31" t="s">
-        <v>84</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="10:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="J32" t="s">
-        <v>85</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J33" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J34" t="s">
-        <v>87</v>
-      </c>
-      <c r="L34" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J35" t="s">
-        <v>88</v>
-      </c>
-      <c r="L35" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J36" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J37" t="s">
-        <v>90</v>
-      </c>
-      <c r="L37" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J38" t="s">
-        <v>91</v>
-      </c>
-      <c r="L38" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J39" t="s">
-        <v>92</v>
-      </c>
-      <c r="L39" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J40" t="s">
-        <v>93</v>
-      </c>
-      <c r="L40" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J41" t="s">
-        <v>94</v>
-      </c>
-      <c r="L41" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L42" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J43" t="s">
-        <v>96</v>
-      </c>
-      <c r="L43" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L44" s="34" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="45" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J45" t="s">
-        <v>98</v>
-      </c>
-      <c r="L45" s="34" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="46" spans="10:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="J46" t="s">
-        <v>99</v>
-      </c>
-      <c r="L46" s="34" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="47" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J62" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J63" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J66" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J67" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J69" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J70" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J71" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J72" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="73" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J74" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J75" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="10:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="J76" t="s">
-        <v>129</v>
-      </c>
-      <c r="K76" s="33" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4965,15 +5163,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A2, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4982,7 +5180,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A3, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -4991,7 +5189,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B4" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A4, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5000,7 +5198,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A5, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5009,7 +5207,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B6" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A6, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5018,7 +5216,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B7" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A7, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5027,7 +5225,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B8" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A8, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5036,7 +5234,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A9, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5045,7 +5243,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B10" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A10, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5054,7 +5252,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B11" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A11, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5063,7 +5261,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B12" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A12, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5072,7 +5270,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B13" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A13, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5081,7 +5279,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B14">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A14, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5090,7 +5288,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B15" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A15, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5099,7 +5297,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B16" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A16, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5108,7 +5306,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B17" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A17, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5117,7 +5315,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A18, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5126,7 +5324,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B19" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A19, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5135,7 +5333,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B20" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A20, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5144,7 +5342,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A21, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5153,7 +5351,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A22, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5162,7 +5360,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B23" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A23, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5171,7 +5369,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A24, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5180,7 +5378,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B25" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A25, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5189,7 +5387,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B26">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A26, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5198,7 +5396,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B27" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A27, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5207,7 +5405,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B28" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A28, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5216,7 +5414,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B29" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A29, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5225,7 +5423,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B30" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A30, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5234,7 +5432,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B31" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A31, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5243,7 +5441,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B32" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A32, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5252,7 +5450,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B33" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A33, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5261,7 +5459,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B34" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A34, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5270,7 +5468,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B35" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A35, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5279,7 +5477,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B36" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A36, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5288,7 +5486,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B37" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A37, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5297,7 +5495,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B38" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A38, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5306,7 +5504,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B39" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A39, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5315,7 +5513,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B40" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A40, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5324,7 +5522,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B41" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A41, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5333,7 +5531,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B42" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A42, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5342,7 +5540,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B43">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A43, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5351,7 +5549,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B44" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A44, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5360,7 +5558,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B45" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A45, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5369,7 +5567,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B46" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A46, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5378,7 +5576,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B47" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A47, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5387,7 +5585,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B48" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A48, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5396,7 +5594,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B49" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A49, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5405,7 +5603,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B50" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A50, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5414,7 +5612,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B51" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A51, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5423,7 +5621,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B52" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A52, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5432,7 +5630,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B53" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A53, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5441,7 +5639,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B54" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A54, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5450,7 +5648,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B55" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A55, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5459,7 +5657,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B56" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A56, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5468,7 +5666,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B57" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A57, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5477,7 +5675,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B58">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A58, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5486,7 +5684,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B59" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A59, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5495,7 +5693,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B60" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A60, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5504,7 +5702,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B61" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A61, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5513,7 +5711,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B62" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A62, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5522,7 +5720,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B63" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A63, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5531,7 +5729,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B64" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A64, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5540,7 +5738,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B65" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A65, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5549,7 +5747,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B66" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A66, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5558,7 +5756,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B67" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A67, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5567,7 +5765,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B68">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A68, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5576,7 +5774,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B69" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A69, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5585,7 +5783,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B70" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A70, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5594,7 +5792,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B71" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A71, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5603,7 +5801,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B72" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A72, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5612,7 +5810,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B73" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A73, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5621,7 +5819,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B74" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A74, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5630,7 +5828,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B75" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A75, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5639,7 +5837,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B76" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A76, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5648,7 +5846,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B77" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A77, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5657,7 +5855,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B78" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A78, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5666,7 +5864,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B79" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A79, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5675,7 +5873,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B80" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A80, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5684,7 +5882,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B81" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A81, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5693,7 +5891,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B82">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A82, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5702,7 +5900,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B83" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A83, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5711,7 +5909,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B84" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A84, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5720,7 +5918,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B85" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A85, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5729,7 +5927,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B86" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A86, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5738,7 +5936,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B87" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A87, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5747,7 +5945,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B88" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A88, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5756,7 +5954,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B89" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A89, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5765,7 +5963,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B90" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A90, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5774,7 +5972,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B91" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A91, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5783,7 +5981,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B92" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A92, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5792,7 +5990,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B93" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A93, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5801,7 +5999,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B94" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A94, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5810,7 +6008,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B95" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A95, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5819,7 +6017,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B96" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A96, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5828,7 +6026,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B97" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A97, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5837,7 +6035,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B98" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A98, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5846,7 +6044,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B99" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A99, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5855,7 +6053,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B100" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A100, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5864,7 +6062,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B101" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A101, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5873,7 +6071,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B102" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A102, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5882,7 +6080,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B103" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A103, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5891,7 +6089,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B104" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A104, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5900,7 +6098,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B105" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A105, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5909,7 +6107,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B106" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A106, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5918,7 +6116,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B107" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A107, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5927,7 +6125,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B108" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A108, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5936,7 +6134,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B109" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A109, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5945,7 +6143,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B110" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A110, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5954,7 +6152,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B111" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A111, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5963,7 +6161,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B112" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A112, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5972,7 +6170,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B113" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A113, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5981,7 +6179,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B114" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A114, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5990,7 +6188,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B115" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A115, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5999,7 +6197,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B116" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A116, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6008,7 +6206,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B117">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A117, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6017,7 +6215,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B118" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A118, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6026,7 +6224,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B119" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A119, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6035,7 +6233,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B120" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A120, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6044,7 +6242,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B121" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A121, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6053,7 +6251,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B122" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A122, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6062,7 +6260,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B123" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A123, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6071,7 +6269,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B124" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A124, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6080,7 +6278,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B125" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A125, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6089,7 +6287,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B126" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A126, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6098,7 +6296,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B127" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A127, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6107,7 +6305,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B128">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A128, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6116,7 +6314,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B129" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A129, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6125,7 +6323,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B130" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A130, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6134,7 +6332,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B131" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A131, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6143,7 +6341,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B132" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A132, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6152,7 +6350,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B133" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A133, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6161,7 +6359,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B134" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A134, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6170,7 +6368,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B135" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A135, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6179,7 +6377,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B136" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A136, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6188,7 +6386,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B137" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A137, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6197,7 +6395,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B138" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A138, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6206,7 +6404,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B139" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A139, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6215,7 +6413,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B140" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A140, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6224,7 +6422,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B141" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A141, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6233,7 +6431,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B142" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A142, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6242,7 +6440,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B143" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A143, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6251,7 +6449,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B144" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A144, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6260,7 +6458,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B145" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A145, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6269,7 +6467,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B146" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A146, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6278,7 +6476,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B147" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A147, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6287,7 +6485,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B148" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A148, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6296,7 +6494,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B149" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A149, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6305,7 +6503,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B150" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A150, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6314,7 +6512,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B151">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A151, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6323,7 +6521,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B152" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A152, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6332,7 +6530,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B153" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A153, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6341,7 +6539,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B154" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A154, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6350,7 +6548,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B155" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A155, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6359,7 +6557,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B156" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A156, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6368,7 +6566,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B157" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A157, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6377,7 +6575,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B158" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A158, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6386,7 +6584,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B159" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A159, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6395,7 +6593,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B160">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A160, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6404,7 +6602,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B161" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A161, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6413,7 +6611,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B162" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A162, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6422,7 +6620,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B163" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A163, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6431,7 +6629,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B164" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A164, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6440,7 +6638,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B165" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A165, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6449,7 +6647,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B166" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A166, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6458,7 +6656,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B167" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A167, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6467,7 +6665,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B168" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A168, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6476,7 +6674,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B169" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A169, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6485,7 +6683,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B170" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A170, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6494,7 +6692,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B171" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A171, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6503,7 +6701,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B172" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A172, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6512,7 +6710,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B173" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A173, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6521,7 +6719,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B174" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A174, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6530,7 +6728,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B175" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A175, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6539,7 +6737,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B176" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A176, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6548,7 +6746,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B177" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A177, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6557,7 +6755,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B178" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A178, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6566,7 +6764,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B179" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A179, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6575,7 +6773,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B180" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A180, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6584,7 +6782,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B181" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A181, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6593,7 +6791,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B182" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A182, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6602,7 +6800,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B183" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A183, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6611,7 +6809,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B184" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A184, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6620,7 +6818,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B185" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A185, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6629,7 +6827,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B186" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A186, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6638,7 +6836,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B187" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A187, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6647,7 +6845,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B188" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A188, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6656,7 +6854,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B189">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A189, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6665,7 +6863,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B190" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A190, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6674,7 +6872,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B191" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A191, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6683,7 +6881,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B192" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A192, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6692,7 +6890,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B193" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A193, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6701,7 +6899,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B194" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A194, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6710,7 +6908,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B195" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A195, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6719,7 +6917,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B196" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A196, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6728,7 +6926,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B197" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A197, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6737,7 +6935,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B198">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A198, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6746,7 +6944,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B199" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A199, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6755,7 +6953,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B200" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A200, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6764,7 +6962,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B201" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A201, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6773,7 +6971,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B202" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A202, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6782,7 +6980,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B203" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A203, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6791,7 +6989,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B204" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A204, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6800,7 +6998,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B205" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A205, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6809,7 +7007,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B206" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A206, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6818,7 +7016,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B207" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A207, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6827,7 +7025,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B208" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A208, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6836,7 +7034,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B209" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A209, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6845,7 +7043,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B210" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A210, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6854,7 +7052,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B211" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A211, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6863,7 +7061,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B212" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A212, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6872,7 +7070,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B213" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A213, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6881,7 +7079,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B214" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A214, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6890,7 +7088,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B215" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A215, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6899,7 +7097,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B216" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A216, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6908,7 +7106,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B217" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A217, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6917,7 +7115,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B218" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A218, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6926,7 +7124,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B219" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A219, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6935,7 +7133,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B220" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A220, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6944,7 +7142,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B221" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A221, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6953,7 +7151,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B222" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A222, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6962,7 +7160,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B223" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A223, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6971,7 +7169,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B224" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A224, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6980,7 +7178,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B225" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A225, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6989,7 +7187,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B226" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A226, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6998,7 +7196,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B227" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A227, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7007,7 +7205,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B228" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A228, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7016,7 +7214,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B229" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A229, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7025,7 +7223,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B230" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A230, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7034,7 +7232,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B231" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A231, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7043,7 +7241,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B232" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A232, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7052,7 +7250,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B233" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A233, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7061,7 +7259,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B234" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A234, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7070,7 +7268,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B235" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A235, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7079,7 +7277,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B236" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A236, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7088,7 +7286,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B237" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A237, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7097,7 +7295,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B238" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A238, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7106,7 +7304,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B239">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A239, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7115,7 +7313,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B240" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A240, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7124,7 +7322,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B241" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A241, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7133,7 +7331,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B242" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A242, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7142,7 +7340,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B243" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A243, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7151,7 +7349,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B244" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A244, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7160,7 +7358,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B245" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A245, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7169,7 +7367,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B246" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A246, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7178,7 +7376,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B247" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A247, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7187,7 +7385,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B248" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A248, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7196,7 +7394,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B249" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A249, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7205,7 +7403,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B250" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A250, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7214,7 +7412,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B251" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A251, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7223,7 +7421,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B252" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A252, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7232,7 +7430,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B253" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A253, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7259,22 +7457,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="E1" t="s">
         <v>393</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="F1" t="s">
         <v>394</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7283,7 +7481,7 @@
         <v>Australia</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" s="38">
         <v>9</v>
@@ -7292,10 +7490,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7304,7 +7502,7 @@
         <v>Bahrain</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="38">
         <v>3</v>
@@ -7313,10 +7511,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7325,7 +7523,7 @@
         <v>Germany</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C4" s="38">
         <v>4</v>
@@ -7334,10 +7532,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7346,7 +7544,7 @@
         <v>China</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -7355,10 +7553,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7367,7 +7565,7 @@
         <v>Japan</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C6" s="38">
         <v>1</v>
@@ -7376,10 +7574,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7388,7 +7586,7 @@
         <v>Kuwait</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C7" s="38">
         <v>5</v>
@@ -7397,10 +7595,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -7409,7 +7607,7 @@
         <v>Malaysia</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C8" s="38">
         <v>1</v>
@@ -7418,10 +7616,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -7430,7 +7628,7 @@
         <v>Myanmar</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C9" s="38">
         <v>1</v>
@@ -7439,10 +7637,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -7451,7 +7649,7 @@
         <v>Portugal</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C10" s="38">
         <v>8</v>
@@ -7460,10 +7658,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7472,7 +7670,7 @@
         <v>Saudi Arabia</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C11" s="38">
         <v>4</v>
@@ -7481,10 +7679,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -7493,7 +7691,7 @@
         <v>Spain</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C12" s="38">
         <v>18</v>
@@ -7502,10 +7700,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -7514,7 +7712,7 @@
         <v>United Arab Emirates</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C13" s="38">
         <v>10</v>
@@ -7523,10 +7721,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -7535,7 +7733,7 @@
         <v>UK</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C14" s="38">
         <v>100</v>
@@ -7544,10 +7742,10 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -7556,7 +7754,7 @@
         <v>USA</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C15" s="38">
         <v>500</v>
@@ -7565,10 +7763,10 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F15" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C67FA1-42DE-2342-ADD9-230DAA14580E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E16968-6A02-AE45-A51A-A89DC0FE95E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" activeTab="1" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="404">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -1238,10 +1238,13 @@
     <t>अछाम</t>
   </si>
   <si>
-    <t>सुनसरी</t>
-  </si>
-  <si>
     <t>पर्सा</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख ११</t>
+  </si>
+  <si>
+    <t>धनुषा</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1484,15 +1487,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1502,6 +1496,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1954,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2025,17 +2034,17 @@
       <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2057,17 +2066,17 @@
       <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2089,17 +2098,17 @@
       <c r="F4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2121,17 +2130,17 @@
       <c r="F5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2153,17 +2162,17 @@
       <c r="F6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
       <c r="P6"/>
     </row>
     <row r="7" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2185,17 +2194,17 @@
       <c r="F7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2217,17 +2226,17 @@
       <c r="F8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2249,17 +2258,17 @@
       <c r="F9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2281,17 +2290,17 @@
       <c r="F10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
       <c r="P10"/>
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2299,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C11" s="19">
         <v>37</v>
@@ -2313,17 +2322,17 @@
       <c r="F11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2331,7 +2340,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C12" s="17">
         <v>55</v>
@@ -2345,17 +2354,17 @@
       <c r="F12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
       <c r="P12"/>
     </row>
     <row r="13" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2363,7 +2372,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C13" s="19">
         <v>44</v>
@@ -2377,17 +2386,17 @@
       <c r="F13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2409,17 +2418,17 @@
       <c r="F14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2441,15 +2450,15 @@
       <c r="F15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2469,19 +2478,19 @@
         <v>35</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2501,19 +2510,19 @@
         <v>35</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,17 +2544,17 @@
       <c r="F18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2567,17 +2576,17 @@
       <c r="F19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2599,17 +2608,17 @@
       <c r="F20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2631,17 +2640,17 @@
       <c r="F21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2663,17 +2672,17 @@
       <c r="F22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2695,17 +2704,17 @@
       <c r="F23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2727,17 +2736,17 @@
       <c r="F24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2759,17 +2768,17 @@
       <c r="F25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2791,17 +2800,17 @@
       <c r="F26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2823,17 +2832,17 @@
       <c r="F27" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2855,17 +2864,17 @@
       <c r="F28" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2887,17 +2896,17 @@
       <c r="F29" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2919,17 +2928,17 @@
       <c r="F30" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2951,17 +2960,17 @@
       <c r="F31" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2983,17 +2992,17 @@
       <c r="F32" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -3223,7 +3232,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>401</v>
+        <v>36</v>
       </c>
       <c r="C44" s="39">
         <v>24</v>
@@ -3243,7 +3252,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>401</v>
+        <v>36</v>
       </c>
       <c r="C45" s="39">
         <v>60</v>
@@ -3263,7 +3272,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>401</v>
+        <v>36</v>
       </c>
       <c r="C46" s="39">
         <v>72</v>
@@ -3278,13 +3287,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="C48" s="3"/>
+    <row r="47" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="44">
+        <v>46</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="45">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="44">
+        <v>47</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="C48" s="45">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
@@ -3383,8 +3424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4D57B-B68B-5E42-9689-ABFDDD3556B4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3418,13 +3459,13 @@
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
-        <v>9011</v>
+        <v>9199</v>
       </c>
       <c r="B2" s="28">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="30">
         <v>0</v>
@@ -3626,9 +3667,9 @@
       <c r="A20" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A20,map_update!$B$4:$B$78,0)),"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4132,7 +4173,7 @@
       </c>
       <c r="B76">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A76,map_update!$B$4:$B$78,0)),"")</f>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4144,14 +4185,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7092C9DD-A343-5C4D-8235-021966E86C81}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="44"/>
+    <col min="12" max="12" width="10.83203125" style="41"/>
     <col min="13" max="13" width="16.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4159,7 +4200,7 @@
       <c r="B1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="43"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -4199,13 +4240,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>400</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="45" t="str">
+      <c r="C4" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A4) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A4))</f>
         <v/>
       </c>
@@ -4229,11 +4270,11 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="41"/>
       <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="45" t="str">
+      <c r="C5" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A5) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A5))</f>
         <v/>
       </c>
@@ -4257,13 +4298,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A6) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A6))</f>
         <v>2</v>
       </c>
@@ -4287,11 +4328,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="41"/>
       <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="45" t="str">
+      <c r="C7" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A7) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A7))</f>
         <v/>
       </c>
@@ -4315,11 +4356,11 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="41"/>
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="45" t="str">
+      <c r="C8" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A8) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A8))</f>
         <v/>
       </c>
@@ -4343,11 +4384,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
+      <c r="A9" s="41"/>
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="45" t="str">
+      <c r="C9" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A9) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A9))</f>
         <v/>
       </c>
@@ -4371,11 +4412,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
+      <c r="A10" s="41"/>
       <c r="B10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="45" t="str">
+      <c r="C10" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A10) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A10))</f>
         <v/>
       </c>
@@ -4399,11 +4440,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="41"/>
       <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="45" t="str">
+      <c r="C11" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A11) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A11))</f>
         <v/>
       </c>
@@ -4427,11 +4468,11 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="41"/>
       <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="45" t="str">
+      <c r="C12" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A12) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A12))</f>
         <v/>
       </c>
@@ -4440,11 +4481,11 @@
       <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
+      <c r="A13" s="41"/>
       <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="45" t="str">
+      <c r="C13" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A13) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A13))</f>
         <v/>
       </c>
@@ -4466,681 +4507,683 @@
       <c r="I13" s="37">
         <v>0.88100000000000001</v>
       </c>
-      <c r="L13" s="45"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
+      <c r="A14" s="41"/>
       <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="45" t="str">
+      <c r="C14" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A14) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A14))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="42" t="s">
         <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A15) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A15))</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="41"/>
       <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="45" t="str">
+      <c r="C16" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A16) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A16))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
+      <c r="A17" s="41"/>
       <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="45" t="str">
+      <c r="C17" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A17) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A17))</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="45" t="str">
+      <c r="C18" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A18) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A18))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
+      <c r="A19" s="41"/>
       <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="45" t="str">
+      <c r="C19" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A19) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A19))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="41"/>
       <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="45" t="str">
+      <c r="C20" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A20) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A20))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="45" t="str">
+      <c r="C21" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A21) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A21))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
+      <c r="A22" s="41" t="s">
+        <v>403</v>
+      </c>
       <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="45" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A22) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A22))</f>
-        <v/>
+      <c r="C22" s="42">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$206, map_update!A22) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$206, map_update!A22))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="41"/>
       <c r="B23" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="45" t="str">
+      <c r="C23" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A23) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A23))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
+      <c r="A24" s="41"/>
       <c r="B24" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="45" t="str">
+      <c r="C24" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A24) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A24))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
+      <c r="A25" s="41"/>
       <c r="B25" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="45" t="str">
+      <c r="C25" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A25) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A25))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
+      <c r="A26" s="41"/>
       <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="45" t="str">
+      <c r="C26" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A26) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A26))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
+      <c r="A27" s="41"/>
       <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="45" t="str">
+      <c r="C27" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A27) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A27))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
+      <c r="A28" s="41"/>
       <c r="B28" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="45" t="str">
+      <c r="C28" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A28) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A28))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
+      <c r="A29" s="41"/>
       <c r="B29" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="45" t="str">
+      <c r="C29" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A29) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A29))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
+      <c r="A30" s="41"/>
       <c r="B30" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="45" t="str">
+      <c r="C30" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A30) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A30))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
+      <c r="A31" s="41"/>
       <c r="B31" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="45" t="str">
+      <c r="C31" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A31) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A31))</f>
         <v/>
       </c>
-      <c r="L31" s="45"/>
+      <c r="L31" s="42"/>
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
+      <c r="A32" s="41"/>
       <c r="B32" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="45" t="str">
+      <c r="C32" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A32) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A32))</f>
         <v/>
       </c>
       <c r="N32" s="18"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="42" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A33) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A33))</f>
         <v>4</v>
       </c>
-      <c r="L33" s="45"/>
+      <c r="L33" s="42"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
+      <c r="A34" s="41"/>
       <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="45" t="str">
+      <c r="C34" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A34) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A34))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="42" t="s">
         <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A35) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A35))</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
+      <c r="A36" s="41"/>
       <c r="B36" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="45" t="str">
+      <c r="C36" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A36) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A36))</f>
         <v/>
       </c>
-      <c r="L36" s="45"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
+      <c r="A37" s="41"/>
       <c r="B37" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="45" t="str">
+      <c r="C37" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A37) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A37))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B38" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A38) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A38))</f>
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
+      <c r="A39" s="41"/>
       <c r="B39" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="45" t="str">
+      <c r="C39" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A39) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A39))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
+      <c r="A40" s="41"/>
       <c r="B40" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="45" t="str">
+      <c r="C40" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A40) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A40))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
+      <c r="A41" s="41"/>
       <c r="B41" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="45" t="str">
+      <c r="C41" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A41) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A41))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
+      <c r="A42" s="41"/>
       <c r="B42" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="45" t="str">
+      <c r="C42" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A42) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A42))</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
+      <c r="A43" s="41"/>
       <c r="B43" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="45" t="str">
+      <c r="C43" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A43) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A43))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
+      <c r="A44" s="41"/>
       <c r="B44" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="45" t="str">
+      <c r="C44" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A44) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A44))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
+      <c r="A45" s="41"/>
       <c r="B45" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="45" t="str">
+      <c r="C45" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A45) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A45))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
+      <c r="A46" s="41"/>
       <c r="B46" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="45" t="str">
+      <c r="C46" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A46) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A46))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
+      <c r="A47" s="41"/>
       <c r="B47" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="45" t="str">
+      <c r="C47" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A47) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A47))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
+      <c r="A48" s="41"/>
       <c r="B48" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="45" t="str">
+      <c r="C48" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A48) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A48))</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
+      <c r="A49" s="41"/>
       <c r="B49" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="45" t="str">
+      <c r="C49" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A49) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A49))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="44"/>
+      <c r="A50" s="41"/>
       <c r="B50" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="45" t="str">
+      <c r="C50" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A50) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A50))</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="44"/>
+      <c r="A51" s="41"/>
       <c r="B51" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="45" t="str">
+      <c r="C51" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A51) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A51))</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
+      <c r="A52" s="41"/>
       <c r="B52" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="45" t="str">
+      <c r="C52" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A52) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A52))</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
+      <c r="A53" s="41"/>
       <c r="B53" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="45" t="str">
+      <c r="C53" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A53) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A53))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
+      <c r="A54" s="41"/>
       <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="45" t="str">
+      <c r="C54" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A54) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A54))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
+      <c r="A55" s="41"/>
       <c r="B55" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="45" t="str">
+      <c r="C55" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A55) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A55))</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="44" t="s">
-        <v>402</v>
+      <c r="A56" s="41" t="s">
+        <v>401</v>
       </c>
       <c r="B56" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="45">
+      <c r="C56" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A56) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A56))</f>
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="44"/>
+      <c r="A57" s="41"/>
       <c r="B57" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="45" t="str">
+      <c r="C57" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A57) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A57))</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="44"/>
+      <c r="A58" s="41"/>
       <c r="B58" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="45" t="str">
+      <c r="C58" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A58) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A58))</f>
         <v/>
       </c>
-      <c r="L58" s="45"/>
+      <c r="L58" s="42"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="44"/>
+      <c r="A59" s="41"/>
       <c r="B59" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="45" t="str">
+      <c r="C59" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A59) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A59))</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B60" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="45">
+      <c r="C60" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A60) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A60))</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="44"/>
+      <c r="A61" s="41"/>
       <c r="B61" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="45" t="str">
+      <c r="C61" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A61) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A61))</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="44"/>
+      <c r="A62" s="41"/>
       <c r="B62" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="45" t="str">
+      <c r="C62" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A62) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A62))</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="44"/>
+      <c r="A63" s="41"/>
       <c r="B63" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="45" t="str">
+      <c r="C63" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A63) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A63))</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="44"/>
+      <c r="A64" s="41"/>
       <c r="B64" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="45" t="str">
+      <c r="C64" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A64) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A64))</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="44"/>
+      <c r="A65" s="41"/>
       <c r="B65" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="45" t="str">
+      <c r="C65" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A65) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A65))</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="44"/>
+      <c r="A66" s="41"/>
       <c r="B66" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="45" t="str">
+      <c r="C66" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A66) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A66))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="44"/>
+      <c r="A67" s="41"/>
       <c r="B67" t="s">
         <v>116</v>
       </c>
-      <c r="C67" s="45" t="str">
+      <c r="C67" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A67) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A67))</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="44"/>
+      <c r="A68" s="41"/>
       <c r="B68" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="45" t="str">
+      <c r="C68" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A68) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A68))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="44"/>
+      <c r="A69" s="41"/>
       <c r="B69" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="45" t="str">
+      <c r="C69" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A69) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A69))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="44"/>
+      <c r="A70" s="41"/>
       <c r="B70" t="s">
         <v>119</v>
       </c>
-      <c r="C70" s="45" t="str">
+      <c r="C70" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A70) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A70))</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="44"/>
+      <c r="A71" s="41"/>
       <c r="B71" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="45" t="str">
+      <c r="C71" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A71) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A71))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="44"/>
+      <c r="A72" s="41"/>
       <c r="B72" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="45" t="str">
+      <c r="C72" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A72) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A72))</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="44"/>
+      <c r="A73" s="41"/>
       <c r="B73" t="s">
         <v>122</v>
       </c>
-      <c r="C73" s="45" t="str">
+      <c r="C73" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A73) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A73))</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="44"/>
+      <c r="A74" s="41"/>
       <c r="B74" t="s">
         <v>123</v>
       </c>
-      <c r="C74" s="45" t="str">
+      <c r="C74" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A74) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A74))</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="44"/>
+      <c r="A75" s="41"/>
       <c r="B75" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="45" t="str">
+      <c r="C75" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A75) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A75))</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="44"/>
+      <c r="A76" s="41"/>
       <c r="B76" t="s">
         <v>125</v>
       </c>
-      <c r="C76" s="45" t="str">
+      <c r="C76" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A76) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A76))</f>
         <v/>
       </c>
-      <c r="L76" s="46"/>
+      <c r="L76" s="43"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="44"/>
+      <c r="A77" s="41"/>
       <c r="B77" t="s">
         <v>126</v>
       </c>
-      <c r="C77" s="45" t="str">
+      <c r="C77" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A77) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A77))</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B78" t="s">
         <v>127</v>
       </c>
-      <c r="C78" s="45">
+      <c r="C78" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A78) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A78))</f>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="44"/>
+      <c r="A79" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E16968-6A02-AE45-A51A-A89DC0FE95E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1C86DC-893E-B849-B0AF-843BFE9F536F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" activeTab="1" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" activeTab="5" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="468">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -185,9 +185,6 @@
     <t>२०७७ बैशाख ९</t>
   </si>
   <si>
-    <t>नखुलेको</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -1245,6 +1242,201 @@
   </si>
   <si>
     <t>धनुषा</t>
+  </si>
+  <si>
+    <t>बैतडि</t>
+  </si>
+  <si>
+    <t>बझाङ</t>
+  </si>
+  <si>
+    <t>बाजुरा</t>
+  </si>
+  <si>
+    <t>बांके</t>
+  </si>
+  <si>
+    <t>बारा</t>
+  </si>
+  <si>
+    <t>बर्दिया</t>
+  </si>
+  <si>
+    <t>भक्तपुर</t>
+  </si>
+  <si>
+    <t>भोजपुर</t>
+  </si>
+  <si>
+    <t>डडेलधुरा</t>
+  </si>
+  <si>
+    <t>दैलेख</t>
+  </si>
+  <si>
+    <t>दाङ</t>
+  </si>
+  <si>
+    <t>दार्चुला</t>
+  </si>
+  <si>
+    <t>धादिङ</t>
+  </si>
+  <si>
+    <t>धनकुटा</t>
+  </si>
+  <si>
+    <t>दोलखा</t>
+  </si>
+  <si>
+    <t>डोल्पा</t>
+  </si>
+  <si>
+    <t>डोटि</t>
+  </si>
+  <si>
+    <t>गोर्खा</t>
+  </si>
+  <si>
+    <t>गुल्मी</t>
+  </si>
+  <si>
+    <t>हुम्ला</t>
+  </si>
+  <si>
+    <t>ईलाम</t>
+  </si>
+  <si>
+    <t>जाजरकोट</t>
+  </si>
+  <si>
+    <t>झापा</t>
+  </si>
+  <si>
+    <t>जुम्ला</t>
+  </si>
+  <si>
+    <t>कालिकोट</t>
+  </si>
+  <si>
+    <t>कपिलवस्तु</t>
+  </si>
+  <si>
+    <t>कास्की</t>
+  </si>
+  <si>
+    <t>काभ्रेपलाञ्चोक</t>
+  </si>
+  <si>
+    <t>खोटाङ</t>
+  </si>
+  <si>
+    <t>ललितपुर</t>
+  </si>
+  <si>
+    <t>लम्जुङ</t>
+  </si>
+  <si>
+    <t>महोत्तरी</t>
+  </si>
+  <si>
+    <t>मकवानपुर</t>
+  </si>
+  <si>
+    <t>मनाङ</t>
+  </si>
+  <si>
+    <t>मोरङ</t>
+  </si>
+  <si>
+    <t>मुगु</t>
+  </si>
+  <si>
+    <t>मुस्ताङ</t>
+  </si>
+  <si>
+    <t>म्याग्दि</t>
+  </si>
+  <si>
+    <t>नवलपरासी</t>
+  </si>
+  <si>
+    <t>नुवाकोट</t>
+  </si>
+  <si>
+    <t>ओखलढुङ्गा</t>
+  </si>
+  <si>
+    <t>पाल्पा</t>
+  </si>
+  <si>
+    <t>पाँचथर</t>
+  </si>
+  <si>
+    <t>पर्बत</t>
+  </si>
+  <si>
+    <t>प्युठान</t>
+  </si>
+  <si>
+    <t>रामेछाप</t>
+  </si>
+  <si>
+    <t>रसुवा</t>
+  </si>
+  <si>
+    <t>रोल्पा</t>
+  </si>
+  <si>
+    <t>रुकुम</t>
+  </si>
+  <si>
+    <t>रुपन्देहि</t>
+  </si>
+  <si>
+    <t>सल्यान</t>
+  </si>
+  <si>
+    <t>संखुवासभा</t>
+  </si>
+  <si>
+    <t>सप्तरी</t>
+  </si>
+  <si>
+    <t>सर्लाहि</t>
+  </si>
+  <si>
+    <t>सिन्धुली</t>
+  </si>
+  <si>
+    <t>सिन्धुपाल्चोक</t>
+  </si>
+  <si>
+    <t>सिराहा</t>
+  </si>
+  <si>
+    <t>सोलुखुम्बु</t>
+  </si>
+  <si>
+    <t>सुनसरी</t>
+  </si>
+  <si>
+    <t>सुर्खेत</t>
+  </si>
+  <si>
+    <t>स्याङ्जा</t>
+  </si>
+  <si>
+    <t>तनहु</t>
+  </si>
+  <si>
+    <t>ताप्लेजुङ</t>
+  </si>
+  <si>
+    <t>तेरथुम</t>
+  </si>
+  <si>
+    <t>अर्घाखाँचि</t>
   </si>
 </sst>
 </file>
@@ -1963,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2308,7 +2500,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C11" s="19">
         <v>37</v>
@@ -2340,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C12" s="17">
         <v>55</v>
@@ -2372,7 +2564,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C13" s="19">
         <v>44</v>
@@ -2416,7 +2608,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="47" t="s">
         <v>40</v>
@@ -2545,7 +2737,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="48"/>
@@ -2577,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
@@ -2609,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H20" s="48"/>
       <c r="I20" s="48"/>
@@ -2641,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
@@ -2673,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
@@ -2705,7 +2897,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
@@ -2737,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
@@ -2769,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
@@ -2801,7 +2993,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -2833,7 +3025,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
@@ -2865,7 +3057,7 @@
         <v>4</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
@@ -2897,7 +3089,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H29" s="46"/>
       <c r="I29" s="46"/>
@@ -2993,7 +3185,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H32" s="48"/>
       <c r="I32" s="48"/>
@@ -3194,9 +3386,7 @@
       <c r="B42" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>50</v>
-      </c>
+      <c r="C42" s="34"/>
       <c r="D42" s="34" t="s">
         <v>13</v>
       </c>
@@ -3241,7 +3431,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>4</v>
@@ -3281,7 +3471,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>4</v>
@@ -3301,7 +3491,7 @@
         <v>13</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>4</v>
@@ -3312,7 +3502,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C48" s="45">
         <v>14</v>
@@ -3321,62 +3511,75 @@
         <v>7</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F48" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="A49" s="44">
+        <v>48</v>
+      </c>
+      <c r="C49" s="45">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
     </row>
   </sheetData>
@@ -3424,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4D57B-B68B-5E42-9689-ABFDDD3556B4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3459,13 +3662,15 @@
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
-        <v>9199</v>
+        <v>9200</v>
       </c>
       <c r="B2" s="28">
-        <v>47</v>
+        <f>COUNT(detail!A2:'detail'!A323)</f>
+        <v>48</v>
       </c>
       <c r="C2" s="29">
-        <v>9</v>
+        <f>COUNTIF(detail!F2:'detail'!F257, "निको")</f>
+        <v>10</v>
       </c>
       <c r="D2" s="30">
         <v>0</v>
@@ -3495,15 +3700,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A2,map_update!$B$4:$B$78,0)),"")</f>
@@ -3512,7 +3717,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A3,map_update!$B$4:$B$78,0)),"")</f>
@@ -3521,7 +3726,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A4,map_update!$B$4:$B$78,0)),"")</f>
@@ -3530,7 +3735,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A5,map_update!$B$4:$B$78,0)),"")</f>
@@ -3539,7 +3744,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A6,map_update!$B$4:$B$78,0)),"")</f>
@@ -3548,7 +3753,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A7,map_update!$B$4:$B$78,0)),"")</f>
@@ -3557,7 +3762,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A8,map_update!$B$4:$B$78,0)),"")</f>
@@ -3566,7 +3771,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A9,map_update!$B$4:$B$78,0)),"")</f>
@@ -3575,7 +3780,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A10,map_update!$B$4:$B$78,0)),"")</f>
@@ -3584,7 +3789,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A11,map_update!$B$4:$B$78,0)),"")</f>
@@ -3593,7 +3798,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A12,map_update!$B$4:$B$78,0)),"")</f>
@@ -3602,7 +3807,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A13,map_update!$B$4:$B$78,0)),"")</f>
@@ -3611,7 +3816,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A14,map_update!$B$4:$B$78,0)),"")</f>
@@ -3620,7 +3825,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A15,map_update!$B$4:$B$78,0)),"")</f>
@@ -3629,7 +3834,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A16,map_update!$B$4:$B$78,0)),"")</f>
@@ -3638,7 +3843,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A17,map_update!$B$4:$B$78,0)),"")</f>
@@ -3647,7 +3852,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A18,map_update!$B$4:$B$78,0)),"")</f>
@@ -3656,7 +3861,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A19,map_update!$B$4:$B$78,0)),"")</f>
@@ -3665,7 +3870,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A20,map_update!$B$4:$B$78,0)),"")</f>
@@ -3674,7 +3879,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A21,map_update!$B$4:$B$78,0)),"")</f>
@@ -3683,7 +3888,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A22,map_update!$B$4:$B$78,0)),"")</f>
@@ -3692,7 +3897,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A23,map_update!$B$4:$B$78,0)),"")</f>
@@ -3701,7 +3906,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A24,map_update!$B$4:$B$78,0)),"")</f>
@@ -3710,7 +3915,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A25,map_update!$B$4:$B$78,0)),"")</f>
@@ -3719,7 +3924,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A26,map_update!$B$4:$B$78,0)),"")</f>
@@ -3728,7 +3933,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A27,map_update!$B$4:$B$78,0)),"")</f>
@@ -3737,7 +3942,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A28,map_update!$B$4:$B$78,0)),"")</f>
@@ -3746,7 +3951,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A29,map_update!$B$4:$B$78,0)),"")</f>
@@ -3755,7 +3960,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A30,map_update!$B$4:$B$78,0)),"")</f>
@@ -3764,7 +3969,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A31,map_update!$B$4:$B$78,0)),"")</f>
@@ -3773,7 +3978,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A32,map_update!$B$4:$B$78,0)),"")</f>
@@ -3782,7 +3987,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A33,map_update!$B$4:$B$78,0)),"")</f>
@@ -3791,7 +3996,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A34,map_update!$B$4:$B$78,0)),"")</f>
@@ -3800,7 +4005,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A35,map_update!$B$4:$B$78,0)),"")</f>
@@ -3809,7 +4014,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A36,map_update!$B$4:$B$78,0)),"")</f>
@@ -3818,7 +4023,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A37,map_update!$B$4:$B$78,0)),"")</f>
@@ -3827,7 +4032,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A38,map_update!$B$4:$B$78,0)),"")</f>
@@ -3836,7 +4041,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A39,map_update!$B$4:$B$78,0)),"")</f>
@@ -3845,7 +4050,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A40,map_update!$B$4:$B$78,0)),"")</f>
@@ -3854,7 +4059,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A41,map_update!$B$4:$B$78,0)),"")</f>
@@ -3863,7 +4068,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A42,map_update!$B$4:$B$78,0)),"")</f>
@@ -3872,7 +4077,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A43,map_update!$B$4:$B$78,0)),"")</f>
@@ -3881,7 +4086,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A44,map_update!$B$4:$B$78,0)),"")</f>
@@ -3890,7 +4095,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A45,map_update!$B$4:$B$78,0)),"")</f>
@@ -3899,7 +4104,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A46,map_update!$B$4:$B$78,0)),"")</f>
@@ -3908,7 +4113,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B47" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A47,map_update!$B$4:$B$78,0)),"")</f>
@@ -3917,7 +4122,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A48,map_update!$B$4:$B$78,0)),"")</f>
@@ -3926,7 +4131,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A49,map_update!$B$4:$B$78,0)),"")</f>
@@ -3935,7 +4140,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A50,map_update!$B$4:$B$78,0)),"")</f>
@@ -3944,7 +4149,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A51,map_update!$B$4:$B$78,0)),"")</f>
@@ -3953,7 +4158,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A52,map_update!$B$4:$B$78,0)),"")</f>
@@ -3962,7 +4167,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A53,map_update!$B$4:$B$78,0)),"")</f>
@@ -3971,7 +4176,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A54,map_update!$B$4:$B$78,0)),"")</f>
@@ -3980,7 +4185,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A55,map_update!$B$4:$B$78,0)),"")</f>
@@ -3989,7 +4194,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A56,map_update!$B$4:$B$78,0)),"")</f>
@@ -3998,7 +4203,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B57" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A57,map_update!$B$4:$B$78,0)),"")</f>
@@ -4007,7 +4212,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A58,map_update!$B$4:$B$78,0)),"")</f>
@@ -4016,7 +4221,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B59" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A59,map_update!$B$4:$B$78,0)),"")</f>
@@ -4025,7 +4230,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A60,map_update!$B$4:$B$78,0)),"")</f>
@@ -4034,7 +4239,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B61" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A61,map_update!$B$4:$B$78,0)),"")</f>
@@ -4043,7 +4248,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A62,map_update!$B$4:$B$78,0)),"")</f>
@@ -4052,7 +4257,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B63" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A63,map_update!$B$4:$B$78,0)),"")</f>
@@ -4061,7 +4266,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A64,map_update!$B$4:$B$78,0)),"")</f>
@@ -4070,7 +4275,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A65,map_update!$B$4:$B$78,0)),"")</f>
@@ -4079,7 +4284,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A66,map_update!$B$4:$B$78,0)),"")</f>
@@ -4088,7 +4293,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A67,map_update!$B$4:$B$78,0)),"")</f>
@@ -4097,7 +4302,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B68" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A68,map_update!$B$4:$B$78,0)),"")</f>
@@ -4106,7 +4311,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A69,map_update!$B$4:$B$78,0)),"")</f>
@@ -4115,7 +4320,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A70,map_update!$B$4:$B$78,0)),"")</f>
@@ -4124,7 +4329,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A71,map_update!$B$4:$B$78,0)),"")</f>
@@ -4133,7 +4338,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A72,map_update!$B$4:$B$78,0)),"")</f>
@@ -4142,7 +4347,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A73,map_update!$B$4:$B$78,0)),"")</f>
@@ -4151,7 +4356,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B74" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A74,map_update!$B$4:$B$78,0)),"")</f>
@@ -4160,7 +4365,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A75,map_update!$B$4:$B$78,0)),"")</f>
@@ -4169,7 +4374,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B76">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A76,map_update!$B$4:$B$78,0)),"")</f>
@@ -4185,8 +4390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7092C9DD-A343-5C4D-8235-021966E86C81}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4198,53 +4403,53 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
         <v>129</v>
       </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>130</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
       <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
         <v>133</v>
       </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
       <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" t="s">
         <v>133</v>
-      </c>
-      <c r="G3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A4) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A4))</f>
@@ -4270,9 +4475,11 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+      <c r="A5" s="41" t="s">
+        <v>467</v>
+      </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A5) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A5))</f>
@@ -4302,7 +4509,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A6) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A6))</f>
@@ -4328,9 +4535,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="41" t="s">
+        <v>403</v>
+      </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A7) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A7))</f>
@@ -4356,9 +4565,11 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="41" t="s">
+        <v>404</v>
+      </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A8) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A8))</f>
@@ -4384,9 +4595,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="41" t="s">
+        <v>405</v>
+      </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A9) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A9))</f>
@@ -4412,9 +4625,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
+      <c r="A10" s="41" t="s">
+        <v>406</v>
+      </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A10) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A10))</f>
@@ -4440,9 +4655,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+      <c r="A11" s="41" t="s">
+        <v>407</v>
+      </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A11) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A11))</f>
@@ -4468,9 +4685,11 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="41" t="s">
+        <v>408</v>
+      </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A12) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A12))</f>
@@ -4481,9 +4700,11 @@
       <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="41" t="s">
+        <v>409</v>
+      </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A13) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A13))</f>
@@ -4510,9 +4731,11 @@
       <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+      <c r="A14" s="41" t="s">
+        <v>410</v>
+      </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A14) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A14))</f>
@@ -4524,7 +4747,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A15) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A15))</f>
@@ -4532,9 +4755,11 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="41" t="s">
+        <v>411</v>
+      </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A16) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A16))</f>
@@ -4542,9 +4767,11 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="41" t="s">
+        <v>412</v>
+      </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A17) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A17))</f>
@@ -4552,9 +4779,11 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="A18" s="41" t="s">
+        <v>413</v>
+      </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A18) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A18))</f>
@@ -4562,9 +4791,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
+      <c r="A19" s="41" t="s">
+        <v>414</v>
+      </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A19) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A19))</f>
@@ -4572,9 +4803,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="41" t="s">
+        <v>415</v>
+      </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A20) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A20))</f>
@@ -4582,9 +4815,11 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
+      <c r="A21" s="41" t="s">
+        <v>416</v>
+      </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A21) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A21))</f>
@@ -4593,10 +4828,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$206, map_update!A22) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$206, map_update!A22))</f>
@@ -4604,9 +4839,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="41" t="s">
+        <v>417</v>
+      </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A23) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A23))</f>
@@ -4614,9 +4851,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
+      <c r="A24" s="41" t="s">
+        <v>418</v>
+      </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A24) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A24))</f>
@@ -4624,9 +4863,11 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="41" t="s">
+        <v>419</v>
+      </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A25) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A25))</f>
@@ -4634,9 +4875,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
+      <c r="A26" s="41" t="s">
+        <v>420</v>
+      </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A26) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A26))</f>
@@ -4644,9 +4887,11 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
+      <c r="A27" s="41" t="s">
+        <v>421</v>
+      </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A27) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A27))</f>
@@ -4654,9 +4899,11 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+      <c r="A28" s="41" t="s">
+        <v>422</v>
+      </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A28) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A28))</f>
@@ -4664,9 +4911,11 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
+      <c r="A29" s="41" t="s">
+        <v>423</v>
+      </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A29) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A29))</f>
@@ -4674,9 +4923,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
+      <c r="A30" s="41" t="s">
+        <v>424</v>
+      </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A30) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A30))</f>
@@ -4684,9 +4935,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
+      <c r="A31" s="41" t="s">
+        <v>425</v>
+      </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A31) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A31))</f>
@@ -4696,9 +4949,11 @@
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
+      <c r="A32" s="41" t="s">
+        <v>426</v>
+      </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A32) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A32))</f>
@@ -4711,7 +4966,7 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A33) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A33))</f>
@@ -4720,9 +4975,11 @@
       <c r="L33" s="42"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
+      <c r="A34" s="41" t="s">
+        <v>427</v>
+      </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A34) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A34))</f>
@@ -4734,7 +4991,7 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A35) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A35))</f>
@@ -4742,9 +4999,11 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
+      <c r="A36" s="41" t="s">
+        <v>428</v>
+      </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A36) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A36))</f>
@@ -4753,9 +5012,11 @@
       <c r="L36" s="42"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
+      <c r="A37" s="42" t="s">
+        <v>429</v>
+      </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A37) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A37))</f>
@@ -4767,7 +5028,7 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A38) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A38))</f>
@@ -4775,9 +5036,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
+      <c r="A39" s="42" t="s">
+        <v>430</v>
+      </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A39) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A39))</f>
@@ -4785,9 +5048,11 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
+      <c r="A40" s="42" t="s">
+        <v>431</v>
+      </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A40) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A40))</f>
@@ -4795,9 +5060,11 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
+      <c r="A41" s="42" t="s">
+        <v>432</v>
+      </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A41) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A41))</f>
@@ -4805,9 +5072,11 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
+      <c r="A42" s="42" t="s">
+        <v>433</v>
+      </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A42) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A42))</f>
@@ -4815,9 +5084,11 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
+      <c r="A43" s="42" t="s">
+        <v>434</v>
+      </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A43) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A43))</f>
@@ -4825,9 +5096,11 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
+      <c r="A44" s="42" t="s">
+        <v>435</v>
+      </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A44) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A44))</f>
@@ -4835,9 +5108,11 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
+      <c r="A45" s="42" t="s">
+        <v>436</v>
+      </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A45) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A45))</f>
@@ -4845,9 +5120,11 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
+      <c r="A46" s="42" t="s">
+        <v>437</v>
+      </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A46) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A46))</f>
@@ -4855,9 +5132,11 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="41"/>
+      <c r="A47" s="42" t="s">
+        <v>438</v>
+      </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A47) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A47))</f>
@@ -4865,9 +5144,11 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
+      <c r="A48" s="42" t="s">
+        <v>439</v>
+      </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A48) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A48))</f>
@@ -4875,9 +5156,11 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
+      <c r="A49" s="42" t="s">
+        <v>440</v>
+      </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A49) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A49))</f>
@@ -4885,9 +5168,11 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
+      <c r="A50" s="42" t="s">
+        <v>441</v>
+      </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A50) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A50))</f>
@@ -4895,9 +5180,11 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
+      <c r="A51" s="42" t="s">
+        <v>442</v>
+      </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A51) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A51))</f>
@@ -4905,9 +5192,11 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
+      <c r="A52" s="42" t="s">
+        <v>443</v>
+      </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A52) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A52))</f>
@@ -4915,9 +5204,11 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
+      <c r="A53" s="42" t="s">
+        <v>444</v>
+      </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A53) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A53))</f>
@@ -4925,9 +5216,11 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="41"/>
+      <c r="A54" s="42" t="s">
+        <v>445</v>
+      </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A54) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A54))</f>
@@ -4935,9 +5228,11 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="41"/>
+      <c r="A55" s="42" t="s">
+        <v>446</v>
+      </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A55) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A55))</f>
@@ -4946,10 +5241,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C56" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A56) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A56))</f>
@@ -4957,9 +5252,11 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="41"/>
+      <c r="A57" s="42" t="s">
+        <v>447</v>
+      </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C57" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A57) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A57))</f>
@@ -4967,9 +5264,11 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="41"/>
+      <c r="A58" s="42" t="s">
+        <v>448</v>
+      </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A58) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A58))</f>
@@ -4978,9 +5277,11 @@
       <c r="L58" s="42"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="41"/>
+      <c r="A59" s="42" t="s">
+        <v>449</v>
+      </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A59) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A59))</f>
@@ -4992,7 +5293,7 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A60) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A60))</f>
@@ -5000,9 +5301,11 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="41"/>
+      <c r="A61" s="42" t="s">
+        <v>450</v>
+      </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A61) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A61))</f>
@@ -5010,9 +5313,11 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="41"/>
+      <c r="A62" s="42" t="s">
+        <v>451</v>
+      </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A62) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A62))</f>
@@ -5020,9 +5325,11 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="41"/>
+      <c r="A63" s="42" t="s">
+        <v>452</v>
+      </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A63) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A63))</f>
@@ -5030,9 +5337,11 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="41"/>
+      <c r="A64" s="42" t="s">
+        <v>453</v>
+      </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A64) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A64))</f>
@@ -5040,9 +5349,11 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="41"/>
+      <c r="A65" s="42" t="s">
+        <v>454</v>
+      </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A65) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A65))</f>
@@ -5050,9 +5361,11 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="41"/>
+      <c r="A66" s="42" t="s">
+        <v>455</v>
+      </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A66) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A66))</f>
@@ -5060,9 +5373,11 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="41"/>
+      <c r="A67" s="42" t="s">
+        <v>456</v>
+      </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A67) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A67))</f>
@@ -5070,9 +5385,11 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
+      <c r="A68" s="42" t="s">
+        <v>457</v>
+      </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A68) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A68))</f>
@@ -5080,9 +5397,11 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="41"/>
+      <c r="A69" s="42" t="s">
+        <v>458</v>
+      </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C69" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A69) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A69))</f>
@@ -5090,9 +5409,11 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="41"/>
+      <c r="A70" s="42" t="s">
+        <v>459</v>
+      </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A70) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A70))</f>
@@ -5100,9 +5421,11 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="41"/>
+      <c r="A71" s="42" t="s">
+        <v>460</v>
+      </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C71" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A71) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A71))</f>
@@ -5110,9 +5433,11 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="41"/>
+      <c r="A72" s="42" t="s">
+        <v>461</v>
+      </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C72" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A72) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A72))</f>
@@ -5120,9 +5445,11 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="41"/>
+      <c r="A73" s="42" t="s">
+        <v>462</v>
+      </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A73) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A73))</f>
@@ -5130,9 +5457,11 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="41"/>
+      <c r="A74" s="42" t="s">
+        <v>463</v>
+      </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A74) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A74))</f>
@@ -5140,9 +5469,11 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="41"/>
+      <c r="A75" s="42" t="s">
+        <v>464</v>
+      </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A75) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A75))</f>
@@ -5150,9 +5481,11 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="41"/>
+      <c r="A76" s="42" t="s">
+        <v>465</v>
+      </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A76) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A76))</f>
@@ -5161,9 +5494,11 @@
       <c r="L76" s="43"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="41"/>
+      <c r="A77" s="42" t="s">
+        <v>466</v>
+      </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C77" s="42" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A77) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A77))</f>
@@ -5175,7 +5510,7 @@
         <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C78" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A78) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A78))</f>
@@ -5206,15 +5541,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
         <v>135</v>
-      </c>
-      <c r="B1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A2, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5223,7 +5558,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A3, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5232,7 +5567,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A4, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5241,7 +5576,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A5, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5250,7 +5585,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A6, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5259,7 +5594,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A7, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5268,7 +5603,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A8, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5277,7 +5612,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A9, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5286,7 +5621,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A10, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5295,7 +5630,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A11, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5304,7 +5639,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A12, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5313,7 +5648,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A13, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5322,7 +5657,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A14, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5331,7 +5666,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A15, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5340,7 +5675,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A16, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5349,7 +5684,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A17, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5358,7 +5693,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A18, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5367,7 +5702,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A19, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5376,7 +5711,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A20, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5385,7 +5720,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A21, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5394,7 +5729,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A22, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5403,7 +5738,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A23, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5412,7 +5747,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A24, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5421,7 +5756,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A25, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5430,7 +5765,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B26">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A26, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5439,7 +5774,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B27" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A27, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5448,7 +5783,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B28" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A28, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5457,7 +5792,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A29, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5466,7 +5801,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A30, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5475,7 +5810,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A31, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5484,7 +5819,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A32, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5493,7 +5828,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A33, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5502,7 +5837,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A34, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5511,7 +5846,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A35, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5520,7 +5855,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A36, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5529,7 +5864,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A37, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5538,7 +5873,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B38" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A38, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5547,7 +5882,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A39, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5556,7 +5891,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B40" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A40, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5565,7 +5900,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B41" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A41, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5574,7 +5909,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B42" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A42, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5583,7 +5918,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B43">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A43, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5592,7 +5927,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B44" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A44, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5601,7 +5936,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B45" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A45, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5610,7 +5945,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B46" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A46, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5619,7 +5954,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B47" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A47, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5628,7 +5963,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B48" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A48, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5637,7 +5972,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B49" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A49, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5646,7 +5981,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B50" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A50, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5655,7 +5990,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B51" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A51, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5664,7 +5999,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B52" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A52, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5673,7 +6008,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B53" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A53, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5682,7 +6017,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B54" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A54, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5691,7 +6026,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B55" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A55, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5700,7 +6035,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B56" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A56, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5709,7 +6044,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B57" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A57, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5718,7 +6053,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B58">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A58, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5727,7 +6062,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B59" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A59, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5736,7 +6071,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B60" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A60, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5745,7 +6080,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B61" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A61, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5754,7 +6089,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B62" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A62, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5763,7 +6098,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B63" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A63, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5772,7 +6107,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B64" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A64, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5781,7 +6116,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B65" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A65, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5790,7 +6125,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B66" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A66, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5799,7 +6134,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B67" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A67, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5808,7 +6143,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B68">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A68, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5817,7 +6152,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B69" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A69, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5826,7 +6161,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B70" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A70, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5835,7 +6170,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B71" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A71, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5844,7 +6179,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B72" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A72, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5853,7 +6188,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B73" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A73, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5862,7 +6197,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B74" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A74, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5871,7 +6206,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B75" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A75, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5880,7 +6215,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B76" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A76, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5889,7 +6224,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B77" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A77, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5898,7 +6233,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B78" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A78, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5907,7 +6242,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B79" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A79, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5916,7 +6251,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B80" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A80, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5925,7 +6260,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B81" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A81, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5934,7 +6269,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B82">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A82, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5943,7 +6278,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B83" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A83, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5952,7 +6287,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B84" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A84, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5961,7 +6296,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B85" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A85, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5970,7 +6305,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B86" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A86, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5979,7 +6314,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B87" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A87, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5988,7 +6323,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B88" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A88, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -5997,7 +6332,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B89" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A89, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6006,7 +6341,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B90" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A90, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6015,7 +6350,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B91" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A91, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6024,7 +6359,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B92" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A92, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6033,7 +6368,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B93" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A93, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6042,7 +6377,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B94" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A94, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6051,7 +6386,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B95" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A95, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6060,7 +6395,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B96" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A96, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6069,7 +6404,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B97" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A97, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6078,7 +6413,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B98" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A98, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6087,7 +6422,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B99" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A99, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6096,7 +6431,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B100" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A100, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6105,7 +6440,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B101" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A101, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6114,7 +6449,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B102" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A102, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6123,7 +6458,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B103" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A103, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6132,7 +6467,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B104" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A104, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6141,7 +6476,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B105" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A105, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6150,7 +6485,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B106" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A106, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6159,7 +6494,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B107" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A107, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6168,7 +6503,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B108" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A108, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6177,7 +6512,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B109" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A109, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6186,7 +6521,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B110" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A110, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6195,7 +6530,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B111" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A111, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6204,7 +6539,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B112" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A112, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6213,7 +6548,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B113" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A113, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6222,7 +6557,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B114" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A114, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6231,7 +6566,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B115" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A115, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6240,7 +6575,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B116" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A116, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6249,7 +6584,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B117">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A117, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6258,7 +6593,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B118" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A118, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6267,7 +6602,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B119" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A119, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6276,7 +6611,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B120" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A120, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6285,7 +6620,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B121" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A121, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6294,7 +6629,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B122" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A122, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6303,7 +6638,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B123" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A123, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6312,7 +6647,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B124" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A124, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6321,7 +6656,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B125" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A125, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6330,7 +6665,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B126" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A126, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6339,7 +6674,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B127" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A127, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6348,7 +6683,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B128">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A128, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6357,7 +6692,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B129" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A129, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6366,7 +6701,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B130" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A130, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6375,7 +6710,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B131" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A131, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6384,7 +6719,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B132" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A132, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6393,7 +6728,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B133" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A133, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6402,7 +6737,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B134" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A134, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6411,7 +6746,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B135" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A135, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6420,7 +6755,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B136" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A136, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6429,7 +6764,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B137" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A137, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6438,7 +6773,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B138" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A138, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6447,7 +6782,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B139" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A139, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6456,7 +6791,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B140" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A140, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6465,7 +6800,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B141" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A141, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6474,7 +6809,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B142" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A142, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6483,7 +6818,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B143" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A143, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6492,7 +6827,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B144" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A144, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6501,7 +6836,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B145" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A145, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6510,7 +6845,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B146" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A146, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6519,7 +6854,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B147" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A147, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6528,7 +6863,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B148" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A148, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6537,7 +6872,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B149" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A149, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6546,7 +6881,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B150" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A150, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6555,7 +6890,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B151">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A151, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6564,7 +6899,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B152" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A152, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6573,7 +6908,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B153" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A153, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6582,7 +6917,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B154" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A154, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6591,7 +6926,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B155" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A155, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6600,7 +6935,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B156" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A156, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6609,7 +6944,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B157" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A157, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6618,7 +6953,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B158" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A158, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6627,7 +6962,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B159" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A159, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6636,7 +6971,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B160">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A160, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6645,7 +6980,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B161" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A161, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6654,7 +6989,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B162" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A162, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6663,7 +6998,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B163" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A163, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6672,7 +7007,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B164" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A164, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6681,7 +7016,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B165" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A165, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6690,7 +7025,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B166" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A166, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6699,7 +7034,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B167" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A167, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6708,7 +7043,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B168" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A168, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6717,7 +7052,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B169" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A169, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6726,7 +7061,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B170" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A170, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6735,7 +7070,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B171" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A171, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6744,7 +7079,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B172" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A172, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6753,7 +7088,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B173" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A173, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6762,7 +7097,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B174" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A174, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6771,7 +7106,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B175" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A175, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6780,7 +7115,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B176" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A176, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6789,7 +7124,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B177" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A177, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6798,7 +7133,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B178" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A178, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6807,7 +7142,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B179" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A179, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6816,7 +7151,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B180" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A180, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6825,7 +7160,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B181" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A181, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6834,7 +7169,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B182" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A182, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6843,7 +7178,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B183" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A183, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6852,7 +7187,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B184" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A184, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6861,7 +7196,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B185" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A185, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6870,7 +7205,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B186" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A186, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6879,7 +7214,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B187" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A187, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6888,7 +7223,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B188" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A188, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6897,7 +7232,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B189">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A189, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6906,7 +7241,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B190" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A190, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6915,7 +7250,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B191" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A191, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6924,7 +7259,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B192" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A192, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6933,7 +7268,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B193" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A193, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6942,7 +7277,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B194" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A194, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6951,7 +7286,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B195" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A195, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6960,7 +7295,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B196" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A196, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6969,7 +7304,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B197" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A197, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6978,7 +7313,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B198">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A198, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6987,7 +7322,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B199" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A199, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -6996,7 +7331,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B200" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A200, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7005,7 +7340,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B201" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A201, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7014,7 +7349,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B202" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A202, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7023,7 +7358,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B203" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A203, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7032,7 +7367,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B204" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A204, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7041,7 +7376,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B205" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A205, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7050,7 +7385,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B206" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A206, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7059,7 +7394,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B207" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A207, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7068,7 +7403,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B208" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A208, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7077,7 +7412,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B209" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A209, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7086,7 +7421,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B210" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A210, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7095,7 +7430,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B211" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A211, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7104,7 +7439,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B212" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A212, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7113,7 +7448,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B213" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A213, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7122,7 +7457,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B214" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A214, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7131,7 +7466,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B215" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A215, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7140,7 +7475,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B216" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A216, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7149,7 +7484,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B217" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A217, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7158,7 +7493,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B218" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A218, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7167,7 +7502,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B219" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A219, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7176,7 +7511,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B220" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A220, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7185,7 +7520,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B221" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A221, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7194,7 +7529,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B222" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A222, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7203,7 +7538,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B223" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A223, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7212,7 +7547,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B224" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A224, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7221,7 +7556,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B225" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A225, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7230,7 +7565,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B226" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A226, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7239,7 +7574,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B227" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A227, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7248,7 +7583,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B228" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A228, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7257,7 +7592,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B229" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A229, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7266,7 +7601,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B230" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A230, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7275,7 +7610,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B231" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A231, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7284,7 +7619,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B232" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A232, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7293,7 +7628,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B233" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A233, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7302,7 +7637,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B234" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A234, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7311,7 +7646,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B235" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A235, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7320,7 +7655,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B236" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A236, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7329,7 +7664,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B237" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A237, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7338,7 +7673,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B238" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A238, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7347,7 +7682,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B239">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A239, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7356,7 +7691,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B240" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A240, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7365,7 +7700,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B241" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A241, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7374,7 +7709,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B242" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A242, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7383,7 +7718,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B243" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A243, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7392,7 +7727,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B244" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A244, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7401,7 +7736,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B245" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A245, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7410,7 +7745,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B246" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A246, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7419,7 +7754,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B247" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A247, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7428,7 +7763,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B248" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A248, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7437,7 +7772,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B249" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A249, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7446,7 +7781,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B250" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A250, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7455,7 +7790,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B251" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A251, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7464,7 +7799,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B252" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A252, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7473,7 +7808,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B253" t="str">
         <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A253, '[1]update data'!$A$2:$A$15,0)),"")</f>
@@ -7489,7 +7824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE6DB38-87E3-DC48-9FFA-21F97C9B98B3}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -7500,22 +7835,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" t="s">
         <v>392</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>393</v>
-      </c>
-      <c r="F1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7524,7 +7859,7 @@
         <v>Australia</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="38">
         <v>9</v>
@@ -7533,10 +7868,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7545,7 +7880,7 @@
         <v>Bahrain</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="38">
         <v>3</v>
@@ -7554,10 +7889,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7566,7 +7901,7 @@
         <v>Germany</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="38">
         <v>4</v>
@@ -7575,10 +7910,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7587,7 +7922,7 @@
         <v>China</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -7596,10 +7931,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7608,7 +7943,7 @@
         <v>Japan</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" s="38">
         <v>1</v>
@@ -7617,10 +7952,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7629,7 +7964,7 @@
         <v>Kuwait</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" s="38">
         <v>5</v>
@@ -7638,10 +7973,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -7650,7 +7985,7 @@
         <v>Malaysia</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" s="38">
         <v>1</v>
@@ -7659,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -7671,7 +8006,7 @@
         <v>Myanmar</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" s="38">
         <v>1</v>
@@ -7680,10 +8015,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -7692,7 +8027,7 @@
         <v>Portugal</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C10" s="38">
         <v>8</v>
@@ -7701,10 +8036,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7713,7 +8048,7 @@
         <v>Saudi Arabia</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C11" s="38">
         <v>4</v>
@@ -7722,10 +8057,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -7734,7 +8069,7 @@
         <v>Spain</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="38">
         <v>18</v>
@@ -7743,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -7755,7 +8090,7 @@
         <v>United Arab Emirates</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="38">
         <v>10</v>
@@ -7764,10 +8099,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -7776,7 +8111,7 @@
         <v>UK</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C14" s="38">
         <v>100</v>
@@ -7785,10 +8120,10 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -7797,7 +8132,7 @@
         <v>USA</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C15" s="38">
         <v>500</v>
@@ -7806,10 +8141,10 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1C86DC-893E-B849-B0AF-843BFE9F536F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE71A7B-6B56-1B47-AC9F-4175D7E266D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" activeTab="5" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -20,9 +20,6 @@
     <sheet name="nepali_world" sheetId="5" r:id="rId5"/>
     <sheet name="nepali_world_update" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="469">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -164,9 +161,6 @@
     <t>२०७६ चैत ७ मा फ्रान्सबाट कतार हुँदै नेपाल फर्किएको विद्यार्थी प्रसिद्धि श्रेष्ठ</t>
   </si>
   <si>
-    <t>कुल परिक्षण गरिएको</t>
-  </si>
-  <si>
     <t>कुल संक्रमित</t>
   </si>
   <si>
@@ -1437,6 +1431,12 @@
   </si>
   <si>
     <t>अर्घाखाँचि</t>
+  </si>
+  <si>
+    <t>PCR परिक्षण गरिएको</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख १२</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-4000439]0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1543,6 +1543,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7C7C7C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1582,7 +1595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1695,13 +1708,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1724,136 +1740,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="nepali_world"/>
-      <sheetName val="update data"/>
-      <sheetName val="old"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Australia</v>
-          </cell>
-          <cell r="C2">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Bahrain</v>
-          </cell>
-          <cell r="C3">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Germany</v>
-          </cell>
-          <cell r="C4">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>China</v>
-          </cell>
-          <cell r="C5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Japan</v>
-          </cell>
-          <cell r="C6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Kuwait</v>
-          </cell>
-          <cell r="C7">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Malaysia</v>
-          </cell>
-          <cell r="C8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Myanmar</v>
-          </cell>
-          <cell r="C9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Portugal</v>
-          </cell>
-          <cell r="C10">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Saudi Arabia</v>
-          </cell>
-          <cell r="C11">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Spain</v>
-          </cell>
-          <cell r="C12">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>United Arab Emirates</v>
-          </cell>
-          <cell r="C13">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>UK</v>
-          </cell>
-          <cell r="C14">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>USA</v>
-          </cell>
-          <cell r="C15">
-            <v>500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2155,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2226,17 +2112,17 @@
       <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2258,17 +2144,17 @@
       <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2290,17 +2176,17 @@
       <c r="F4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2322,17 +2208,17 @@
       <c r="F5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2354,17 +2240,17 @@
       <c r="F6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
       <c r="P6"/>
     </row>
     <row r="7" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2386,17 +2272,17 @@
       <c r="F7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2418,17 +2304,17 @@
       <c r="F8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2450,17 +2336,17 @@
       <c r="F9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2482,17 +2368,17 @@
       <c r="F10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
       <c r="P10"/>
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2500,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C11" s="19">
         <v>37</v>
@@ -2514,17 +2400,17 @@
       <c r="F11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2532,7 +2418,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C12" s="17">
         <v>55</v>
@@ -2546,17 +2432,17 @@
       <c r="F12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
       <c r="P12"/>
     </row>
     <row r="13" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2564,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C13" s="19">
         <v>44</v>
@@ -2578,17 +2464,17 @@
       <c r="F13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2610,17 +2496,17 @@
       <c r="F14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2642,15 +2528,15 @@
       <c r="F15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2672,17 +2558,17 @@
       <c r="F16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2704,17 +2590,17 @@
       <c r="F17" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2736,17 +2622,17 @@
       <c r="F18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
+      <c r="G18" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2768,17 +2654,17 @@
       <c r="F19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
+      <c r="G19" s="50" t="s">
+        <v>396</v>
+      </c>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2800,17 +2686,17 @@
       <c r="F20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
+      <c r="G20" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2832,17 +2718,17 @@
       <c r="F21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
+      <c r="G21" s="50" t="s">
+        <v>396</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2864,17 +2750,17 @@
       <c r="F22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
+      <c r="G22" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2896,17 +2782,17 @@
       <c r="F23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
+      <c r="G23" s="50" t="s">
+        <v>396</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2928,17 +2814,17 @@
       <c r="F24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
+      <c r="G24" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2960,17 +2846,17 @@
       <c r="F25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
+      <c r="G25" s="50" t="s">
+        <v>396</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2992,17 +2878,17 @@
       <c r="F26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
+      <c r="G26" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3024,17 +2910,17 @@
       <c r="F27" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
+      <c r="G27" s="50" t="s">
+        <v>396</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3056,17 +2942,17 @@
       <c r="F28" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
+      <c r="G28" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3088,17 +2974,17 @@
       <c r="F29" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
+      <c r="G29" s="50" t="s">
+        <v>396</v>
+      </c>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3120,17 +3006,17 @@
       <c r="F30" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3152,17 +3038,17 @@
       <c r="F31" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3184,17 +3070,17 @@
       <c r="F32" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
+      <c r="G32" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -3211,7 +3097,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>4</v>
@@ -3233,7 +3119,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>4</v>
@@ -3253,7 +3139,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>4</v>
@@ -3273,7 +3159,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>4</v>
@@ -3293,7 +3179,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>4</v>
@@ -3313,7 +3199,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>4</v>
@@ -3333,7 +3219,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>4</v>
@@ -3353,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>4</v>
@@ -3373,7 +3259,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>4</v>
@@ -3391,7 +3277,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>4</v>
@@ -3411,7 +3297,7 @@
         <v>13</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>4</v>
@@ -3431,7 +3317,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>4</v>
@@ -3471,7 +3357,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>4</v>
@@ -3491,7 +3377,7 @@
         <v>13</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>4</v>
@@ -3502,7 +3388,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C48" s="45">
         <v>14</v>
@@ -3511,7 +3397,7 @@
         <v>7</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F48" s="20" t="s">
         <v>4</v>
@@ -3528,15 +3414,31 @@
         <v>7</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F49" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="C50" s="3"/>
+    <row r="50" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="44">
+        <v>49</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="C50" s="45">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
@@ -3587,37 +3489,37 @@
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="G9:O9"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="G15:O15"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="G18:O18"/>
+    <mergeCell ref="G19:O19"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="G21:O21"/>
+    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="G29:O29"/>
+    <mergeCell ref="G30:O30"/>
+    <mergeCell ref="G31:O31"/>
     <mergeCell ref="G32:O32"/>
     <mergeCell ref="G24:O24"/>
     <mergeCell ref="G25:O25"/>
     <mergeCell ref="G26:O26"/>
     <mergeCell ref="G27:O27"/>
     <mergeCell ref="G28:O28"/>
-    <mergeCell ref="G22:O22"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="G29:O29"/>
-    <mergeCell ref="G30:O30"/>
-    <mergeCell ref="G31:O31"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="G18:O18"/>
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="G21:O21"/>
-    <mergeCell ref="G12:O12"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G7:O7"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="G9:O9"/>
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="G11:O11"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="G6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3625,10 +3527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4D57B-B68B-5E42-9689-ABFDDD3556B4}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3642,31 +3544,31 @@
   <sheetData>
     <row r="1" spans="1:6" s="26" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
-        <v>9200</v>
+        <v>9408</v>
       </c>
       <c r="B2" s="28">
         <f>COUNT(detail!A2:'detail'!A323)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="29">
         <f>COUNTIF(detail!F2:'detail'!F257, "निको")</f>
@@ -3680,8 +3582,18 @@
       </c>
       <c r="F2" s="32">
         <f>B2-C2</f>
-        <v>38</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3692,23 +3604,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F40CF7-9584-3D43-9273-49D4405146AF}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A2,map_update!$B$4:$B$78,0)),"")</f>
@@ -3717,7 +3629,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A3,map_update!$B$4:$B$78,0)),"")</f>
@@ -3726,7 +3638,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A4,map_update!$B$4:$B$78,0)),"")</f>
@@ -3735,7 +3647,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A5,map_update!$B$4:$B$78,0)),"")</f>
@@ -3744,7 +3656,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A6,map_update!$B$4:$B$78,0)),"")</f>
@@ -3753,7 +3665,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A7,map_update!$B$4:$B$78,0)),"")</f>
@@ -3762,7 +3674,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A8,map_update!$B$4:$B$78,0)),"")</f>
@@ -3771,7 +3683,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A9,map_update!$B$4:$B$78,0)),"")</f>
@@ -3780,7 +3692,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A10,map_update!$B$4:$B$78,0)),"")</f>
@@ -3789,7 +3701,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A11,map_update!$B$4:$B$78,0)),"")</f>
@@ -3798,7 +3710,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A12,map_update!$B$4:$B$78,0)),"")</f>
@@ -3807,7 +3719,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A13,map_update!$B$4:$B$78,0)),"")</f>
@@ -3816,7 +3728,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A14,map_update!$B$4:$B$78,0)),"")</f>
@@ -3825,7 +3737,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A15,map_update!$B$4:$B$78,0)),"")</f>
@@ -3834,7 +3746,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A16,map_update!$B$4:$B$78,0)),"")</f>
@@ -3843,7 +3755,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A17,map_update!$B$4:$B$78,0)),"")</f>
@@ -3852,7 +3764,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A18,map_update!$B$4:$B$78,0)),"")</f>
@@ -3861,7 +3773,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A19,map_update!$B$4:$B$78,0)),"")</f>
@@ -3870,7 +3782,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A20,map_update!$B$4:$B$78,0)),"")</f>
@@ -3879,7 +3791,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A21,map_update!$B$4:$B$78,0)),"")</f>
@@ -3888,7 +3800,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A22,map_update!$B$4:$B$78,0)),"")</f>
@@ -3897,7 +3809,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A23,map_update!$B$4:$B$78,0)),"")</f>
@@ -3906,7 +3818,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A24,map_update!$B$4:$B$78,0)),"")</f>
@@ -3915,7 +3827,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A25,map_update!$B$4:$B$78,0)),"")</f>
@@ -3924,7 +3836,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A26,map_update!$B$4:$B$78,0)),"")</f>
@@ -3933,7 +3845,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A27,map_update!$B$4:$B$78,0)),"")</f>
@@ -3942,7 +3854,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A28,map_update!$B$4:$B$78,0)),"")</f>
@@ -3951,16 +3863,16 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" t="str">
+        <v>78</v>
+      </c>
+      <c r="B29">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A29,map_update!$B$4:$B$78,0)),"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A30,map_update!$B$4:$B$78,0)),"")</f>
@@ -3969,7 +3881,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A31,map_update!$B$4:$B$78,0)),"")</f>
@@ -3978,7 +3890,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A32,map_update!$B$4:$B$78,0)),"")</f>
@@ -3987,7 +3899,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A33,map_update!$B$4:$B$78,0)),"")</f>
@@ -3996,7 +3908,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A34,map_update!$B$4:$B$78,0)),"")</f>
@@ -4005,7 +3917,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A35,map_update!$B$4:$B$78,0)),"")</f>
@@ -4014,7 +3926,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A36,map_update!$B$4:$B$78,0)),"")</f>
@@ -4023,7 +3935,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A37,map_update!$B$4:$B$78,0)),"")</f>
@@ -4032,7 +3944,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A38,map_update!$B$4:$B$78,0)),"")</f>
@@ -4041,7 +3953,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A39,map_update!$B$4:$B$78,0)),"")</f>
@@ -4050,7 +3962,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A40,map_update!$B$4:$B$78,0)),"")</f>
@@ -4059,7 +3971,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A41,map_update!$B$4:$B$78,0)),"")</f>
@@ -4068,7 +3980,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A42,map_update!$B$4:$B$78,0)),"")</f>
@@ -4077,7 +3989,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A43,map_update!$B$4:$B$78,0)),"")</f>
@@ -4086,7 +3998,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A44,map_update!$B$4:$B$78,0)),"")</f>
@@ -4095,7 +4007,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A45,map_update!$B$4:$B$78,0)),"")</f>
@@ -4104,7 +4016,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A46,map_update!$B$4:$B$78,0)),"")</f>
@@ -4113,7 +4025,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A47,map_update!$B$4:$B$78,0)),"")</f>
@@ -4122,7 +4034,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A48,map_update!$B$4:$B$78,0)),"")</f>
@@ -4131,7 +4043,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A49,map_update!$B$4:$B$78,0)),"")</f>
@@ -4140,7 +4052,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A50,map_update!$B$4:$B$78,0)),"")</f>
@@ -4149,7 +4061,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A51,map_update!$B$4:$B$78,0)),"")</f>
@@ -4158,7 +4070,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A52,map_update!$B$4:$B$78,0)),"")</f>
@@ -4167,7 +4079,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A53,map_update!$B$4:$B$78,0)),"")</f>
@@ -4176,7 +4088,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A54,map_update!$B$4:$B$78,0)),"")</f>
@@ -4185,7 +4097,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A55,map_update!$B$4:$B$78,0)),"")</f>
@@ -4194,7 +4106,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A56,map_update!$B$4:$B$78,0)),"")</f>
@@ -4203,7 +4115,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B57" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A57,map_update!$B$4:$B$78,0)),"")</f>
@@ -4212,7 +4124,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B58">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A58,map_update!$B$4:$B$78,0)),"")</f>
@@ -4221,7 +4133,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B59" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A59,map_update!$B$4:$B$78,0)),"")</f>
@@ -4230,7 +4142,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B60" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A60,map_update!$B$4:$B$78,0)),"")</f>
@@ -4239,7 +4151,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A61,map_update!$B$4:$B$78,0)),"")</f>
@@ -4248,7 +4160,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A62,map_update!$B$4:$B$78,0)),"")</f>
@@ -4257,7 +4169,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A63,map_update!$B$4:$B$78,0)),"")</f>
@@ -4266,7 +4178,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A64,map_update!$B$4:$B$78,0)),"")</f>
@@ -4275,7 +4187,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A65,map_update!$B$4:$B$78,0)),"")</f>
@@ -4284,7 +4196,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A66,map_update!$B$4:$B$78,0)),"")</f>
@@ -4293,7 +4205,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A67,map_update!$B$4:$B$78,0)),"")</f>
@@ -4302,7 +4214,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A68,map_update!$B$4:$B$78,0)),"")</f>
@@ -4311,7 +4223,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A69,map_update!$B$4:$B$78,0)),"")</f>
@@ -4320,7 +4232,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A70,map_update!$B$4:$B$78,0)),"")</f>
@@ -4329,7 +4241,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A71,map_update!$B$4:$B$78,0)),"")</f>
@@ -4338,7 +4250,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A72,map_update!$B$4:$B$78,0)),"")</f>
@@ -4347,7 +4259,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A73,map_update!$B$4:$B$78,0)),"")</f>
@@ -4356,7 +4268,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B74" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A74,map_update!$B$4:$B$78,0)),"")</f>
@@ -4365,7 +4277,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B75" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A75,map_update!$B$4:$B$78,0)),"")</f>
@@ -4374,11 +4286,11 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B76">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A76,map_update!$B$4:$B$78,0)),"")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4391,7 +4303,7 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4403,56 +4315,56 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
         <v>128</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>129</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>130</v>
-      </c>
-      <c r="F2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
         <v>132</v>
       </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
       <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
         <v>132</v>
       </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
       <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" t="s">
         <v>132</v>
-      </c>
-      <c r="G3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A4) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A4))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A4) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A4))</f>
         <v/>
       </c>
       <c r="D4">
@@ -4476,13 +4388,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A5) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A5))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A5) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A5))</f>
         <v/>
       </c>
       <c r="D5">
@@ -4509,10 +4421,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="42">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A6) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A6))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A6) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A6))</f>
         <v>2</v>
       </c>
       <c r="D6">
@@ -4536,13 +4448,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A7) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A7))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A7) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A7))</f>
         <v/>
       </c>
       <c r="D7">
@@ -4566,13 +4478,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A8) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A8))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A8) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A8))</f>
         <v/>
       </c>
       <c r="D8">
@@ -4596,13 +4508,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A9) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A9))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A9) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A9))</f>
         <v/>
       </c>
       <c r="D9">
@@ -4626,13 +4538,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A10) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A10))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10))</f>
         <v/>
       </c>
       <c r="D10">
@@ -4656,13 +4568,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A11) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A11))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A11) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A11))</f>
         <v/>
       </c>
       <c r="D11">
@@ -4686,13 +4598,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A12) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A12))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A12) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A12))</f>
         <v/>
       </c>
       <c r="E12" s="36"/>
@@ -4701,13 +4613,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A13) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A13))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A13) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A13))</f>
         <v/>
       </c>
       <c r="D13">
@@ -4732,13 +4644,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A14) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A14))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A14) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A14))</f>
         <v/>
       </c>
     </row>
@@ -4747,216 +4659,216 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="42">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A15) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A15))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A15) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A15))</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A16) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A16))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A16) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A16))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A17) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A17))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A17) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A17))</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A18) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A18))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A18) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A18))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A19) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A19))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A19) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A19))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A20) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A20))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A20) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A20))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A21) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A21))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A21) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A21))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="42">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$206, map_update!A22) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$206, map_update!A22))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A22) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A22))</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A23) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A23))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A23) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A23))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A24) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A24))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A24) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A24))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A25) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A25))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A25) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A25))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A26) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A26))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A26) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A26))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A27) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A27))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A27) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A27))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A28) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A28))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A28) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A28))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A29) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A29))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A29) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A29))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A30) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A30))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A30) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A30))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A31) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A31))</f>
-        <v/>
+        <v>78</v>
+      </c>
+      <c r="C31" s="42">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A31) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A31))</f>
+        <v>1</v>
       </c>
       <c r="L31" s="42"/>
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A32" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A32) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A32))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A32) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A32))</f>
         <v/>
       </c>
       <c r="N32" s="18"/>
@@ -4966,23 +4878,23 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="42">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A33) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A33))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A33) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A33))</f>
         <v>4</v>
       </c>
       <c r="L33" s="42"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A34) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A34))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A34) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A34))</f>
         <v/>
       </c>
     </row>
@@ -4991,35 +4903,35 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="42">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A35) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A35))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A35) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A35))</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A36) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A36))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A36) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A36))</f>
         <v/>
       </c>
       <c r="L36" s="42"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A37) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A37))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A37) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A37))</f>
         <v/>
       </c>
     </row>
@@ -5028,263 +4940,263 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="42">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A38) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A38))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A38) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A38))</f>
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A39) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A39))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A39) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A39))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A40) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A40))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A40) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A40))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A41) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A41))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A41) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A41))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A42) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A42))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A42) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A42))</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A43) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A43))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A43) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A43))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A44) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A44))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A44) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A44))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A45) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A45))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A45) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A45))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A46) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A46))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A46) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A46))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A47) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A47))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A47) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A47))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A48) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A48))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A48) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A48))</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A49) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A49))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A49) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A49))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A50) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A50))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A50) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A50))</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A51) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A51))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A51) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A51))</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A52) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A52))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A52) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A52))</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A53) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A53))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A53) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A53))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A54) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A54))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A54) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A54))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A55) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A55))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A55) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A55))</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="42">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A56) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A56))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A56) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A56))</f>
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A57) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A57))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A57) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A57))</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A58) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A58))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A58) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A58))</f>
         <v/>
       </c>
       <c r="L58" s="42"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A59) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A59))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A59) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A59))</f>
         <v/>
       </c>
     </row>
@@ -5293,215 +5205,215 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="42">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A60) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A60))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A60) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A60))</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A61) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A61))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A61) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A61))</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A62) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A62))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A62) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A62))</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A63) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A63))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A63) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A63))</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A64) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A64))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A64) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A64))</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A65) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A65))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A65) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A65))</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A66) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A66))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A66) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A66))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A67) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A67))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A67) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A67))</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A68) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A68))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A68) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A68))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A69) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A69))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A69) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A69))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A70) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A70))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A70) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A70))</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C71" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A71) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A71))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A71) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A71))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C72" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A72) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A72))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A72) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A72))</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C73" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A73) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A73))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A73) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A73))</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A74) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A74))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A74) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A74))</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A75) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A75))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A75) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A75))</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C76" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A76) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A76))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A76) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A76))</f>
         <v/>
       </c>
       <c r="L76" s="43"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C77" s="42" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A77) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A77))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A77) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A77))</f>
         <v/>
       </c>
     </row>
@@ -5510,11 +5422,11 @@
         <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C78" s="42">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A78) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$46, map_update!A78))</f>
-        <v>27</v>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A78) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A78))</f>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -5529,8 +5441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C54A67-FFF9-F147-A547-2706EC5F8302}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5541,2277 +5453,2277 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A2, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A2, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A3, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A3, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A4, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A4, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A5, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A5, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A6, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A6, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A7, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A7, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A8, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A8, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A9, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A9, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A10, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A10, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A11, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A11, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A12, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A12, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A13, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A13, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A14, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A14, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A15, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A15, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A16, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A16, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A17, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A17, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A18, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A18, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A19, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A19, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A20, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A20, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A21, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A21, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A22, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A22, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A23, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A23, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A24, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A24, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A25, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A25, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A26, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A26, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A27, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A27, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A28, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A28, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A29, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A29, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A30, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A30, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A31, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A31, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A32, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A32, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A33, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A33, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A34, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A34, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A35, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A35, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B36" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A36, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A36, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A37, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A37, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A38, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A38, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A39, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A39, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B40" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A40, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A40, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A41, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A41, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A42, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A42, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B43">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A43, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A43, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B44" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A44, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A44, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B45" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A45, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A45, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B46" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A46, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A46, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B47" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A47, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A47, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B48" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A48, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A48, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B49" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A49, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A49, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B50" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A50, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A50, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B51" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A51, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A51, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A52, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A52, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B53" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A53, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A53, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B54" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A54, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A54, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B55" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A55, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A55, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B56" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A56, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A56, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B57" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A57, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A57, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B58">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A58, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A58, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B59" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A59, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A59, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B60" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A60, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A60, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B61" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A61, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A61, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B62" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A62, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A62, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B63" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A63, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A63, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B64" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A64, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A64, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B65" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A65, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A65, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B66" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A66, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A66, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B67" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A67, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A67, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B68">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A68, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A68, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B69" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A69, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A69, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B70" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A70, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A70, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B71" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A71, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A71, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B72" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A72, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A72, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B73" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A73, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A73, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B74" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A74, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A74, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B75" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A75, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A75, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B76" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A76, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A76, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B77" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A77, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A77, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B78" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A78, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A78, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B79" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A79, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A79, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B80" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A80, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A80, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B81" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A81, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A81, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B82">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A82, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A82, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B83" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A83, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A83, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B84" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A84, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A84, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B85" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A85, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A85, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B86" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A86, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A86, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B87" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A87, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A87, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B88" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A88, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A88, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B89" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A89, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A89, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B90" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A90, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A90, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B91" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A91, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A91, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B92" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A92, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A92, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B93" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A93, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A93, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B94" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A94, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A94, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B95" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A95, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A95, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B96" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A96, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A96, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B97" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A97, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A97, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B98" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A98, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A98, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B99" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A99, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A99, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B100" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A100, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A100, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B101" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A101, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A101, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B102" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A102, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A102, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B103" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A103, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A103, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B104" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A104, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A104, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A105, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A105, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B106" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A106, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A106, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B107" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A107, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A107, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B108" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A108, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A108, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B109" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A109, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A109, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B110" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A110, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A110, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B111" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A111, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A111, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B112" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A112, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A112, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B113" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A113, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A113, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B114" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A114, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A114, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B115" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A115, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A115, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B116" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A116, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A116, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B117">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A117, '[1]update data'!$A$2:$A$15,0)),"")</f>
-        <v>1</v>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A117, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B118" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A118, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A118, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B119" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A119, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A119, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B120" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A120, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A120, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B121" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A121, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A121, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B122" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A122, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A122, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B123" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A123, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A123, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B124" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A124, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A124, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B125" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A125, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A125, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B126" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A126, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A126, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B127" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A127, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A127, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B128">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A128, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A128, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B129" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A129, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A129, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B130" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A130, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A130, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B131" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A131, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A131, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B132" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A132, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A132, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B133" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A133, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A133, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B134" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A134, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A134, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B135" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A135, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A135, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B136" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A136, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A136, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B137" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A137, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A137, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B138" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A138, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A138, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B139" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A139, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A139, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B140" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A140, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A140, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B141" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A141, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A141, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B142" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A142, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A142, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B143" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A143, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A143, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B144" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A144, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A144, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B145" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A145, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A145, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B146" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A146, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A146, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B147" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A147, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A147, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B148" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A148, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A148, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B149" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A149, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A149, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B150" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A150, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A150, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B151">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A151, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A151, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B152" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A152, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A152, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B153" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A153, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A153, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B154" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A154, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A154, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B155" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A155, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A155, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B156" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A156, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A156, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B157" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A157, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A157, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B158" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A158, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A158, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B159" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A159, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A159, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B160">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A160, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A160, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B161" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A161, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A161, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B162" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A162, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A162, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B163" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A163, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A163, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B164" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A164, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A164, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B165" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A165, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A165, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B166" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A166, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A166, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B167" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A167, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A167, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B168" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A168, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A168, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B169" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A169, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A169, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B170" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A170, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A170, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B171" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A171, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A171, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B172" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A172, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A172, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B173" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A173, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A173, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B174" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A174, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A174, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B175" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A175, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A175, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B176" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A176, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A176, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B177" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A177, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A177, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B178" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A178, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A178, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B179" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A179, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A179, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B180" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A180, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A180, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B181" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A181, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A181, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B182" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A182, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A182, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B183" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A183, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A183, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B184" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A184, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A184, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B185" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A185, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A185, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B186" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A186, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A186, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B187" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A187, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A187, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B188" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A188, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A188, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B189">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A189, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A189, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B190" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A190, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A190, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B191" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A191, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A191, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B192" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A192, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A192, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B193" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A193, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A193, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B194" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A194, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A194, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B195" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A195, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A195, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B196" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A196, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A196, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B197" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A197, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A197, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B198">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A198, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A198, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B199" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A199, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A199, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B200" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A200, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A200, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B201" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A201, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A201, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B202" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A202, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A202, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B203" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A203, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A203, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B204" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A204, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A204, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B205" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A205, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A205, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B206" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A206, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A206, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B207" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A207, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A207, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B208" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A208, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A208, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B209" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A209, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A209, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B210" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A210, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A210, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B211" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A211, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A211, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B212" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A212, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A212, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B213" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A213, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A213, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B214" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A214, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A214, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B215" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A215, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A215, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B216" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A216, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A216, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B217" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A217, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A217, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B218" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A218, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A218, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B219" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A219, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A219, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B220" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A220, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A220, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B221" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A221, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A221, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B222" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A222, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A222, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B223" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A223, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A223, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B224" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A224, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A224, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B225" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A225, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A225, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B226" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A226, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A226, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B227" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A227, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A227, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B228" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A228, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A228, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B229" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A229, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A229, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B230" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A230, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A230, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B231" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A231, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A231, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B232" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A232, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A232, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B233" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A233, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A233, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B234" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A234, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A234, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B235" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A235, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A235, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B236" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A236, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A236, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B237" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A237, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A237, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B238" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A238, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A238, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B239">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A239, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A239, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v>500</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B240" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A240, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A240, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B241" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A241, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A241, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B242" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A242, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A242, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B243" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A243, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A243, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B244" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A244, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A244, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B245" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A245, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A245, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B246" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A246, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A246, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B247" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A247, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A247, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B248" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A248, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A248, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B249" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A249, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A249, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B250" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A250, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A250, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B251" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A251, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A251, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B252" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A252, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A252, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B253" t="str">
-        <f>IFERROR(INDEX('[1]update data'!$C$2:$C$15, MATCH(A253, '[1]update data'!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A253, nepali_world_update!$A$2:$A$15,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7825,7 +7737,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7835,22 +7747,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" t="s">
         <v>391</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>392</v>
-      </c>
-      <c r="F1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7859,7 +7771,7 @@
         <v>Australia</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="38">
         <v>9</v>
@@ -7868,10 +7780,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7880,7 +7792,7 @@
         <v>Bahrain</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="38">
         <v>3</v>
@@ -7889,10 +7801,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7901,7 +7813,7 @@
         <v>Germany</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="38">
         <v>4</v>
@@ -7910,10 +7822,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7922,7 +7834,7 @@
         <v>China</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -7931,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7943,19 +7855,19 @@
         <v>Japan</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="38">
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="C6" s="46">
+        <v>3</v>
       </c>
       <c r="D6" s="38">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7964,7 +7876,7 @@
         <v>Kuwait</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" s="38">
         <v>5</v>
@@ -7973,10 +7885,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -7985,7 +7897,7 @@
         <v>Malaysia</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="38">
         <v>1</v>
@@ -7994,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -8006,7 +7918,7 @@
         <v>Myanmar</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="38">
         <v>1</v>
@@ -8015,10 +7927,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -8027,7 +7939,7 @@
         <v>Portugal</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C10" s="38">
         <v>8</v>
@@ -8036,10 +7948,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8048,7 +7960,7 @@
         <v>Saudi Arabia</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C11" s="38">
         <v>4</v>
@@ -8057,10 +7969,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -8069,7 +7981,7 @@
         <v>Spain</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="38">
         <v>18</v>
@@ -8078,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -8090,7 +8002,7 @@
         <v>United Arab Emirates</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="38">
         <v>10</v>
@@ -8099,10 +8011,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -8111,7 +8023,7 @@
         <v>UK</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C14" s="38">
         <v>100</v>
@@ -8120,10 +8032,10 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -8132,7 +8044,7 @@
         <v>USA</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C15" s="38">
         <v>500</v>
@@ -8141,10 +8053,10 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE71A7B-6B56-1B47-AC9F-4175D7E266D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E780508-EA5A-F142-B677-D89C9150249B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" activeTab="5" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" activeTab="5" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="498">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -1437,6 +1437,93 @@
   </si>
   <si>
     <t>२०७७ बैशाख १२</t>
+  </si>
+  <si>
+    <t>निको मिति</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख १३</t>
+  </si>
+  <si>
+    <t>अस्ट्रेलिया</t>
+  </si>
+  <si>
+    <t>जर्मनी</t>
+  </si>
+  <si>
+    <t>म्यानमार</t>
+  </si>
+  <si>
+    <t>पोर्टुगल</t>
+  </si>
+  <si>
+    <t>स्पेन</t>
+  </si>
+  <si>
+    <t>अमेरिका</t>
+  </si>
+  <si>
+    <t>टर्कि</t>
+  </si>
+  <si>
+    <t>आयरल्याण्ड</t>
+  </si>
+  <si>
+    <t>फ्रान्स</t>
+  </si>
+  <si>
+    <t>न्यु जिल्याण्ड</t>
+  </si>
+  <si>
+    <t>माल्टा</t>
+  </si>
+  <si>
+    <t>क्यानडा</t>
+  </si>
+  <si>
+    <t>बेल्जियम</t>
+  </si>
+  <si>
+    <t>स्विजरल्याण्ड</t>
+  </si>
+  <si>
+    <t>साईप्रस</t>
+  </si>
+  <si>
+    <t>nepali name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">बहराईन </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   चीन </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> जापान</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  कुवेत </t>
+  </si>
+  <si>
+    <t xml:space="preserve">साउदि अरेबिया </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> अरब</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  बेलायत </t>
+  </si>
+  <si>
+    <t>निदरल्याण्दस</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख १४</t>
+  </si>
+  <si>
+    <t>S.N</t>
+  </si>
+  <si>
+    <t>मलेसिया</t>
   </si>
 </sst>
 </file>
@@ -1711,13 +1798,13 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2039,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2051,16 +2138,16 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="3" customWidth="1"/>
-    <col min="11" max="15" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="3" customWidth="1"/>
+    <col min="12" max="16" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2074,26 +2161,29 @@
         <v>6</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
-      <c r="P1" s="4"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2107,25 +2197,26 @@
         <v>7</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2"/>
-    </row>
-    <row r="3" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2"/>
+    </row>
+    <row r="3" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -2139,25 +2230,26 @@
         <v>13</v>
       </c>
       <c r="E3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2171,25 +2263,26 @@
         <v>7</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4"/>
-    </row>
-    <row r="5" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -2203,25 +2296,26 @@
         <v>7</v>
       </c>
       <c r="E5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2235,25 +2329,26 @@
         <v>13</v>
       </c>
       <c r="E6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -2267,25 +2362,26 @@
         <v>13</v>
       </c>
       <c r="E7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -2299,25 +2395,26 @@
         <v>13</v>
       </c>
       <c r="E8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8"/>
-    </row>
-    <row r="9" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -2331,25 +2428,26 @@
         <v>7</v>
       </c>
       <c r="E9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -2363,25 +2461,26 @@
         <v>7</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10"/>
-    </row>
-    <row r="11" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -2395,25 +2494,26 @@
         <v>7</v>
       </c>
       <c r="E11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -2427,25 +2527,26 @@
         <v>7</v>
       </c>
       <c r="E12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12"/>
-    </row>
-    <row r="13" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -2459,25 +2560,26 @@
         <v>7</v>
       </c>
       <c r="E13" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -2491,25 +2593,26 @@
         <v>13</v>
       </c>
       <c r="E14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14"/>
-    </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -2522,24 +2625,25 @@
       <c r="D15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="19"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -2553,25 +2657,26 @@
         <v>13</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -2585,25 +2690,26 @@
         <v>7</v>
       </c>
       <c r="E17" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -2617,25 +2723,26 @@
         <v>7</v>
       </c>
       <c r="E18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -2649,25 +2756,26 @@
         <v>7</v>
       </c>
       <c r="E19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -2681,25 +2789,26 @@
         <v>7</v>
       </c>
       <c r="E20" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="22"/>
+      <c r="H20" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -2713,25 +2822,26 @@
         <v>7</v>
       </c>
       <c r="E21" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -2745,25 +2855,26 @@
         <v>7</v>
       </c>
       <c r="E22" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -2777,25 +2888,26 @@
         <v>7</v>
       </c>
       <c r="E23" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="20"/>
+      <c r="H23" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -2809,25 +2921,26 @@
         <v>7</v>
       </c>
       <c r="E24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="22"/>
+      <c r="H24" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -2841,25 +2954,26 @@
         <v>7</v>
       </c>
       <c r="E25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="20"/>
+      <c r="H25" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -2873,25 +2987,26 @@
         <v>7</v>
       </c>
       <c r="E26" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="22"/>
+      <c r="H26" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -2905,25 +3020,26 @@
         <v>7</v>
       </c>
       <c r="E27" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -2937,25 +3053,26 @@
         <v>7</v>
       </c>
       <c r="E28" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="22"/>
+      <c r="H28" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="6"/>
-    </row>
-    <row r="29" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -2969,25 +3086,26 @@
         <v>7</v>
       </c>
       <c r="E29" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="50" t="s">
+      <c r="G29" s="20"/>
+      <c r="H29" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="9"/>
+    </row>
+    <row r="30" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -3001,25 +3119,28 @@
         <v>13</v>
       </c>
       <c r="E30" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H30" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="6"/>
-    </row>
-    <row r="31" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -3033,25 +3154,28 @@
         <v>7</v>
       </c>
       <c r="E31" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H31" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -3065,25 +3189,26 @@
         <v>7</v>
       </c>
       <c r="E32" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="22"/>
+      <c r="H32" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="7"/>
-    </row>
-    <row r="33" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -3097,15 +3222,16 @@
         <v>7</v>
       </c>
       <c r="E33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="23"/>
-      <c r="R33" s="12"/>
-    </row>
-    <row r="34" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="20"/>
+      <c r="O33" s="23"/>
+      <c r="S33" s="12"/>
+    </row>
+    <row r="34" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>33</v>
       </c>
@@ -3119,13 +3245,14 @@
         <v>7</v>
       </c>
       <c r="E34" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -3139,13 +3266,14 @@
         <v>7</v>
       </c>
       <c r="E35" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>35</v>
       </c>
@@ -3159,13 +3287,14 @@
         <v>7</v>
       </c>
       <c r="E36" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -3179,13 +3308,14 @@
         <v>7</v>
       </c>
       <c r="E37" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>37</v>
       </c>
@@ -3199,13 +3329,14 @@
         <v>7</v>
       </c>
       <c r="E38" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -3219,13 +3350,14 @@
         <v>7</v>
       </c>
       <c r="E39" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>39</v>
       </c>
@@ -3239,13 +3371,14 @@
         <v>7</v>
       </c>
       <c r="E40" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -3259,13 +3392,14 @@
         <v>7</v>
       </c>
       <c r="E41" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>41</v>
       </c>
@@ -3277,13 +3411,14 @@
         <v>13</v>
       </c>
       <c r="E42" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="35">
         <v>42</v>
       </c>
@@ -3297,13 +3432,14 @@
         <v>13</v>
       </c>
       <c r="E43" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
         <v>43</v>
       </c>
@@ -3317,13 +3453,14 @@
         <v>7</v>
       </c>
       <c r="E44" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="F44" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A45" s="39">
         <v>44</v>
       </c>
@@ -3337,13 +3474,14 @@
         <v>7</v>
       </c>
       <c r="E45" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A46" s="39">
         <v>45</v>
       </c>
@@ -3357,13 +3495,14 @@
         <v>7</v>
       </c>
       <c r="E46" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="F46" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A47" s="44">
         <v>46</v>
       </c>
@@ -3377,13 +3516,14 @@
         <v>13</v>
       </c>
       <c r="E47" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="F47" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A48" s="44">
         <v>47</v>
       </c>
@@ -3397,13 +3537,14 @@
         <v>7</v>
       </c>
       <c r="E48" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="F48" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="26" x14ac:dyDescent="0.2">
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A49" s="44">
         <v>48</v>
       </c>
@@ -3414,13 +3555,14 @@
         <v>7</v>
       </c>
       <c r="E49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="F49" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A50" s="44">
         <v>49</v>
       </c>
@@ -3434,92 +3576,125 @@
         <v>7</v>
       </c>
       <c r="E50" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="44">
+        <v>50</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C51" s="45">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="44">
+        <v>51</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C52" s="45">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:P34">
+  <sortState ref="A2:Q34">
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="G7:O7"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="G9:O9"/>
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="G11:O11"/>
-    <mergeCell ref="G12:O12"/>
-    <mergeCell ref="G13:O13"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="G15:O15"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="G18:O18"/>
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="G21:O21"/>
-    <mergeCell ref="G22:O22"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="G29:O29"/>
-    <mergeCell ref="G30:O30"/>
-    <mergeCell ref="G31:O31"/>
-    <mergeCell ref="G32:O32"/>
-    <mergeCell ref="G24:O24"/>
-    <mergeCell ref="G25:O25"/>
-    <mergeCell ref="G26:O26"/>
-    <mergeCell ref="G27:O27"/>
-    <mergeCell ref="G28:O28"/>
+    <mergeCell ref="H32:P32"/>
+    <mergeCell ref="H24:P24"/>
+    <mergeCell ref="H25:P25"/>
+    <mergeCell ref="H26:P26"/>
+    <mergeCell ref="H27:P27"/>
+    <mergeCell ref="H28:P28"/>
+    <mergeCell ref="H22:P22"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="H29:P29"/>
+    <mergeCell ref="H30:P30"/>
+    <mergeCell ref="H31:P31"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="H18:P18"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="H20:P20"/>
+    <mergeCell ref="H21:P21"/>
+    <mergeCell ref="H12:P12"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="H16:P16"/>
+    <mergeCell ref="H7:P7"/>
+    <mergeCell ref="H8:P8"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="H10:P10"/>
+    <mergeCell ref="H11:P11"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="H4:P4"/>
+    <mergeCell ref="H5:P5"/>
+    <mergeCell ref="H6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3530,7 +3705,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3564,15 +3739,15 @@
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
-        <v>9408</v>
+        <v>9668</v>
       </c>
       <c r="B2" s="28">
         <f>COUNT(detail!A2:'detail'!A323)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="29">
-        <f>COUNTIF(detail!F2:'detail'!F257, "निको")</f>
-        <v>10</v>
+        <f>COUNTIF(detail!E2:'detail'!E257, "निको")</f>
+        <v>12</v>
       </c>
       <c r="D2" s="30">
         <v>0</v>
@@ -3604,7 +3779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F40CF7-9584-3D43-9273-49D4405146AF}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -4092,7 +4267,7 @@
       </c>
       <c r="B54">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A54,map_update!$B$4:$B$78,0)),"")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -4302,7 +4477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7092C9DD-A343-5C4D-8235-021966E86C81}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -5160,7 +5335,7 @@
       </c>
       <c r="C56" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A56) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A56))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -5441,8 +5616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C54A67-FFF9-F147-A547-2706EC5F8302}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5464,7 +5639,7 @@
         <v>135</v>
       </c>
       <c r="B2" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A2, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A2, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5473,7 +5648,7 @@
         <v>136</v>
       </c>
       <c r="B3" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A3, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A3, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5482,7 +5657,7 @@
         <v>137</v>
       </c>
       <c r="B4" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A4, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A4, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5491,7 +5666,7 @@
         <v>138</v>
       </c>
       <c r="B5" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A5, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A5, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5500,7 +5675,7 @@
         <v>139</v>
       </c>
       <c r="B6" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A6, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A6, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5509,7 +5684,7 @@
         <v>140</v>
       </c>
       <c r="B7" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A7, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A7, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5518,7 +5693,7 @@
         <v>141</v>
       </c>
       <c r="B8" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A8, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A8, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5527,8 +5702,8 @@
         <v>142</v>
       </c>
       <c r="B9">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A9, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v>10</v>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A9, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5536,7 +5711,7 @@
         <v>143</v>
       </c>
       <c r="B10" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A10, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A10, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5545,7 +5720,7 @@
         <v>144</v>
       </c>
       <c r="B11" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A11, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A11, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5554,7 +5729,7 @@
         <v>145</v>
       </c>
       <c r="B12" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A12, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A12, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5563,7 +5738,7 @@
         <v>146</v>
       </c>
       <c r="B13" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A13, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A13, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5572,8 +5747,8 @@
         <v>147</v>
       </c>
       <c r="B14">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A14, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v>9</v>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A14, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -5581,7 +5756,7 @@
         <v>148</v>
       </c>
       <c r="B15" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A15, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A15, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5590,7 +5765,7 @@
         <v>149</v>
       </c>
       <c r="B16" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A16, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A16, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5599,7 +5774,7 @@
         <v>150</v>
       </c>
       <c r="B17" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A17, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A17, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5608,7 +5783,7 @@
         <v>151</v>
       </c>
       <c r="B18" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A18, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A18, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5617,7 +5792,7 @@
         <v>152</v>
       </c>
       <c r="B19" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A19, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A19, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5626,7 +5801,7 @@
         <v>153</v>
       </c>
       <c r="B20" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A20, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A20, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5634,9 +5809,9 @@
       <c r="A21" t="s">
         <v>154</v>
       </c>
-      <c r="B21" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A21, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v/>
+      <c r="B21">
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A21, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -5644,7 +5819,7 @@
         <v>155</v>
       </c>
       <c r="B22" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A22, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A22, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5653,7 +5828,7 @@
         <v>156</v>
       </c>
       <c r="B23" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A23, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A23, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5662,7 +5837,7 @@
         <v>157</v>
       </c>
       <c r="B24" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A24, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A24, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5671,7 +5846,7 @@
         <v>158</v>
       </c>
       <c r="B25" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A25, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A25, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5680,8 +5855,8 @@
         <v>159</v>
       </c>
       <c r="B26">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A26, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v>3</v>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A26, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -5689,7 +5864,7 @@
         <v>160</v>
       </c>
       <c r="B27" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A27, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A27, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5698,7 +5873,7 @@
         <v>161</v>
       </c>
       <c r="B28" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A28, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A28, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5707,7 +5882,7 @@
         <v>162</v>
       </c>
       <c r="B29" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A29, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A29, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5716,7 +5891,7 @@
         <v>163</v>
       </c>
       <c r="B30" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A30, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A30, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5725,7 +5900,7 @@
         <v>164</v>
       </c>
       <c r="B31" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A31, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A31, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5734,7 +5909,7 @@
         <v>165</v>
       </c>
       <c r="B32" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A32, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A32, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5743,7 +5918,7 @@
         <v>166</v>
       </c>
       <c r="B33" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A33, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A33, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5752,7 +5927,7 @@
         <v>167</v>
       </c>
       <c r="B34" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A34, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A34, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5761,7 +5936,7 @@
         <v>168</v>
       </c>
       <c r="B35" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A35, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A35, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5770,7 +5945,7 @@
         <v>169</v>
       </c>
       <c r="B36" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A36, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A36, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5779,7 +5954,7 @@
         <v>170</v>
       </c>
       <c r="B37" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A37, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A37, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5788,7 +5963,7 @@
         <v>171</v>
       </c>
       <c r="B38" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A38, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A38, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5797,7 +5972,7 @@
         <v>172</v>
       </c>
       <c r="B39" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A39, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A39, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5805,18 +5980,18 @@
       <c r="A40" t="s">
         <v>173</v>
       </c>
-      <c r="B40" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A40, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v/>
+      <c r="B40">
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A40, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>174</v>
       </c>
-      <c r="B41" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A41, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v/>
+      <c r="B41">
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A41, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -5824,7 +5999,7 @@
         <v>175</v>
       </c>
       <c r="B42" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A42, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A42, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5833,8 +6008,8 @@
         <v>176</v>
       </c>
       <c r="B43">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A43, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v>1</v>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A43, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -5842,7 +6017,7 @@
         <v>177</v>
       </c>
       <c r="B44" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A44, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A44, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5851,7 +6026,7 @@
         <v>178</v>
       </c>
       <c r="B45" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A45, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A45, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5860,7 +6035,7 @@
         <v>179</v>
       </c>
       <c r="B46" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A46, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A46, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5869,7 +6044,7 @@
         <v>180</v>
       </c>
       <c r="B47" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A47, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A47, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5878,7 +6053,7 @@
         <v>181</v>
       </c>
       <c r="B48" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A48, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A48, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5887,7 +6062,7 @@
         <v>182</v>
       </c>
       <c r="B49" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A49, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A49, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5896,7 +6071,7 @@
         <v>183</v>
       </c>
       <c r="B50" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A50, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A50, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5905,7 +6080,7 @@
         <v>184</v>
       </c>
       <c r="B51" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A51, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A51, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5914,7 +6089,7 @@
         <v>185</v>
       </c>
       <c r="B52" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A52, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A52, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5923,7 +6098,7 @@
         <v>186</v>
       </c>
       <c r="B53" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A53, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A53, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5932,7 +6107,7 @@
         <v>187</v>
       </c>
       <c r="B54" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A54, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A54, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5941,7 +6116,7 @@
         <v>188</v>
       </c>
       <c r="B55" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A55, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A55, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5949,9 +6124,9 @@
       <c r="A56" t="s">
         <v>189</v>
       </c>
-      <c r="B56" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A56, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v/>
+      <c r="B56">
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A56, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -5959,7 +6134,7 @@
         <v>190</v>
       </c>
       <c r="B57" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A57, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A57, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5968,7 +6143,7 @@
         <v>191</v>
       </c>
       <c r="B58">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A58, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A58, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v>4</v>
       </c>
     </row>
@@ -5977,7 +6152,7 @@
         <v>192</v>
       </c>
       <c r="B59" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A59, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A59, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5986,7 +6161,7 @@
         <v>193</v>
       </c>
       <c r="B60" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A60, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A60, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5995,7 +6170,7 @@
         <v>194</v>
       </c>
       <c r="B61" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A61, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A61, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6004,7 +6179,7 @@
         <v>195</v>
       </c>
       <c r="B62" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A62, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A62, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6013,7 +6188,7 @@
         <v>196</v>
       </c>
       <c r="B63" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A63, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A63, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6022,7 +6197,7 @@
         <v>197</v>
       </c>
       <c r="B64" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A64, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A64, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6031,7 +6206,7 @@
         <v>198</v>
       </c>
       <c r="B65" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A65, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A65, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6040,7 +6215,7 @@
         <v>199</v>
       </c>
       <c r="B66" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A66, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A66, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6049,7 +6224,7 @@
         <v>200</v>
       </c>
       <c r="B67" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A67, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A67, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6058,7 +6233,7 @@
         <v>201</v>
       </c>
       <c r="B68">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A68, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A68, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v>18</v>
       </c>
     </row>
@@ -6067,7 +6242,7 @@
         <v>202</v>
       </c>
       <c r="B69" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A69, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A69, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6076,7 +6251,7 @@
         <v>203</v>
       </c>
       <c r="B70" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A70, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A70, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6085,7 +6260,7 @@
         <v>204</v>
       </c>
       <c r="B71" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A71, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A71, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6094,7 +6269,7 @@
         <v>205</v>
       </c>
       <c r="B72" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A72, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A72, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6103,7 +6278,7 @@
         <v>206</v>
       </c>
       <c r="B73" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A73, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A73, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6112,7 +6287,7 @@
         <v>207</v>
       </c>
       <c r="B74" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A74, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A74, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6121,7 +6296,7 @@
         <v>208</v>
       </c>
       <c r="B75" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A75, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A75, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6130,7 +6305,7 @@
         <v>209</v>
       </c>
       <c r="B76" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A76, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A76, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6139,7 +6314,7 @@
         <v>210</v>
       </c>
       <c r="B77" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A77, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A77, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6147,9 +6322,9 @@
       <c r="A78" t="s">
         <v>211</v>
       </c>
-      <c r="B78" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A78, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v/>
+      <c r="B78">
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A78, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -6157,7 +6332,7 @@
         <v>212</v>
       </c>
       <c r="B79" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A79, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A79, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6166,7 +6341,7 @@
         <v>213</v>
       </c>
       <c r="B80" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A80, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A80, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6175,7 +6350,7 @@
         <v>214</v>
       </c>
       <c r="B81" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A81, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A81, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6184,8 +6359,8 @@
         <v>215</v>
       </c>
       <c r="B82">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A82, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v>100</v>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A82, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>700</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -6193,7 +6368,7 @@
         <v>216</v>
       </c>
       <c r="B83" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A83, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A83, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6202,7 +6377,7 @@
         <v>217</v>
       </c>
       <c r="B84" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A84, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A84, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6211,7 +6386,7 @@
         <v>218</v>
       </c>
       <c r="B85" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A85, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A85, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6220,7 +6395,7 @@
         <v>219</v>
       </c>
       <c r="B86" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A86, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A86, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6229,7 +6404,7 @@
         <v>220</v>
       </c>
       <c r="B87" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A87, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A87, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6238,7 +6413,7 @@
         <v>221</v>
       </c>
       <c r="B88" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A88, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A88, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6247,7 +6422,7 @@
         <v>222</v>
       </c>
       <c r="B89" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A89, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A89, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6256,7 +6431,7 @@
         <v>223</v>
       </c>
       <c r="B90" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A90, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A90, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6265,7 +6440,7 @@
         <v>224</v>
       </c>
       <c r="B91" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A91, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A91, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6274,7 +6449,7 @@
         <v>225</v>
       </c>
       <c r="B92" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A92, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A92, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6283,7 +6458,7 @@
         <v>226</v>
       </c>
       <c r="B93" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A93, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A93, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6292,7 +6467,7 @@
         <v>227</v>
       </c>
       <c r="B94" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A94, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A94, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6301,7 +6476,7 @@
         <v>228</v>
       </c>
       <c r="B95" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A95, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A95, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6310,7 +6485,7 @@
         <v>229</v>
       </c>
       <c r="B96" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A96, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A96, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6319,7 +6494,7 @@
         <v>230</v>
       </c>
       <c r="B97" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A97, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A97, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6328,7 +6503,7 @@
         <v>231</v>
       </c>
       <c r="B98" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A98, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A98, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6337,7 +6512,7 @@
         <v>232</v>
       </c>
       <c r="B99" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A99, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A99, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6346,7 +6521,7 @@
         <v>233</v>
       </c>
       <c r="B100" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A100, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A100, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6355,7 +6530,7 @@
         <v>234</v>
       </c>
       <c r="B101" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A101, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A101, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6364,7 +6539,7 @@
         <v>235</v>
       </c>
       <c r="B102" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A102, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A102, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6373,7 +6548,7 @@
         <v>236</v>
       </c>
       <c r="B103" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A103, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A103, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6382,7 +6557,7 @@
         <v>237</v>
       </c>
       <c r="B104" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A104, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A104, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6391,7 +6566,7 @@
         <v>238</v>
       </c>
       <c r="B105" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A105, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A105, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6400,7 +6575,7 @@
         <v>239</v>
       </c>
       <c r="B106" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A106, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A106, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6408,9 +6583,9 @@
       <c r="A107" t="s">
         <v>240</v>
       </c>
-      <c r="B107" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A107, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v/>
+      <c r="B107">
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A107, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -6418,7 +6593,7 @@
         <v>241</v>
       </c>
       <c r="B108" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A108, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A108, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6427,7 +6602,7 @@
         <v>242</v>
       </c>
       <c r="B109" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A109, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A109, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6436,7 +6611,7 @@
         <v>243</v>
       </c>
       <c r="B110" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A110, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A110, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6445,7 +6620,7 @@
         <v>244</v>
       </c>
       <c r="B111" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A111, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A111, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6454,7 +6629,7 @@
         <v>245</v>
       </c>
       <c r="B112" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A112, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A112, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6463,7 +6638,7 @@
         <v>246</v>
       </c>
       <c r="B113" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A113, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A113, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6472,7 +6647,7 @@
         <v>247</v>
       </c>
       <c r="B114" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A114, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A114, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6481,7 +6656,7 @@
         <v>248</v>
       </c>
       <c r="B115" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A115, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A115, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6490,7 +6665,7 @@
         <v>249</v>
       </c>
       <c r="B116" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A116, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A116, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6499,7 +6674,7 @@
         <v>250</v>
       </c>
       <c r="B117">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A117, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A117, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v>3</v>
       </c>
     </row>
@@ -6508,7 +6683,7 @@
         <v>251</v>
       </c>
       <c r="B118" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A118, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A118, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6517,7 +6692,7 @@
         <v>252</v>
       </c>
       <c r="B119" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A119, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A119, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6526,7 +6701,7 @@
         <v>253</v>
       </c>
       <c r="B120" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A120, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A120, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6535,7 +6710,7 @@
         <v>254</v>
       </c>
       <c r="B121" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A121, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A121, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6544,7 +6719,7 @@
         <v>255</v>
       </c>
       <c r="B122" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A122, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A122, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6553,7 +6728,7 @@
         <v>256</v>
       </c>
       <c r="B123" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A123, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A123, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6562,7 +6737,7 @@
         <v>257</v>
       </c>
       <c r="B124" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A124, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A124, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6571,7 +6746,7 @@
         <v>258</v>
       </c>
       <c r="B125" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A125, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A125, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6580,7 +6755,7 @@
         <v>259</v>
       </c>
       <c r="B126" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A126, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A126, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6589,7 +6764,7 @@
         <v>260</v>
       </c>
       <c r="B127" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A127, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A127, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6598,8 +6773,8 @@
         <v>261</v>
       </c>
       <c r="B128">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A128, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v>5</v>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A128, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -6607,7 +6782,7 @@
         <v>262</v>
       </c>
       <c r="B129" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A129, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A129, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6616,7 +6791,7 @@
         <v>263</v>
       </c>
       <c r="B130" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A130, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A130, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6625,7 +6800,7 @@
         <v>264</v>
       </c>
       <c r="B131" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A131, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A131, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6634,7 +6809,7 @@
         <v>265</v>
       </c>
       <c r="B132" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A132, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A132, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6643,7 +6818,7 @@
         <v>266</v>
       </c>
       <c r="B133" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A133, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A133, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6652,7 +6827,7 @@
         <v>267</v>
       </c>
       <c r="B134" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A134, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A134, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6661,7 +6836,7 @@
         <v>268</v>
       </c>
       <c r="B135" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A135, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A135, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6670,7 +6845,7 @@
         <v>269</v>
       </c>
       <c r="B136" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A136, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A136, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6679,7 +6854,7 @@
         <v>270</v>
       </c>
       <c r="B137" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A137, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A137, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6688,7 +6863,7 @@
         <v>271</v>
       </c>
       <c r="B138" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A138, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A138, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6697,7 +6872,7 @@
         <v>272</v>
       </c>
       <c r="B139" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A139, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A139, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6706,7 +6881,7 @@
         <v>273</v>
       </c>
       <c r="B140" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A140, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A140, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6715,7 +6890,7 @@
         <v>274</v>
       </c>
       <c r="B141" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A141, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A141, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6724,7 +6899,7 @@
         <v>275</v>
       </c>
       <c r="B142" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A142, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A142, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6733,7 +6908,7 @@
         <v>276</v>
       </c>
       <c r="B143" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A143, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A143, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6742,7 +6917,7 @@
         <v>277</v>
       </c>
       <c r="B144" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A144, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A144, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6751,7 +6926,7 @@
         <v>278</v>
       </c>
       <c r="B145" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A145, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A145, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6760,7 +6935,7 @@
         <v>279</v>
       </c>
       <c r="B146" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A146, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A146, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6769,7 +6944,7 @@
         <v>280</v>
       </c>
       <c r="B147" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A147, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A147, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6778,7 +6953,7 @@
         <v>281</v>
       </c>
       <c r="B148" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A148, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A148, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6787,7 +6962,7 @@
         <v>282</v>
       </c>
       <c r="B149" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A149, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A149, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6795,9 +6970,9 @@
       <c r="A150" t="s">
         <v>283</v>
       </c>
-      <c r="B150" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A150, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v/>
+      <c r="B150">
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A150, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -6805,7 +6980,7 @@
         <v>284</v>
       </c>
       <c r="B151">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A151, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A151, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v>1</v>
       </c>
     </row>
@@ -6814,7 +6989,7 @@
         <v>285</v>
       </c>
       <c r="B152" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A152, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A152, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6823,7 +6998,7 @@
         <v>286</v>
       </c>
       <c r="B153" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A153, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A153, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6832,7 +7007,7 @@
         <v>287</v>
       </c>
       <c r="B154" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A154, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A154, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6841,7 +7016,7 @@
         <v>288</v>
       </c>
       <c r="B155" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A155, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A155, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6850,7 +7025,7 @@
         <v>289</v>
       </c>
       <c r="B156" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A156, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A156, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6859,7 +7034,7 @@
         <v>290</v>
       </c>
       <c r="B157" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A157, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A157, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6868,7 +7043,7 @@
         <v>291</v>
       </c>
       <c r="B158" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A158, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A158, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6877,7 +7052,7 @@
         <v>292</v>
       </c>
       <c r="B159" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A159, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A159, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6886,8 +7061,8 @@
         <v>293</v>
       </c>
       <c r="B160">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A160, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v>1</v>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A160, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -6895,7 +7070,7 @@
         <v>294</v>
       </c>
       <c r="B161" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A161, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A161, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6904,7 +7079,7 @@
         <v>295</v>
       </c>
       <c r="B162" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A162, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A162, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6913,7 +7088,7 @@
         <v>296</v>
       </c>
       <c r="B163" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A163, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A163, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6922,7 +7097,7 @@
         <v>297</v>
       </c>
       <c r="B164" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A164, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A164, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6931,7 +7106,7 @@
         <v>298</v>
       </c>
       <c r="B165" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A165, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A165, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6940,7 +7115,7 @@
         <v>299</v>
       </c>
       <c r="B166" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A166, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A166, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6949,7 +7124,7 @@
         <v>300</v>
       </c>
       <c r="B167" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A167, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A167, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6958,7 +7133,7 @@
         <v>301</v>
       </c>
       <c r="B168" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A168, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A168, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6967,7 +7142,7 @@
         <v>302</v>
       </c>
       <c r="B169" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A169, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A169, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6976,7 +7151,7 @@
         <v>303</v>
       </c>
       <c r="B170" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A170, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A170, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6984,9 +7159,9 @@
       <c r="A171" t="s">
         <v>304</v>
       </c>
-      <c r="B171" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A171, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v/>
+      <c r="B171">
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A171, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -6994,7 +7169,7 @@
         <v>305</v>
       </c>
       <c r="B172" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A172, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A172, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7003,7 +7178,7 @@
         <v>306</v>
       </c>
       <c r="B173" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A173, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A173, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7012,7 +7187,7 @@
         <v>307</v>
       </c>
       <c r="B174" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A174, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A174, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7020,9 +7195,9 @@
       <c r="A175" t="s">
         <v>308</v>
       </c>
-      <c r="B175" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A175, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v/>
+      <c r="B175">
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A175, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -7030,7 +7205,7 @@
         <v>309</v>
       </c>
       <c r="B176" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A176, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A176, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7039,7 +7214,7 @@
         <v>310</v>
       </c>
       <c r="B177" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A177, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A177, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7048,7 +7223,7 @@
         <v>311</v>
       </c>
       <c r="B178" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A178, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A178, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7057,7 +7232,7 @@
         <v>312</v>
       </c>
       <c r="B179" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A179, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A179, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7066,7 +7241,7 @@
         <v>313</v>
       </c>
       <c r="B180" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A180, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A180, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7075,7 +7250,7 @@
         <v>314</v>
       </c>
       <c r="B181" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A181, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A181, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7084,7 +7259,7 @@
         <v>315</v>
       </c>
       <c r="B182" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A182, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A182, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7093,7 +7268,7 @@
         <v>316</v>
       </c>
       <c r="B183" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A183, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A183, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7102,7 +7277,7 @@
         <v>317</v>
       </c>
       <c r="B184" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A184, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A184, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7111,7 +7286,7 @@
         <v>318</v>
       </c>
       <c r="B185" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A185, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A185, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7120,7 +7295,7 @@
         <v>319</v>
       </c>
       <c r="B186" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A186, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A186, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7129,7 +7304,7 @@
         <v>320</v>
       </c>
       <c r="B187" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A187, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A187, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7138,7 +7313,7 @@
         <v>321</v>
       </c>
       <c r="B188" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A188, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A188, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7147,8 +7322,8 @@
         <v>322</v>
       </c>
       <c r="B189">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A189, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v>8</v>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A189, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -7156,7 +7331,7 @@
         <v>323</v>
       </c>
       <c r="B190" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A190, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A190, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7165,7 +7340,7 @@
         <v>324</v>
       </c>
       <c r="B191" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A191, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A191, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7174,7 +7349,7 @@
         <v>325</v>
       </c>
       <c r="B192" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A192, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A192, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7183,7 +7358,7 @@
         <v>326</v>
       </c>
       <c r="B193" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A193, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A193, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7192,7 +7367,7 @@
         <v>327</v>
       </c>
       <c r="B194" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A194, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A194, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7201,7 +7376,7 @@
         <v>328</v>
       </c>
       <c r="B195" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A195, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A195, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7210,7 +7385,7 @@
         <v>329</v>
       </c>
       <c r="B196" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A196, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A196, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7219,7 +7394,7 @@
         <v>330</v>
       </c>
       <c r="B197" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A197, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A197, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7228,7 +7403,7 @@
         <v>331</v>
       </c>
       <c r="B198">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A198, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A198, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v>4</v>
       </c>
     </row>
@@ -7237,7 +7412,7 @@
         <v>332</v>
       </c>
       <c r="B199" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A199, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A199, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7246,7 +7421,7 @@
         <v>333</v>
       </c>
       <c r="B200" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A200, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A200, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7255,7 +7430,7 @@
         <v>334</v>
       </c>
       <c r="B201" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A201, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A201, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7264,7 +7439,7 @@
         <v>335</v>
       </c>
       <c r="B202" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A202, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A202, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7273,7 +7448,7 @@
         <v>336</v>
       </c>
       <c r="B203" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A203, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A203, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7282,7 +7457,7 @@
         <v>337</v>
       </c>
       <c r="B204" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A204, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A204, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7291,7 +7466,7 @@
         <v>338</v>
       </c>
       <c r="B205" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A205, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A205, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7300,7 +7475,7 @@
         <v>339</v>
       </c>
       <c r="B206" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A206, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A206, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7309,7 +7484,7 @@
         <v>340</v>
       </c>
       <c r="B207" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A207, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A207, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7318,7 +7493,7 @@
         <v>341</v>
       </c>
       <c r="B208" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A208, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A208, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7327,7 +7502,7 @@
         <v>342</v>
       </c>
       <c r="B209" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A209, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A209, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7336,7 +7511,7 @@
         <v>343</v>
       </c>
       <c r="B210" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A210, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A210, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7345,7 +7520,7 @@
         <v>344</v>
       </c>
       <c r="B211" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A211, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A211, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7354,7 +7529,7 @@
         <v>345</v>
       </c>
       <c r="B212" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A212, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A212, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7363,7 +7538,7 @@
         <v>346</v>
       </c>
       <c r="B213" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A213, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A213, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7372,7 +7547,7 @@
         <v>347</v>
       </c>
       <c r="B214" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A214, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A214, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7381,7 +7556,7 @@
         <v>348</v>
       </c>
       <c r="B215" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A215, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A215, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7390,7 +7565,7 @@
         <v>349</v>
       </c>
       <c r="B216" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A216, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A216, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7399,7 +7574,7 @@
         <v>350</v>
       </c>
       <c r="B217" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A217, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A217, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7408,7 +7583,7 @@
         <v>351</v>
       </c>
       <c r="B218" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A218, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A218, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7417,7 +7592,7 @@
         <v>352</v>
       </c>
       <c r="B219" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A219, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A219, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7426,7 +7601,7 @@
         <v>353</v>
       </c>
       <c r="B220" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A220, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A220, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7435,7 +7610,7 @@
         <v>354</v>
       </c>
       <c r="B221" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A221, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A221, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7444,7 +7619,7 @@
         <v>355</v>
       </c>
       <c r="B222" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A222, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A222, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7453,7 +7628,7 @@
         <v>356</v>
       </c>
       <c r="B223" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A223, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A223, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7462,7 +7637,7 @@
         <v>357</v>
       </c>
       <c r="B224" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A224, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A224, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7471,7 +7646,7 @@
         <v>358</v>
       </c>
       <c r="B225" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A225, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A225, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7480,7 +7655,7 @@
         <v>359</v>
       </c>
       <c r="B226" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A226, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A226, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7489,7 +7664,7 @@
         <v>360</v>
       </c>
       <c r="B227" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A227, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A227, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7498,7 +7673,7 @@
         <v>361</v>
       </c>
       <c r="B228" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A228, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A228, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7507,7 +7682,7 @@
         <v>362</v>
       </c>
       <c r="B229" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A229, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A229, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7516,7 +7691,7 @@
         <v>363</v>
       </c>
       <c r="B230" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A230, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A230, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7525,7 +7700,7 @@
         <v>364</v>
       </c>
       <c r="B231" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A231, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A231, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7534,7 +7709,7 @@
         <v>365</v>
       </c>
       <c r="B232" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A232, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A232, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7542,9 +7717,9 @@
       <c r="A233" t="s">
         <v>366</v>
       </c>
-      <c r="B233" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A233, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v/>
+      <c r="B233">
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A233, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -7552,7 +7727,7 @@
         <v>367</v>
       </c>
       <c r="B234" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A234, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A234, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7561,7 +7736,7 @@
         <v>368</v>
       </c>
       <c r="B235" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A235, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A235, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7570,7 +7745,7 @@
         <v>369</v>
       </c>
       <c r="B236" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A236, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A236, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7579,7 +7754,7 @@
         <v>370</v>
       </c>
       <c r="B237" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A237, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A237, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7588,7 +7763,7 @@
         <v>371</v>
       </c>
       <c r="B238" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A238, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A238, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7597,8 +7772,8 @@
         <v>372</v>
       </c>
       <c r="B239">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A239, nepali_world_update!$A$2:$A$15,0)),"")</f>
-        <v>500</v>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A239, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -7606,7 +7781,7 @@
         <v>373</v>
       </c>
       <c r="B240" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A240, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A240, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7615,7 +7790,7 @@
         <v>374</v>
       </c>
       <c r="B241" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A241, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A241, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7624,7 +7799,7 @@
         <v>375</v>
       </c>
       <c r="B242" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A242, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A242, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7633,7 +7808,7 @@
         <v>376</v>
       </c>
       <c r="B243" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A243, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A243, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7642,7 +7817,7 @@
         <v>377</v>
       </c>
       <c r="B244" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A244, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A244, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7651,7 +7826,7 @@
         <v>378</v>
       </c>
       <c r="B245" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A245, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A245, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7660,7 +7835,7 @@
         <v>379</v>
       </c>
       <c r="B246" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A246, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A246, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7669,7 +7844,7 @@
         <v>380</v>
       </c>
       <c r="B247" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A247, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A247, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7678,7 +7853,7 @@
         <v>381</v>
       </c>
       <c r="B248" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A248, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A248, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7687,7 +7862,7 @@
         <v>382</v>
       </c>
       <c r="B249" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A249, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A249, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7696,7 +7871,7 @@
         <v>383</v>
       </c>
       <c r="B250" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A250, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A250, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7705,7 +7880,7 @@
         <v>384</v>
       </c>
       <c r="B251" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A251, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A251, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7714,7 +7889,7 @@
         <v>385</v>
       </c>
       <c r="B252" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A252, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A252, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7723,7 +7898,7 @@
         <v>386</v>
       </c>
       <c r="B253" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$15, MATCH(A253, nepali_world_update!$A$2:$A$15,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A253, nepali_world_update!$A$2:$A$55,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7734,18 +7909,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE6DB38-87E3-DC48-9FFA-21F97C9B98B3}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>387</v>
       </c>
@@ -7758,58 +7934,83 @@
       <c r="D1" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
         <v>391</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
-        <f>INDEX(F2:F15, MATCH(B2,E2:E15))</f>
+        <f>INDEX(G2:G15, MATCH(B2,F2:F15))</f>
         <v>Australia</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>147</v>
       </c>
       <c r="C2" s="38">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="38">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>147</v>
-      </c>
+      <c r="E2" s="38"/>
       <c r="F2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="str">
-        <f>INDEX(F3:F15, MATCH(B3,E3:E15))</f>
+        <f>INDEX(G3:G15, MATCH(B3,F3:F15))</f>
         <v>Bahrain</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>159</v>
       </c>
       <c r="C3" s="38">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D3" s="38">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>159</v>
+      <c r="E3" s="38">
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" t="s">
+        <v>487</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="str">
-        <f>INDEX(F4:F15, MATCH(B4,E4:E15))</f>
+        <f>INDEX(G4:G15, MATCH(B4,F4:F15))</f>
         <v>Germany</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -7821,37 +8022,51 @@
       <c r="D4" s="38">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>191</v>
-      </c>
+      <c r="E4" s="38"/>
       <c r="F4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="str">
-        <f>INDEX(F5:F15, MATCH(B5,E5:E15))</f>
+        <f>INDEX(G5:G15, MATCH(B5,F5:F15))</f>
         <v>China</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>393</v>
       </c>
       <c r="C5" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="38">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" t="s">
         <v>393</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="str">
-        <f>INDEX(F6:F15, MATCH(B6,E6:E15))</f>
+        <f>INDEX(G6:G15, MATCH(B6,F6:F15))</f>
         <v>Japan</v>
       </c>
       <c r="B6" s="38" t="s">
@@ -7861,60 +8076,81 @@
         <v>3</v>
       </c>
       <c r="D6" s="38">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>250</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E6" s="38"/>
       <c r="F6" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" t="s">
+        <v>489</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
-        <f>INDEX(F7:F15, MATCH(B7,E7:E15))</f>
+        <f>INDEX(G7:G15, MATCH(B7,F7:F15))</f>
         <v>Kuwait</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>261</v>
       </c>
       <c r="C7" s="38">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D7" s="38">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>261</v>
-      </c>
+      <c r="E7" s="38"/>
       <c r="F7" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" t="s">
+        <v>490</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="str">
-        <f>INDEX(F8:F15, MATCH(B8,E8:E15))</f>
+        <f>INDEX(G8:G15, MATCH(B8,F8:F15))</f>
         <v>Malaysia</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>293</v>
       </c>
       <c r="C8" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="38">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>293</v>
-      </c>
+      <c r="E8" s="38"/>
       <c r="F8" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8" t="s">
+        <v>497</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="str">
-        <f>INDEX(F9:F15, MATCH(B9,E9:E15))</f>
+        <f>INDEX(G9:G15, MATCH(B9,F9:F15))</f>
         <v>Myanmar</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -7926,37 +8162,53 @@
       <c r="D9" s="38">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>284</v>
-      </c>
+      <c r="E9" s="38"/>
       <c r="F9" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9" t="s">
+        <v>473</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="str">
-        <f>INDEX(F10:F15, MATCH(B10,E10:E15))</f>
+        <f>INDEX(G10:G15, MATCH(B10,F10:F15))</f>
         <v>Portugal</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>322</v>
       </c>
       <c r="C10" s="38">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D10" s="38">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>322</v>
+      <c r="E10" s="38">
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>322</v>
+      </c>
+      <c r="H10" t="s">
+        <v>474</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="str">
-        <f>INDEX(F11:F15, MATCH(B11,E11:E15))</f>
+        <f>INDEX(G11:G15, MATCH(B11,F11:F15))</f>
         <v>Saudi Arabia</v>
       </c>
       <c r="B11" s="38" t="s">
@@ -7968,16 +8220,25 @@
       <c r="D11" s="38">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>331</v>
+      <c r="E11" s="38">
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
-        <f>INDEX(F12:F15, MATCH(B12,E12:E15))</f>
+        <f>INDEX(G12:G15, MATCH(B12,F12:F15))</f>
         <v>Spain</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -7989,74 +8250,366 @@
       <c r="D12" s="38">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>201</v>
+      <c r="E12" s="38">
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" t="s">
+        <v>475</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="str">
-        <f>INDEX(F13:F15, MATCH(B13,E13:E15))</f>
+        <f>INDEX(G13:G15, MATCH(B13,F13:F15))</f>
         <v>United Arab Emirates</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>142</v>
       </c>
       <c r="C13" s="38">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="D13" s="38">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>142</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E13" s="38"/>
       <c r="F13" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" t="s">
+        <v>492</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="str">
-        <f>INDEX(F14:F15, MATCH(B14,E14:E15))</f>
+        <f>INDEX(G14:G15, MATCH(B14,F14:F15))</f>
         <v>UK</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>394</v>
       </c>
       <c r="C14" s="38">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="D14" s="38">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="38">
+        <v>150</v>
+      </c>
+      <c r="F14" t="s">
         <v>394</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>493</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="str">
-        <f>INDEX(F15:F15, MATCH(B15,E15:E15))</f>
+        <f>INDEX(G15:G15, MATCH(B15,F15:F15))</f>
         <v>USA</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>395</v>
       </c>
       <c r="C15" s="38">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D15" s="38">
+        <v>10</v>
+      </c>
+      <c r="E15" s="38">
+        <v>250</v>
+      </c>
+      <c r="F15" t="s">
+        <v>395</v>
+      </c>
+      <c r="G15" t="s">
+        <v>372</v>
+      </c>
+      <c r="H15" t="s">
+        <v>476</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="str">
+        <f t="shared" ref="A16:A25" si="0">INDEX(G16:G16, MATCH(B16,F16:F16))</f>
+        <v>Turkey</v>
+      </c>
+      <c r="B16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="38">
+        <v>1</v>
+      </c>
+      <c r="D16" s="38">
+        <v>1</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" t="s">
+        <v>366</v>
+      </c>
+      <c r="G16" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16" t="s">
+        <v>477</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>Netherlands</v>
+      </c>
+      <c r="B17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="38">
+        <v>1</v>
+      </c>
+      <c r="D17" s="38">
+        <v>1</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" t="s">
+        <v>304</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="H17" t="s">
+        <v>494</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>Ireland</v>
+      </c>
+      <c r="B18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="38">
+        <v>22</v>
+      </c>
+      <c r="D18" s="38">
+        <v>1</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H18" t="s">
+        <v>478</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>France</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="38">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H19" t="s">
+        <v>479</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>New Zealand</v>
+      </c>
+      <c r="B20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" s="38">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>Malta</v>
+      </c>
+      <c r="B21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="38">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" t="s">
+        <v>283</v>
+      </c>
+      <c r="H21" t="s">
+        <v>481</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>Canada</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="38">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" t="s">
+        <v>482</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>Belgium</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="38">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" t="s">
+        <v>483</v>
+      </c>
+      <c r="I23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>Switzerland</v>
+      </c>
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="38">
         <v>5</v>
       </c>
-      <c r="E15" t="s">
-        <v>395</v>
-      </c>
-      <c r="F15" t="s">
-        <v>372</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" t="s">
+        <v>484</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>Cyprus</v>
+      </c>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="38">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" t="s">
+        <v>485</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E780508-EA5A-F142-B677-D89C9150249B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25674A82-37DE-F148-80EE-8DE323130E5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" activeTab="5" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" activeTab="4" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="499">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -1524,6 +1524,9 @@
   </si>
   <si>
     <t>मलेसिया</t>
+  </si>
+  <si>
+    <t>कोशी अस्पताल बिराटनगरमा भएको परीक्षण</t>
   </si>
 </sst>
 </file>
@@ -2128,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2494,12 +2497,14 @@
         <v>7</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="19" t="s">
+        <v>495</v>
+      </c>
       <c r="H11" s="49" t="s">
         <v>31</v>
       </c>
@@ -2527,12 +2532,14 @@
         <v>7</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="19" t="s">
+        <v>495</v>
+      </c>
       <c r="H12" s="50" t="s">
         <v>31</v>
       </c>
@@ -2560,12 +2567,14 @@
         <v>7</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19" t="s">
+        <v>495</v>
+      </c>
       <c r="H13" s="49" t="s">
         <v>31</v>
       </c>
@@ -2626,12 +2635,14 @@
         <v>7</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>495</v>
+      </c>
       <c r="H15" s="49"/>
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
@@ -3544,7 +3555,7 @@
       </c>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A49" s="44">
         <v>48</v>
       </c>
@@ -3562,7 +3573,7 @@
       </c>
       <c r="G49" s="20"/>
     </row>
-    <row r="50" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A50" s="44">
         <v>49</v>
       </c>
@@ -3583,7 +3594,7 @@
       </c>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A51" s="44">
         <v>50</v>
       </c>
@@ -3603,7 +3614,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A52" s="44">
         <v>51</v>
       </c>
@@ -3623,40 +3634,59 @@
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="44">
+        <v>52</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="C53" s="45">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
     </row>
   </sheetData>
@@ -3739,15 +3769,15 @@
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
-        <v>9668</v>
+        <v>9932</v>
       </c>
       <c r="B2" s="28">
         <f>COUNT(detail!A2:'detail'!A323)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="29">
         <f>COUNTIF(detail!E2:'detail'!E257, "निको")</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" s="30">
         <v>0</v>
@@ -3757,7 +3787,7 @@
       </c>
       <c r="F2" s="32">
         <f>B2-C2</f>
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4042,7 +4072,7 @@
       </c>
       <c r="B29">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A29,map_update!$B$4:$B$78,0)),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -5030,7 +5060,7 @@
       </c>
       <c r="C31" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A31) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A31))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="42"/>
       <c r="N31" s="22"/>
@@ -5616,7 +5646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C54A67-FFF9-F147-A547-2706EC5F8302}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -7911,7 +7941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE6DB38-87E3-DC48-9FFA-21F97C9B98B3}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25674A82-37DE-F148-80EE-8DE323130E5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817BFB70-6491-544A-8CEA-1663FC27AA2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" activeTab="4" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -1801,13 +1801,13 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2131,7 +2131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
@@ -2206,17 +2206,17 @@
         <v>12</v>
       </c>
       <c r="G2" s="18"/>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2239,17 +2239,17 @@
         <v>11</v>
       </c>
       <c r="G3" s="20"/>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
       <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2272,17 +2272,17 @@
         <v>9</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2305,17 +2305,17 @@
         <v>10</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
       <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2338,17 +2338,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="18"/>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
       <c r="Q6"/>
     </row>
     <row r="7" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2371,17 +2371,17 @@
         <v>22</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2404,17 +2404,17 @@
         <v>28</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
       <c r="Q8"/>
     </row>
     <row r="9" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2437,17 +2437,17 @@
         <v>28</v>
       </c>
       <c r="G9" s="20"/>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2470,17 +2470,17 @@
         <v>28</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
       <c r="Q10"/>
     </row>
     <row r="11" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2505,17 +2505,17 @@
       <c r="G11" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
       <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2540,17 +2540,17 @@
       <c r="G12" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
       <c r="Q12"/>
     </row>
     <row r="13" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2575,17 +2575,17 @@
       <c r="G13" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
       <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2608,17 +2608,17 @@
         <v>32</v>
       </c>
       <c r="G14" s="18"/>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
       <c r="Q14"/>
     </row>
     <row r="15" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2643,15 +2643,15 @@
       <c r="G15" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
       <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2674,17 +2674,17 @@
         <v>35</v>
       </c>
       <c r="G16" s="22"/>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2707,17 +2707,17 @@
         <v>35</v>
       </c>
       <c r="G17" s="20"/>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2740,17 +2740,17 @@
         <v>37</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
       <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2773,17 +2773,17 @@
         <v>37</v>
       </c>
       <c r="G19" s="20"/>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
       <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2806,17 +2806,17 @@
         <v>37</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
       <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2839,17 +2839,17 @@
         <v>37</v>
       </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2872,17 +2872,17 @@
         <v>37</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="51" t="s">
+      <c r="H22" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
       <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2905,17 +2905,17 @@
         <v>37</v>
       </c>
       <c r="G23" s="20"/>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
       <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2938,17 +2938,17 @@
         <v>37</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2971,17 +2971,17 @@
         <v>37</v>
       </c>
       <c r="G25" s="20"/>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
       <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3004,17 +3004,17 @@
         <v>37</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
       <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3037,17 +3037,17 @@
         <v>37</v>
       </c>
       <c r="G27" s="20"/>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
       <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3070,17 +3070,17 @@
         <v>37</v>
       </c>
       <c r="G28" s="22"/>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
       <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3103,17 +3103,17 @@
         <v>37</v>
       </c>
       <c r="G29" s="20"/>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
       <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3138,17 +3138,17 @@
       <c r="G30" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="H30" s="51" t="s">
+      <c r="H30" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
       <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3173,17 +3173,17 @@
       <c r="G31" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
       <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3206,17 +3206,17 @@
         <v>39</v>
       </c>
       <c r="G32" s="22"/>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -3694,37 +3694,37 @@
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="H4:P4"/>
+    <mergeCell ref="H5:P5"/>
+    <mergeCell ref="H6:P6"/>
+    <mergeCell ref="H7:P7"/>
+    <mergeCell ref="H8:P8"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="H10:P10"/>
+    <mergeCell ref="H11:P11"/>
+    <mergeCell ref="H12:P12"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="H16:P16"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="H18:P18"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="H20:P20"/>
+    <mergeCell ref="H21:P21"/>
+    <mergeCell ref="H22:P22"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="H29:P29"/>
+    <mergeCell ref="H30:P30"/>
+    <mergeCell ref="H31:P31"/>
     <mergeCell ref="H32:P32"/>
     <mergeCell ref="H24:P24"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="H27:P27"/>
     <mergeCell ref="H28:P28"/>
-    <mergeCell ref="H22:P22"/>
-    <mergeCell ref="H23:P23"/>
-    <mergeCell ref="H29:P29"/>
-    <mergeCell ref="H30:P30"/>
-    <mergeCell ref="H31:P31"/>
-    <mergeCell ref="H17:P17"/>
-    <mergeCell ref="H18:P18"/>
-    <mergeCell ref="H19:P19"/>
-    <mergeCell ref="H20:P20"/>
-    <mergeCell ref="H21:P21"/>
-    <mergeCell ref="H12:P12"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="H14:P14"/>
-    <mergeCell ref="H15:P15"/>
-    <mergeCell ref="H16:P16"/>
-    <mergeCell ref="H7:P7"/>
-    <mergeCell ref="H8:P8"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="H10:P10"/>
-    <mergeCell ref="H11:P11"/>
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="H4:P4"/>
-    <mergeCell ref="H5:P5"/>
-    <mergeCell ref="H6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
-        <v>9932</v>
+        <v>10471</v>
       </c>
       <c r="B2" s="28">
         <f>COUNT(detail!A2:'detail'!A323)</f>
@@ -4507,7 +4507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7092C9DD-A343-5C4D-8235-021966E86C81}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -5646,7 +5646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C54A67-FFF9-F147-A547-2706EC5F8302}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817BFB70-6491-544A-8CEA-1663FC27AA2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105D5822-A356-4C44-B7AC-2A1CFF3CBB44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="501">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -1527,6 +1527,12 @@
   </si>
   <si>
     <t>कोशी अस्पताल बिराटनगरमा भएको परीक्षण</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख १६</t>
+  </si>
+  <si>
+    <t>नारायणी अस्पताल बीरगंज मा उपचारार्थ</t>
   </si>
 </sst>
 </file>
@@ -1801,13 +1807,13 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2131,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2206,17 +2212,17 @@
         <v>12</v>
       </c>
       <c r="G2" s="18"/>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2239,17 +2245,17 @@
         <v>11</v>
       </c>
       <c r="G3" s="20"/>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
       <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2272,17 +2278,17 @@
         <v>9</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2305,17 +2311,17 @@
         <v>10</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
       <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2338,17 +2344,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="18"/>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
       <c r="Q6"/>
     </row>
     <row r="7" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2371,17 +2377,17 @@
         <v>22</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2404,17 +2410,17 @@
         <v>28</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
       <c r="Q8"/>
     </row>
     <row r="9" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2437,17 +2443,17 @@
         <v>28</v>
       </c>
       <c r="G9" s="20"/>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2470,17 +2476,17 @@
         <v>28</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
       <c r="Q10"/>
     </row>
     <row r="11" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2505,17 +2511,17 @@
       <c r="G11" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
       <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2540,17 +2546,17 @@
       <c r="G12" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
       <c r="Q12"/>
     </row>
     <row r="13" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2575,17 +2581,17 @@
       <c r="G13" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
       <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2608,17 +2614,17 @@
         <v>32</v>
       </c>
       <c r="G14" s="18"/>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
       <c r="Q14"/>
     </row>
     <row r="15" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2643,15 +2649,15 @@
       <c r="G15" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
       <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2674,17 +2680,17 @@
         <v>35</v>
       </c>
       <c r="G16" s="22"/>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2707,17 +2713,17 @@
         <v>35</v>
       </c>
       <c r="G17" s="20"/>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2740,17 +2746,17 @@
         <v>37</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
       <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2773,17 +2779,17 @@
         <v>37</v>
       </c>
       <c r="G19" s="20"/>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
       <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2806,17 +2812,17 @@
         <v>37</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
       <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2839,17 +2845,17 @@
         <v>37</v>
       </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2872,17 +2878,17 @@
         <v>37</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
       <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2905,17 +2911,17 @@
         <v>37</v>
       </c>
       <c r="G23" s="20"/>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
       <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2938,17 +2944,17 @@
         <v>37</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2971,17 +2977,17 @@
         <v>37</v>
       </c>
       <c r="G25" s="20"/>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
       <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3004,17 +3010,17 @@
         <v>37</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
       <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3037,17 +3043,17 @@
         <v>37</v>
       </c>
       <c r="G27" s="20"/>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
       <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3070,17 +3076,17 @@
         <v>37</v>
       </c>
       <c r="G28" s="22"/>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
       <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3103,17 +3109,17 @@
         <v>37</v>
       </c>
       <c r="G29" s="20"/>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
       <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3138,17 +3144,17 @@
       <c r="G30" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="H30" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
       <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3173,17 +3179,17 @@
       <c r="G31" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
       <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3206,17 +3212,17 @@
         <v>39</v>
       </c>
       <c r="G32" s="22"/>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -3613,6 +3619,9 @@
       <c r="F51" s="20" t="s">
         <v>495</v>
       </c>
+      <c r="H51" s="3" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A52" s="44">
@@ -3633,6 +3642,9 @@
       <c r="F52" s="20" t="s">
         <v>495</v>
       </c>
+      <c r="H52" s="3" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A53" s="44">
@@ -3657,13 +3669,45 @@
         <v>498</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="C55" s="3"/>
+    <row r="54" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="44">
+        <v>53</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="45">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="44">
+        <v>54</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="45">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
@@ -3694,37 +3738,37 @@
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="H4:P4"/>
-    <mergeCell ref="H5:P5"/>
-    <mergeCell ref="H6:P6"/>
-    <mergeCell ref="H7:P7"/>
-    <mergeCell ref="H8:P8"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="H10:P10"/>
-    <mergeCell ref="H11:P11"/>
-    <mergeCell ref="H12:P12"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="H14:P14"/>
-    <mergeCell ref="H15:P15"/>
-    <mergeCell ref="H16:P16"/>
-    <mergeCell ref="H17:P17"/>
-    <mergeCell ref="H18:P18"/>
-    <mergeCell ref="H19:P19"/>
-    <mergeCell ref="H20:P20"/>
-    <mergeCell ref="H21:P21"/>
-    <mergeCell ref="H22:P22"/>
-    <mergeCell ref="H23:P23"/>
-    <mergeCell ref="H29:P29"/>
-    <mergeCell ref="H30:P30"/>
-    <mergeCell ref="H31:P31"/>
     <mergeCell ref="H32:P32"/>
     <mergeCell ref="H24:P24"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="H27:P27"/>
     <mergeCell ref="H28:P28"/>
+    <mergeCell ref="H22:P22"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="H29:P29"/>
+    <mergeCell ref="H30:P30"/>
+    <mergeCell ref="H31:P31"/>
+    <mergeCell ref="H17:P17"/>
+    <mergeCell ref="H18:P18"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="H20:P20"/>
+    <mergeCell ref="H21:P21"/>
+    <mergeCell ref="H12:P12"/>
+    <mergeCell ref="H13:P13"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="H16:P16"/>
+    <mergeCell ref="H7:P7"/>
+    <mergeCell ref="H8:P8"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="H10:P10"/>
+    <mergeCell ref="H11:P11"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="H4:P4"/>
+    <mergeCell ref="H5:P5"/>
+    <mergeCell ref="H6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3735,7 +3779,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3769,11 +3813,11 @@
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
-        <v>10471</v>
+        <v>1807</v>
       </c>
       <c r="B2" s="28">
         <f>COUNT(detail!A2:'detail'!A323)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="29">
         <f>COUNTIF(detail!E2:'detail'!E257, "निको")</f>
@@ -3787,7 +3831,7 @@
       </c>
       <c r="F2" s="32">
         <f>B2-C2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3809,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F40CF7-9584-3D43-9273-49D4405146AF}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4333,7 +4377,7 @@
       </c>
       <c r="B58">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A58,map_update!$B$4:$B$78,0)),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -5414,7 +5458,7 @@
       </c>
       <c r="C60" s="42">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A60) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A60))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -5646,7 +5690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C54A67-FFF9-F147-A547-2706EC5F8302}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105D5822-A356-4C44-B7AC-2A1CFF3CBB44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F785AA6-A4A5-4E44-962D-7D34AC54879F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" activeTab="1" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="505">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -1533,6 +1533,18 @@
   </si>
   <si>
     <t>नारायणी अस्पताल बीरगंज मा उपचारार्थ</t>
+  </si>
+  <si>
+    <t>कुल PCR परीक्षण</t>
+  </si>
+  <si>
+    <t>फाल्गुन ३० मा साउदि बाट हिमालयन एयर बाट आई काठमाडौंमा केहि दिन बसी उदयपुर हुँदै भोजपुर गएको(बी पी स्वास्थ्य बिज्यान प्रटिष्ठानमा जाँच गरिएको)</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख १७</t>
+  </si>
+  <si>
+    <t>दिल्लीमा मार्च ६ (चैत २३) मा गएर तबलिगी जमातको धार्मिक सभामा सहभागी भएर ११ (चैत २८) मार्चमा नेपाल फर्किएका थिए।</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1554,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-4000439]0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1604,12 +1616,6 @@
     </font>
     <font>
       <sz val="48"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="48"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -1652,6 +1658,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1688,10 +1722,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1761,7 +1796,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1770,9 +1805,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1805,19 +1837,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2135,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2149,14 +2187,15 @@
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="3" customWidth="1"/>
-    <col min="12" max="16" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="3" customWidth="1"/>
+    <col min="13" max="17" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2178,21 +2217,24 @@
       <c r="G1" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
-      <c r="Q1" s="4"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2212,10 +2254,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="18"/>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="50"/>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
       <c r="L2" s="50"/>
@@ -2223,9 +2265,10 @@
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
       <c r="P2" s="50"/>
-      <c r="Q2"/>
-    </row>
-    <row r="3" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q2" s="50"/>
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -2245,10 +2288,10 @@
         <v>11</v>
       </c>
       <c r="G3" s="20"/>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="49"/>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
@@ -2256,9 +2299,10 @@
       <c r="N3" s="49"/>
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="49"/>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2278,10 +2322,10 @@
         <v>9</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="50"/>
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
       <c r="L4" s="50"/>
@@ -2289,9 +2333,10 @@
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
-      <c r="Q4"/>
-    </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="50"/>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -2311,10 +2356,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="49"/>
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
@@ -2322,9 +2367,10 @@
       <c r="N5" s="49"/>
       <c r="O5" s="49"/>
       <c r="P5" s="49"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="49"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2344,10 +2390,10 @@
         <v>20</v>
       </c>
       <c r="G6" s="18"/>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="50"/>
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
       <c r="L6" s="50"/>
@@ -2355,9 +2401,10 @@
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
       <c r="P6" s="50"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="50"/>
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -2377,10 +2424,10 @@
         <v>22</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="20"/>
+      <c r="I7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="49"/>
       <c r="J7" s="49"/>
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
@@ -2388,9 +2435,10 @@
       <c r="N7" s="49"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="49"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -2410,10 +2458,10 @@
         <v>28</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="50"/>
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
       <c r="L8" s="50"/>
@@ -2421,9 +2469,10 @@
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
       <c r="P8" s="50"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="50"/>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -2443,10 +2492,10 @@
         <v>28</v>
       </c>
       <c r="G9" s="20"/>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="20"/>
+      <c r="I9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="49"/>
       <c r="J9" s="49"/>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
@@ -2454,9 +2503,10 @@
       <c r="N9" s="49"/>
       <c r="O9" s="49"/>
       <c r="P9" s="49"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="49"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -2476,10 +2526,10 @@
         <v>28</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="50"/>
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
       <c r="L10" s="50"/>
@@ -2487,9 +2537,10 @@
       <c r="N10" s="50"/>
       <c r="O10" s="50"/>
       <c r="P10" s="50"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="50"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -2511,10 +2562,10 @@
       <c r="G11" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="49"/>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
@@ -2522,9 +2573,10 @@
       <c r="N11" s="49"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="49"/>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -2546,10 +2598,10 @@
       <c r="G12" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="19"/>
+      <c r="I12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="50"/>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
       <c r="L12" s="50"/>
@@ -2557,9 +2609,10 @@
       <c r="N12" s="50"/>
       <c r="O12" s="50"/>
       <c r="P12" s="50"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="50"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -2581,10 +2634,10 @@
       <c r="G13" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="19"/>
+      <c r="I13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="49"/>
       <c r="J13" s="49"/>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
@@ -2592,9 +2645,10 @@
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="49"/>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -2614,10 +2668,10 @@
         <v>32</v>
       </c>
       <c r="G14" s="18"/>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="50"/>
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
       <c r="L14" s="50"/>
@@ -2625,9 +2679,10 @@
       <c r="N14" s="50"/>
       <c r="O14" s="50"/>
       <c r="P14" s="50"/>
-      <c r="Q14"/>
-    </row>
-    <row r="15" spans="1:18" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="50"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -2649,7 +2704,7 @@
       <c r="G15" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="H15" s="49"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
@@ -2658,9 +2713,10 @@
       <c r="N15" s="49"/>
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="49"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -2680,20 +2736,21 @@
         <v>35</v>
       </c>
       <c r="G16" s="22"/>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="22"/>
+      <c r="I16" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -2713,10 +2770,10 @@
         <v>35</v>
       </c>
       <c r="G17" s="20"/>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
       <c r="J17" s="49"/>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
@@ -2724,9 +2781,10 @@
       <c r="N17" s="49"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="1:17" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="49"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:18" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -2746,20 +2804,21 @@
         <v>37</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="22"/>
+      <c r="I18" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -2779,10 +2838,10 @@
         <v>37</v>
       </c>
       <c r="G19" s="20"/>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
@@ -2790,9 +2849,10 @@
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="49"/>
-      <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="49"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -2812,20 +2872,21 @@
         <v>37</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="22"/>
+      <c r="I20" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -2845,10 +2906,10 @@
         <v>37</v>
       </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="20"/>
+      <c r="I21" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I21" s="49"/>
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
@@ -2856,9 +2917,10 @@
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
-      <c r="Q21" s="9"/>
-    </row>
-    <row r="22" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="49"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -2878,20 +2940,21 @@
         <v>37</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="51" t="s">
+      <c r="H22" s="22"/>
+      <c r="I22" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -2911,10 +2974,10 @@
         <v>37</v>
       </c>
       <c r="G23" s="20"/>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="20"/>
+      <c r="I23" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I23" s="49"/>
       <c r="J23" s="49"/>
       <c r="K23" s="49"/>
       <c r="L23" s="49"/>
@@ -2922,9 +2985,10 @@
       <c r="N23" s="49"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
-      <c r="Q23" s="9"/>
-    </row>
-    <row r="24" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="49"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -2944,20 +3008,21 @@
         <v>37</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="22"/>
+      <c r="I24" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -2977,10 +3042,10 @@
         <v>37</v>
       </c>
       <c r="G25" s="20"/>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="20"/>
+      <c r="I25" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I25" s="49"/>
       <c r="J25" s="49"/>
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
@@ -2988,9 +3053,10 @@
       <c r="N25" s="49"/>
       <c r="O25" s="49"/>
       <c r="P25" s="49"/>
-      <c r="Q25" s="9"/>
-    </row>
-    <row r="26" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="49"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -3010,20 +3076,21 @@
         <v>37</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="22"/>
+      <c r="I26" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -3043,10 +3110,10 @@
         <v>37</v>
       </c>
       <c r="G27" s="20"/>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="20"/>
+      <c r="I27" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I27" s="49"/>
       <c r="J27" s="49"/>
       <c r="K27" s="49"/>
       <c r="L27" s="49"/>
@@ -3054,9 +3121,10 @@
       <c r="N27" s="49"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
-      <c r="Q27" s="9"/>
-    </row>
-    <row r="28" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="49"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -3076,20 +3144,21 @@
         <v>37</v>
       </c>
       <c r="G28" s="22"/>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="22"/>
+      <c r="I28" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -3109,10 +3178,10 @@
         <v>37</v>
       </c>
       <c r="G29" s="20"/>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="20"/>
+      <c r="I29" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="I29" s="49"/>
       <c r="J29" s="49"/>
       <c r="K29" s="49"/>
       <c r="L29" s="49"/>
@@ -3120,9 +3189,10 @@
       <c r="N29" s="49"/>
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
-      <c r="Q29" s="9"/>
-    </row>
-    <row r="30" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="49"/>
+      <c r="R29" s="9"/>
+    </row>
+    <row r="30" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -3144,20 +3214,21 @@
       <c r="G30" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="H30" s="51" t="s">
+      <c r="H30" s="22"/>
+      <c r="I30" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -3179,10 +3250,10 @@
       <c r="G31" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="22"/>
+      <c r="I31" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="49"/>
       <c r="J31" s="49"/>
       <c r="K31" s="49"/>
       <c r="L31" s="49"/>
@@ -3190,9 +3261,10 @@
       <c r="N31" s="49"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
-      <c r="Q31" s="9"/>
-    </row>
-    <row r="32" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q31" s="49"/>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -3212,24 +3284,25 @@
         <v>39</v>
       </c>
       <c r="G32" s="22"/>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="22"/>
+      <c r="I32" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="7"/>
-    </row>
-    <row r="33" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>32</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="19">
@@ -3245,14 +3318,15 @@
         <v>48</v>
       </c>
       <c r="G33" s="20"/>
-      <c r="O33" s="23"/>
-      <c r="S33" s="12"/>
-    </row>
-    <row r="34" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="20"/>
+      <c r="P33" s="23"/>
+      <c r="T33" s="12"/>
+    </row>
+    <row r="34" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>33</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="21">
@@ -3268,12 +3342,13 @@
         <v>48</v>
       </c>
       <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>34</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="19">
@@ -3289,12 +3364,13 @@
         <v>48</v>
       </c>
       <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>35</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="21">
@@ -3310,12 +3386,13 @@
         <v>48</v>
       </c>
       <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>36</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="19">
@@ -3331,12 +3408,13 @@
         <v>48</v>
       </c>
       <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>37</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="21">
@@ -3352,12 +3430,13 @@
         <v>48</v>
       </c>
       <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>38</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="19">
@@ -3373,12 +3452,13 @@
         <v>48</v>
       </c>
       <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>39</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="21">
@@ -3394,15 +3474,16 @@
         <v>48</v>
       </c>
       <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>40</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="34">
         <v>58</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -3415,16 +3496,17 @@
         <v>48</v>
       </c>
       <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>41</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34" t="s">
+      <c r="C42" s="33"/>
+      <c r="D42" s="33" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="22" t="s">
@@ -3434,18 +3516,19 @@
         <v>48</v>
       </c>
       <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="35">
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="34">
         <v>42</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="19">
         <v>36</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="32" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="20" t="s">
@@ -3455,15 +3538,16 @@
         <v>48</v>
       </c>
       <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A44" s="39">
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="1:20" ht="26" x14ac:dyDescent="0.3">
+      <c r="A44" s="38">
         <v>43</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="38">
         <v>24</v>
       </c>
       <c r="D44" t="s">
@@ -3476,15 +3560,16 @@
         <v>397</v>
       </c>
       <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A45" s="39">
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:20" ht="26" x14ac:dyDescent="0.3">
+      <c r="A45" s="38">
         <v>44</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="38">
         <v>60</v>
       </c>
       <c r="D45" t="s">
@@ -3497,15 +3582,16 @@
         <v>32</v>
       </c>
       <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="39">
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:20" ht="26" x14ac:dyDescent="0.3">
+      <c r="A46" s="38">
         <v>45</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="38">
         <v>72</v>
       </c>
       <c r="D46" t="s">
@@ -3518,15 +3604,16 @@
         <v>397</v>
       </c>
       <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A47" s="44">
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:20" ht="26" x14ac:dyDescent="0.3">
+      <c r="A47" s="43">
         <v>46</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="44">
         <v>55</v>
       </c>
       <c r="D47" t="s">
@@ -3539,15 +3626,16 @@
         <v>400</v>
       </c>
       <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="44">
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:20" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="43">
         <v>47</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C48" s="44">
         <v>14</v>
       </c>
       <c r="D48" t="s">
@@ -3560,12 +3648,16 @@
         <v>400</v>
       </c>
       <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A49" s="44">
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A49" s="43">
         <v>48</v>
       </c>
-      <c r="C49" s="45">
+      <c r="B49" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C49" s="44">
         <v>26</v>
       </c>
       <c r="D49" t="s">
@@ -3578,15 +3670,19 @@
         <v>400</v>
       </c>
       <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="44">
+      <c r="H49" s="20"/>
+      <c r="I49" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A50" s="43">
         <v>49</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="C50" s="45">
+      <c r="C50" s="44">
         <v>62</v>
       </c>
       <c r="D50" t="s">
@@ -3599,15 +3695,16 @@
         <v>468</v>
       </c>
       <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="44">
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="43">
         <v>50</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C51" s="44">
         <v>50</v>
       </c>
       <c r="D51" t="s">
@@ -3619,18 +3716,18 @@
       <c r="F51" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="44">
+    <row r="52" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A52" s="43">
         <v>51</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C52" s="44">
         <v>50</v>
       </c>
       <c r="D52" t="s">
@@ -3642,18 +3739,18 @@
       <c r="F52" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="44">
+    <row r="53" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="43">
         <v>52</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="C53" s="45">
+      <c r="C53" s="44">
         <v>50</v>
       </c>
       <c r="D53" t="s">
@@ -3665,18 +3762,18 @@
       <c r="F53" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="44">
+    <row r="54" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="43">
         <v>53</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="45">
+      <c r="C54" s="44">
         <v>24</v>
       </c>
       <c r="D54" t="s">
@@ -3689,14 +3786,14 @@
         <v>499</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="44">
+    <row r="55" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A55" s="43">
         <v>54</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="44">
         <v>21</v>
       </c>
       <c r="D55" t="s">
@@ -3708,67 +3805,135 @@
       <c r="F55" s="20" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H55" s="38">
+        <v>10807</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="43">
+        <v>55</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="C56" s="44">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="H56" s="38"/>
+      <c r="I56" s="51" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A57" s="43">
+        <v>56</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="C57" s="44">
+        <v>43</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="H57" s="38"/>
+      <c r="I57" s="51" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A58" s="43">
+        <v>57</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C58" s="44">
+        <v>31</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="H58" s="38">
+        <v>11524</v>
+      </c>
+      <c r="I58" s="51" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:Q34">
+  <sortState ref="A2:R34">
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="H32:P32"/>
-    <mergeCell ref="H24:P24"/>
-    <mergeCell ref="H25:P25"/>
-    <mergeCell ref="H26:P26"/>
-    <mergeCell ref="H27:P27"/>
-    <mergeCell ref="H28:P28"/>
-    <mergeCell ref="H22:P22"/>
-    <mergeCell ref="H23:P23"/>
-    <mergeCell ref="H29:P29"/>
-    <mergeCell ref="H30:P30"/>
-    <mergeCell ref="H31:P31"/>
-    <mergeCell ref="H17:P17"/>
-    <mergeCell ref="H18:P18"/>
-    <mergeCell ref="H19:P19"/>
-    <mergeCell ref="H20:P20"/>
-    <mergeCell ref="H21:P21"/>
-    <mergeCell ref="H12:P12"/>
-    <mergeCell ref="H13:P13"/>
-    <mergeCell ref="H14:P14"/>
-    <mergeCell ref="H15:P15"/>
-    <mergeCell ref="H16:P16"/>
-    <mergeCell ref="H7:P7"/>
-    <mergeCell ref="H8:P8"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="H10:P10"/>
-    <mergeCell ref="H11:P11"/>
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="H4:P4"/>
-    <mergeCell ref="H5:P5"/>
-    <mergeCell ref="H6:P6"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="I6:Q6"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I9:Q9"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="I32:Q32"/>
+    <mergeCell ref="I24:Q24"/>
+    <mergeCell ref="I25:Q25"/>
+    <mergeCell ref="I26:Q26"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="I28:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3778,13 +3943,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4D57B-B68B-5E42-9689-ABFDDD3556B4}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
@@ -3812,37 +3977,41 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
-        <v>1807</v>
-      </c>
-      <c r="B2" s="28">
+      <c r="A2" s="53">
+        <f>LOOKUP(2, 1/(detail!H:H&lt;&gt;""), detail!H:H)</f>
+        <v>11524</v>
+      </c>
+      <c r="B2" s="27">
         <f>COUNT(detail!A2:'detail'!A323)</f>
-        <v>54</v>
-      </c>
-      <c r="C2" s="29">
+        <v>57</v>
+      </c>
+      <c r="C2" s="28">
         <f>COUNTIF(detail!E2:'detail'!E257, "निको")</f>
         <v>16</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>0</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <v>0</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="31">
         <f>B2-C2</f>
-        <v>38</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3934,9 +4103,9 @@
       <c r="A9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A9,map_update!$B$4:$B$78,0)),"")</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3961,9 +4130,9 @@
       <c r="A12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A12,map_update!$B$4:$B$78,0)),"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4341,7 +4510,7 @@
       </c>
       <c r="B54">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A54,map_update!$B$4:$B$78,0)),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -4558,7 +4727,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="41"/>
+    <col min="12" max="12" width="10.83203125" style="40"/>
     <col min="13" max="13" width="16.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4566,7 +4735,7 @@
       <c r="B1" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="40"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -4606,1080 +4775,1080 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>398</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="42" t="str">
+      <c r="C4" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A4) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A4))</f>
         <v/>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <v>0.5</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="35">
         <v>0</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>466</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="42" t="str">
+      <c r="C5" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A5) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A5))</f>
         <v/>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <v>0</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A6) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A6))</f>
         <v>2</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>0.5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>0</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>402</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="42" t="str">
+      <c r="C7" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A7) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A7))</f>
         <v/>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>0.4</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>0</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>403</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="42" t="str">
+      <c r="C8" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A8) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A8))</f>
         <v/>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>404</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="42" t="str">
+      <c r="C9" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A9) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A9))</f>
         <v/>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <v>0</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>405</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="42" t="str">
+      <c r="C10" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10))</f>
         <v/>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>406</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="42" t="str">
+      <c r="C11" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A11) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A11))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <v>0</v>
       </c>
       <c r="H11">
         <v>24</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>407</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="42" t="str">
+      <c r="C12" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A12) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A12))</f>
         <v/>
       </c>
-      <c r="E12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="E12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="40" t="s">
         <v>408</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="42" t="str">
+      <c r="C13" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A13) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A13))</f>
         <v/>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="36">
         <v>0.11899999999999999</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <v>0</v>
       </c>
       <c r="H13">
         <v>37</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="36">
         <v>0.88100000000000001</v>
       </c>
-      <c r="L13" s="42"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>409</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="42" t="str">
+      <c r="C14" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A14) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A14))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A15) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A15))</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>410</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="42" t="str">
+      <c r="C16" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A16) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A16))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>411</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="42" t="str">
+      <c r="C17" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A17) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A17))</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="40" t="s">
         <v>412</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="42" t="str">
+      <c r="C18" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A18) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A18))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>413</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="42" t="str">
+      <c r="C19" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A19) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A19))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="40" t="s">
         <v>414</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="42" t="str">
+      <c r="C20" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A20) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A20))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="40" t="s">
         <v>415</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="42" t="str">
+      <c r="C21" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A21) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A21))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="40" t="s">
         <v>401</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A22) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A22))</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="40" t="s">
         <v>416</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="42" t="str">
+      <c r="C23" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A23) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A23))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="40" t="s">
         <v>417</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="42" t="str">
+      <c r="C24" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A24) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A24))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="40" t="s">
         <v>418</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="42" t="str">
+      <c r="C25" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A25) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A25))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="40" t="s">
         <v>419</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="42" t="str">
+      <c r="C26" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A26) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A26))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="40" t="s">
         <v>420</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="42" t="str">
+      <c r="C27" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A27) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A27))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="40" t="s">
         <v>421</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="42" t="str">
+      <c r="C28" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A28) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A28))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="40" t="s">
         <v>422</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="42" t="str">
+      <c r="C29" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A29) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A29))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="40" t="s">
         <v>423</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="42" t="str">
+      <c r="C30" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A30) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A30))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="40" t="s">
         <v>424</v>
       </c>
       <c r="B31" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A31) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A31))</f>
         <v>2</v>
       </c>
-      <c r="L31" s="42"/>
+      <c r="L31" s="41"/>
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="40" t="s">
         <v>425</v>
       </c>
       <c r="B32" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="42" t="str">
+      <c r="C32" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A32) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A32))</f>
         <v/>
       </c>
       <c r="N32" s="18"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A33) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A33))</f>
         <v>4</v>
       </c>
-      <c r="L33" s="42"/>
+      <c r="L33" s="41"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="40" t="s">
         <v>426</v>
       </c>
       <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="42" t="str">
+      <c r="C34" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A34) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A34))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A35) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A35))</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="40" t="s">
         <v>427</v>
       </c>
       <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="42" t="str">
+      <c r="C36" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A36) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A36))</f>
         <v/>
       </c>
-      <c r="L36" s="42"/>
+      <c r="L36" s="41"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="41" t="s">
         <v>428</v>
       </c>
       <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="42" t="str">
+      <c r="C37" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A37) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A37))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A38) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A38))</f>
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="41" t="s">
         <v>429</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="42" t="str">
+      <c r="C39" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A39) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A39))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="41" t="s">
         <v>430</v>
       </c>
       <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="42" t="str">
+      <c r="C40" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A40) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A40))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="41" t="s">
         <v>431</v>
       </c>
       <c r="B41" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="42" t="str">
+      <c r="C41" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A41) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A41))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="41" t="s">
         <v>432</v>
       </c>
       <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="42" t="str">
+      <c r="C42" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A42) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A42))</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="41" t="s">
         <v>433</v>
       </c>
       <c r="B43" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="42" t="str">
+      <c r="C43" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A43) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A43))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="41" t="s">
         <v>434</v>
       </c>
       <c r="B44" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="42" t="str">
+      <c r="C44" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A44) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A44))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="41" t="s">
         <v>435</v>
       </c>
       <c r="B45" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="42" t="str">
+      <c r="C45" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A45) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A45))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="41" t="s">
         <v>436</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="42" t="str">
+      <c r="C46" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A46) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A46))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="41" t="s">
         <v>437</v>
       </c>
       <c r="B47" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="42" t="str">
+      <c r="C47" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A47) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A47))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="41" t="s">
         <v>438</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="42" t="str">
+      <c r="C48" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A48) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A48))</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="41" t="s">
         <v>439</v>
       </c>
       <c r="B49" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="42" t="str">
+      <c r="C49" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A49) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A49))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="41" t="s">
         <v>440</v>
       </c>
       <c r="B50" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="42" t="str">
+      <c r="C50" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A50) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A50))</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="41" t="s">
         <v>441</v>
       </c>
       <c r="B51" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="42" t="str">
+      <c r="C51" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A51) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A51))</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="41" t="s">
         <v>442</v>
       </c>
       <c r="B52" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="42" t="str">
+      <c r="C52" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A52) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A52))</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="41" t="s">
         <v>443</v>
       </c>
       <c r="B53" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="42" t="str">
+      <c r="C53" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A53) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A53))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="41" t="s">
         <v>444</v>
       </c>
       <c r="B54" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="42" t="str">
+      <c r="C54" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A54) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A54))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="41" t="s">
         <v>445</v>
       </c>
       <c r="B55" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="42" t="str">
+      <c r="C55" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A55) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A55))</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="40" t="s">
         <v>399</v>
       </c>
       <c r="B56" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="42">
+      <c r="C56" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A56) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A56))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="41" t="s">
         <v>446</v>
       </c>
       <c r="B57" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="42" t="str">
+      <c r="C57" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A57) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A57))</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="41" t="s">
         <v>447</v>
       </c>
       <c r="B58" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="42" t="str">
+      <c r="C58" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A58) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A58))</f>
         <v/>
       </c>
-      <c r="L58" s="42"/>
+      <c r="L58" s="41"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="41" t="s">
         <v>448</v>
       </c>
       <c r="B59" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="42" t="str">
+      <c r="C59" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A59) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A59))</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B60" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="42">
+      <c r="C60" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A60) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A60))</f>
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="41" t="s">
         <v>449</v>
       </c>
       <c r="B61" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="42" t="str">
+      <c r="C61" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A61) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A61))</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="41" t="s">
         <v>450</v>
       </c>
       <c r="B62" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="42" t="str">
+      <c r="C62" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A62) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A62))</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="41" t="s">
         <v>451</v>
       </c>
       <c r="B63" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="42" t="str">
+      <c r="C63" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A63) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A63))</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="41" t="s">
         <v>452</v>
       </c>
       <c r="B64" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="42" t="str">
+      <c r="C64" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A64) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A64))</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="41" t="s">
         <v>453</v>
       </c>
       <c r="B65" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="42" t="str">
+      <c r="C65" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A65) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A65))</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="41" t="s">
         <v>454</v>
       </c>
       <c r="B66" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="42" t="str">
+      <c r="C66" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A66) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A66))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="41" t="s">
         <v>455</v>
       </c>
       <c r="B67" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="42" t="str">
+      <c r="C67" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A67) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A67))</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="41" t="s">
         <v>456</v>
       </c>
       <c r="B68" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="42" t="str">
+      <c r="C68" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A68) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A68))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="41" t="s">
         <v>457</v>
       </c>
       <c r="B69" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="42" t="str">
+      <c r="C69" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A69) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A69))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="41" t="s">
         <v>458</v>
       </c>
       <c r="B70" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="42" t="str">
+      <c r="C70" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A70) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A70))</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="41" t="s">
         <v>459</v>
       </c>
       <c r="B71" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="42" t="str">
+      <c r="C71" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A71) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A71))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="41" t="s">
         <v>460</v>
       </c>
       <c r="B72" t="s">
         <v>119</v>
       </c>
-      <c r="C72" s="42" t="str">
+      <c r="C72" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A72) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A72))</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="41" t="s">
         <v>461</v>
       </c>
       <c r="B73" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="42" t="str">
+      <c r="C73" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A73) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A73))</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="41" t="s">
         <v>462</v>
       </c>
       <c r="B74" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="42" t="str">
+      <c r="C74" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A74) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A74))</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="41" t="s">
         <v>463</v>
       </c>
       <c r="B75" t="s">
         <v>122</v>
       </c>
-      <c r="C75" s="42" t="str">
+      <c r="C75" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A75) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A75))</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="41" t="s">
         <v>464</v>
       </c>
       <c r="B76" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="42" t="str">
+      <c r="C76" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A76) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A76))</f>
         <v/>
       </c>
-      <c r="L76" s="43"/>
+      <c r="L76" s="42"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="41" t="s">
         <v>465</v>
       </c>
       <c r="B77" t="s">
         <v>124</v>
       </c>
-      <c r="C77" s="42" t="str">
+      <c r="C77" s="41" t="str">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A77) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A77))</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="43" t="s">
+      <c r="A78" s="42" t="s">
         <v>36</v>
       </c>
       <c r="B78" t="s">
         <v>125</v>
       </c>
-      <c r="C78" s="42">
+      <c r="C78" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A78) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A78))</f>
         <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="41"/>
+      <c r="A79" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7996,19 +8165,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>390</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>128</v>
       </c>
       <c r="F1" t="s">
@@ -8017,28 +8186,28 @@
       <c r="G1" t="s">
         <v>392</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="str">
+      <c r="A2" s="37" t="str">
         <f>INDEX(G2:G15, MATCH(B2,F2:F15))</f>
         <v>Australia</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="37">
         <v>11</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="37"/>
       <c r="F2" t="s">
         <v>147</v>
       </c>
@@ -8053,20 +8222,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="str">
+      <c r="A3" s="37" t="str">
         <f>INDEX(G3:G15, MATCH(B3,F3:F15))</f>
         <v>Bahrain</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>49</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>0</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>34</v>
       </c>
       <c r="F3" t="s">
@@ -8083,20 +8252,20 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="str">
+      <c r="A4" s="37" t="str">
         <f>INDEX(G4:G15, MATCH(B4,F4:F15))</f>
         <v>Germany</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>4</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>0</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="37"/>
       <c r="F4" t="s">
         <v>191</v>
       </c>
@@ -8111,20 +8280,20 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="str">
+      <c r="A5" s="37" t="str">
         <f>INDEX(G5:G15, MATCH(B5,F5:F15))</f>
         <v>China</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>2</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>0</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="37"/>
       <c r="F5" t="s">
         <v>393</v>
       </c>
@@ -8139,20 +8308,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="str">
+      <c r="A6" s="37" t="str">
         <f>INDEX(G6:G15, MATCH(B6,F6:F15))</f>
         <v>Japan</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>3</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>1</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="37"/>
       <c r="F6" t="s">
         <v>250</v>
       </c>
@@ -8167,20 +8336,20 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="str">
+      <c r="A7" s="37" t="str">
         <f>INDEX(G7:G15, MATCH(B7,F7:F15))</f>
         <v>Kuwait</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>42</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>0</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="37"/>
       <c r="F7" t="s">
         <v>261</v>
       </c>
@@ -8195,20 +8364,20 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="str">
+      <c r="A8" s="37" t="str">
         <f>INDEX(G8:G15, MATCH(B8,F8:F15))</f>
         <v>Malaysia</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>3</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>0</v>
       </c>
-      <c r="E8" s="38"/>
+      <c r="E8" s="37"/>
       <c r="F8" t="s">
         <v>293</v>
       </c>
@@ -8223,20 +8392,20 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="str">
+      <c r="A9" s="37" t="str">
         <f>INDEX(G9:G15, MATCH(B9,F9:F15))</f>
         <v>Myanmar</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>0</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="37"/>
       <c r="F9" t="s">
         <v>284</v>
       </c>
@@ -8251,20 +8420,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="str">
+      <c r="A10" s="37" t="str">
         <f>INDEX(G10:G15, MATCH(B10,F10:F15))</f>
         <v>Portugal</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>27</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>0</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>3</v>
       </c>
       <c r="F10" t="s">
@@ -8281,20 +8450,20 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="str">
+      <c r="A11" s="37" t="str">
         <f>INDEX(G11:G15, MATCH(B11,F11:F15))</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>4</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>0</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <v>3</v>
       </c>
       <c r="F11" t="s">
@@ -8311,20 +8480,20 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="str">
+      <c r="A12" s="37" t="str">
         <f>INDEX(G12:G15, MATCH(B12,F12:F15))</f>
         <v>Spain</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <v>18</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>0</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>10</v>
       </c>
       <c r="F12" t="s">
@@ -8341,20 +8510,20 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="str">
+      <c r="A13" s="37" t="str">
         <f>INDEX(G13:G15, MATCH(B13,F13:F15))</f>
         <v>United Arab Emirates</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <v>81</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>2</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="37"/>
       <c r="F13" t="s">
         <v>142</v>
       </c>
@@ -8369,20 +8538,20 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="str">
+      <c r="A14" s="37" t="str">
         <f>INDEX(G14:G15, MATCH(B14,F14:F15))</f>
         <v>UK</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <v>700</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>33</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>150</v>
       </c>
       <c r="F14" t="s">
@@ -8399,20 +8568,20 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="str">
+      <c r="A15" s="37" t="str">
         <f>INDEX(G15:G15, MATCH(B15,F15:F15))</f>
         <v>USA</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <v>1000</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>10</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <v>250</v>
       </c>
       <c r="F15" t="s">
@@ -8429,20 +8598,20 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="str">
+      <c r="A16" s="37" t="str">
         <f t="shared" ref="A16:A25" si="0">INDEX(G16:G16, MATCH(B16,F16:F16))</f>
         <v>Turkey</v>
       </c>
       <c r="B16" t="s">
         <v>366</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="37">
         <v>1</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>1</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="37"/>
       <c r="F16" t="s">
         <v>366</v>
       </c>
@@ -8457,20 +8626,20 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="str">
+      <c r="A17" s="37" t="str">
         <f t="shared" si="0"/>
         <v>Netherlands</v>
       </c>
       <c r="B17" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="37">
         <v>1</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>1</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="37"/>
       <c r="F17" t="s">
         <v>304</v>
       </c>
@@ -8485,20 +8654,20 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="str">
+      <c r="A18" s="37" t="str">
         <f t="shared" si="0"/>
         <v>Ireland</v>
       </c>
       <c r="B18" t="s">
         <v>240</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="37">
         <v>22</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>1</v>
       </c>
-      <c r="E18" s="38"/>
+      <c r="E18" s="37"/>
       <c r="F18" t="s">
         <v>240</v>
       </c>
@@ -8513,14 +8682,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="str">
+      <c r="A19" s="37" t="str">
         <f t="shared" si="0"/>
         <v>France</v>
       </c>
       <c r="B19" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="37">
         <v>1</v>
       </c>
       <c r="F19" t="s">
@@ -8537,14 +8706,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="str">
+      <c r="A20" s="37" t="str">
         <f t="shared" si="0"/>
         <v>New Zealand</v>
       </c>
       <c r="B20" t="s">
         <v>308</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="37">
         <v>3</v>
       </c>
       <c r="E20">
@@ -8564,14 +8733,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="str">
+      <c r="A21" s="37" t="str">
         <f t="shared" si="0"/>
         <v>Malta</v>
       </c>
       <c r="B21" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <v>2</v>
       </c>
       <c r="F21" t="s">
@@ -8588,14 +8757,14 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="str">
+      <c r="A22" s="37" t="str">
         <f t="shared" si="0"/>
         <v>Canada</v>
       </c>
       <c r="B22" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="37">
         <v>3</v>
       </c>
       <c r="F22" t="s">
@@ -8612,14 +8781,14 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="str">
+      <c r="A23" s="37" t="str">
         <f t="shared" si="0"/>
         <v>Belgium</v>
       </c>
       <c r="B23" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="37">
         <v>6</v>
       </c>
       <c r="F23" t="s">
@@ -8636,14 +8805,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="str">
+      <c r="A24" s="37" t="str">
         <f t="shared" si="0"/>
         <v>Switzerland</v>
       </c>
       <c r="B24" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="37">
         <v>5</v>
       </c>
       <c r="E24">
@@ -8663,14 +8832,14 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="str">
+      <c r="A25" s="37" t="str">
         <f t="shared" si="0"/>
         <v>Cyprus</v>
       </c>
       <c r="B25" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="37">
         <v>3</v>
       </c>
       <c r="F25" t="s">

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F785AA6-A4A5-4E44-962D-7D34AC54879F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EBCE94-63D1-EC4A-A44A-24E78773F3CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" activeTab="1" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -1839,8 +1839,10 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1848,10 +1850,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2175,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2255,17 +2255,17 @@
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
       <c r="R2"/>
     </row>
     <row r="3" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2289,17 +2289,17 @@
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2323,17 +2323,17 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
       <c r="R4"/>
     </row>
     <row r="5" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2357,17 +2357,17 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2391,17 +2391,17 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
       <c r="R6"/>
     </row>
     <row r="7" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2425,17 +2425,17 @@
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
       <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2459,17 +2459,17 @@
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
       <c r="R8"/>
     </row>
     <row r="9" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2493,17 +2493,17 @@
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2527,17 +2527,17 @@
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
       <c r="R10"/>
     </row>
     <row r="11" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2563,17 +2563,17 @@
         <v>495</v>
       </c>
       <c r="H11" s="19"/>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2599,17 +2599,17 @@
         <v>495</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
       <c r="R12"/>
     </row>
     <row r="13" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2635,17 +2635,17 @@
         <v>495</v>
       </c>
       <c r="H13" s="19"/>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
       <c r="R14"/>
     </row>
     <row r="15" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2705,15 +2705,15 @@
         <v>495</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
       <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2737,17 +2737,17 @@
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2771,17 +2771,17 @@
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
       <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2805,17 +2805,17 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="48" t="s">
+      <c r="I18" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2839,17 +2839,17 @@
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="49" t="s">
+      <c r="I19" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
       <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2873,17 +2873,17 @@
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2907,17 +2907,17 @@
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
       <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2941,17 +2941,17 @@
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2975,17 +2975,17 @@
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3009,17 +3009,17 @@
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3043,17 +3043,17 @@
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3077,17 +3077,17 @@
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3111,17 +3111,17 @@
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
       <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3145,17 +3145,17 @@
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3179,17 +3179,17 @@
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="49" t="s">
+      <c r="I29" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
       <c r="R29" s="9"/>
     </row>
     <row r="30" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3215,17 +3215,17 @@
         <v>470</v>
       </c>
       <c r="H30" s="22"/>
-      <c r="I30" s="48" t="s">
+      <c r="I30" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
       <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3251,17 +3251,17 @@
         <v>470</v>
       </c>
       <c r="H31" s="22"/>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3285,17 +3285,17 @@
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -3829,7 +3829,7 @@
         <v>503</v>
       </c>
       <c r="H56" s="38"/>
-      <c r="I56" s="51" t="s">
+      <c r="I56" s="48" t="s">
         <v>504</v>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
         <v>503</v>
       </c>
       <c r="H57" s="38"/>
-      <c r="I57" s="51" t="s">
+      <c r="I57" s="48" t="s">
         <v>504</v>
       </c>
     </row>
@@ -3879,12 +3879,15 @@
       <c r="H58" s="38">
         <v>11524</v>
       </c>
-      <c r="I58" s="51" t="s">
+      <c r="I58" s="48" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
+      <c r="H59" s="38">
+        <v>12011</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
@@ -3903,37 +3906,37 @@
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="I6:Q6"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="I9:Q9"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="I17:Q17"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="I20:Q20"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="I23:Q23"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="I31:Q31"/>
     <mergeCell ref="I32:Q32"/>
     <mergeCell ref="I24:Q24"/>
     <mergeCell ref="I25:Q25"/>
     <mergeCell ref="I26:Q26"/>
     <mergeCell ref="I27:Q27"/>
     <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I9:Q9"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="I6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3943,7 +3946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4D57B-B68B-5E42-9689-ABFDDD3556B4}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3977,9 +3980,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
-      <c r="A2" s="53">
+      <c r="A2" s="50">
         <f>LOOKUP(2, 1/(detail!H:H&lt;&gt;""), detail!H:H)</f>
-        <v>11524</v>
+        <v>12011</v>
       </c>
       <c r="B2" s="27">
         <f>COUNT(detail!A2:'detail'!A323)</f>
@@ -4001,7 +4004,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="49"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="46"/>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EBCE94-63D1-EC4A-A44A-24E78773F3CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6313F42-6CE6-3147-89DC-9E48D7123069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="506">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -1247,9 +1247,6 @@
     <t>बाजुरा</t>
   </si>
   <si>
-    <t>बांके</t>
-  </si>
-  <si>
     <t>बारा</t>
   </si>
   <si>
@@ -1545,6 +1542,12 @@
   </si>
   <si>
     <t>दिल्लीमा मार्च ६ (चैत २३) मा गएर तबलिगी जमातको धार्मिक सभामा सहभागी भएर ११ (चैत २८) मार्चमा नेपाल फर्किएका थिए।</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख १९</t>
+  </si>
+  <si>
+    <t>बाँके</t>
   </si>
 </sst>
 </file>
@@ -1844,13 +1847,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2175,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2215,10 +2218,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>16</v>
@@ -2255,17 +2258,17 @@
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
       <c r="R2"/>
     </row>
     <row r="3" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2289,17 +2292,17 @@
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2323,17 +2326,17 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
       <c r="R4"/>
     </row>
     <row r="5" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2357,17 +2360,17 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2391,17 +2394,17 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
       <c r="R6"/>
     </row>
     <row r="7" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2425,17 +2428,17 @@
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2459,17 +2462,17 @@
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
       <c r="R8"/>
     </row>
     <row r="9" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2493,17 +2496,17 @@
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2527,17 +2530,17 @@
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
       <c r="R10"/>
     </row>
     <row r="11" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2560,20 +2563,20 @@
         <v>30</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H11" s="19"/>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2596,20 +2599,20 @@
         <v>30</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
       <c r="R12"/>
     </row>
     <row r="13" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2632,20 +2635,20 @@
         <v>30</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H13" s="19"/>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2669,17 +2672,17 @@
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
       <c r="R14"/>
     </row>
     <row r="15" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2702,18 +2705,18 @@
         <v>32</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2737,17 +2740,17 @@
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2771,17 +2774,17 @@
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
       <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2805,17 +2808,17 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2839,17 +2842,17 @@
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
       <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2873,17 +2876,17 @@
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2907,17 +2910,17 @@
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
       <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2941,17 +2944,17 @@
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2975,17 +2978,17 @@
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="51" t="s">
+      <c r="I23" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3009,17 +3012,17 @@
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="53" t="s">
+      <c r="I24" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3043,17 +3046,17 @@
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3077,17 +3080,17 @@
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="53" t="s">
+      <c r="I26" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3111,17 +3114,17 @@
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
       <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3145,17 +3148,17 @@
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="53" t="s">
+      <c r="I28" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3179,17 +3182,17 @@
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
       <c r="R29" s="9"/>
     </row>
     <row r="30" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3212,20 +3215,20 @@
         <v>37</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H30" s="22"/>
-      <c r="I30" s="53" t="s">
+      <c r="I30" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
       <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3248,20 +3251,20 @@
         <v>37</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H31" s="22"/>
-      <c r="I31" s="51" t="s">
+      <c r="I31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3285,17 +3288,17 @@
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="53" t="s">
+      <c r="I32" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -3655,7 +3658,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C49" s="44">
         <v>26</v>
@@ -3672,7 +3675,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3680,7 +3683,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C50" s="44">
         <v>62</v>
@@ -3692,7 +3695,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
@@ -3714,10 +3717,10 @@
         <v>4</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3737,10 +3740,10 @@
         <v>4</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3748,7 +3751,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C53" s="44">
         <v>50</v>
@@ -3760,10 +3763,10 @@
         <v>4</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3783,7 +3786,7 @@
         <v>4</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3803,7 +3806,7 @@
         <v>4</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H55" s="38">
         <v>10807</v>
@@ -3814,7 +3817,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C56" s="44">
         <v>57</v>
@@ -3826,11 +3829,11 @@
         <v>4</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H56" s="38"/>
       <c r="I56" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3838,7 +3841,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C57" s="44">
         <v>43</v>
@@ -3850,11 +3853,11 @@
         <v>4</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H57" s="38"/>
       <c r="I57" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3874,23 +3877,60 @@
         <v>4</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H58" s="38">
         <v>11524</v>
       </c>
       <c r="I58" s="48" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="C59" s="38">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="20" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
       <c r="H59" s="38">
-        <v>12011</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
+        <v>12013</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C60" s="38">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="H60" s="38">
+        <v>13098</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
@@ -3906,37 +3946,37 @@
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="I6:Q6"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I9:Q9"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="I31:Q31"/>
     <mergeCell ref="I32:Q32"/>
     <mergeCell ref="I24:Q24"/>
     <mergeCell ref="I25:Q25"/>
     <mergeCell ref="I26:Q26"/>
     <mergeCell ref="I27:Q27"/>
     <mergeCell ref="I28:Q28"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="I23:Q23"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="I31:Q31"/>
-    <mergeCell ref="I17:Q17"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="I20:Q20"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="I9:Q9"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="I6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3944,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4D57B-B68B-5E42-9689-ABFDDD3556B4}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3957,11 +3997,12 @@
     <col min="3" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="26" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>43</v>
@@ -3979,14 +4020,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
       <c r="A2" s="50">
         <f>LOOKUP(2, 1/(detail!H:H&lt;&gt;""), detail!H:H)</f>
-        <v>12011</v>
+        <v>13098</v>
       </c>
       <c r="B2" s="27">
         <f>COUNT(detail!A2:'detail'!A323)</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="28">
         <f>COUNTIF(detail!E2:'detail'!E257, "निको")</f>
@@ -4000,18 +4041,19 @@
       </c>
       <c r="F2" s="31">
         <f>B2-C2</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G2" s="50"/>
+    </row>
+    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -4097,9 +4139,9 @@
       <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A8,map_update!$B$4:$B$78,0)),"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4574,9 +4616,9 @@
       <c r="A61" t="s">
         <v>110</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B61">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A61,map_update!$B$4:$B$78,0)),"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4724,7 +4766,7 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4809,7 +4851,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -4959,14 +5001,14 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
-        <v>405</v>
+        <v>505</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="41" t="str">
+      <c r="C10" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4989,7 +5031,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -5019,7 +5061,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -5034,7 +5076,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -5065,7 +5107,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
@@ -5089,7 +5131,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -5101,7 +5143,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -5113,7 +5155,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -5125,7 +5167,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -5137,7 +5179,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -5149,7 +5191,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -5173,7 +5215,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -5185,7 +5227,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
@@ -5197,7 +5239,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -5209,7 +5251,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
@@ -5221,7 +5263,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
@@ -5233,7 +5275,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
@@ -5245,7 +5287,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
@@ -5257,7 +5299,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -5269,7 +5311,7 @@
     </row>
     <row r="31" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B31" t="s">
         <v>78</v>
@@ -5283,7 +5325,7 @@
     </row>
     <row r="32" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B32" t="s">
         <v>79</v>
@@ -5309,7 +5351,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B34" t="s">
         <v>81</v>
@@ -5333,7 +5375,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B36" t="s">
         <v>83</v>
@@ -5346,7 +5388,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B37" t="s">
         <v>84</v>
@@ -5370,7 +5412,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
@@ -5382,7 +5424,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B40" t="s">
         <v>87</v>
@@ -5394,7 +5436,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B41" t="s">
         <v>88</v>
@@ -5406,7 +5448,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B42" t="s">
         <v>89</v>
@@ -5418,7 +5460,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B43" t="s">
         <v>90</v>
@@ -5430,7 +5472,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B44" t="s">
         <v>91</v>
@@ -5442,7 +5484,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B45" t="s">
         <v>92</v>
@@ -5454,7 +5496,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
@@ -5466,7 +5508,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B47" t="s">
         <v>94</v>
@@ -5478,7 +5520,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
@@ -5490,7 +5532,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B49" t="s">
         <v>96</v>
@@ -5502,7 +5544,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B50" t="s">
         <v>97</v>
@@ -5514,7 +5556,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B51" t="s">
         <v>98</v>
@@ -5526,7 +5568,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B52" t="s">
         <v>99</v>
@@ -5538,7 +5580,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B53" t="s">
         <v>100</v>
@@ -5550,7 +5592,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B54" t="s">
         <v>101</v>
@@ -5562,7 +5604,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B55" t="s">
         <v>102</v>
@@ -5586,7 +5628,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s">
         <v>104</v>
@@ -5598,7 +5640,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s">
         <v>105</v>
@@ -5611,7 +5653,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s">
         <v>106</v>
@@ -5635,7 +5677,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B61" t="s">
         <v>108</v>
@@ -5647,7 +5689,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s">
         <v>109</v>
@@ -5659,19 +5701,19 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="41" t="str">
+      <c r="C63" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A63) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A63))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s">
         <v>111</v>
@@ -5683,7 +5725,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s">
         <v>112</v>
@@ -5695,7 +5737,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s">
         <v>113</v>
@@ -5707,7 +5749,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B67" t="s">
         <v>114</v>
@@ -5719,7 +5761,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B68" t="s">
         <v>115</v>
@@ -5731,7 +5773,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B69" t="s">
         <v>116</v>
@@ -5743,7 +5785,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="41" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B70" t="s">
         <v>117</v>
@@ -5755,7 +5797,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B71" t="s">
         <v>118</v>
@@ -5767,7 +5809,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B72" t="s">
         <v>119</v>
@@ -5779,7 +5821,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B73" t="s">
         <v>120</v>
@@ -5791,7 +5833,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="41" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B74" t="s">
         <v>121</v>
@@ -5803,7 +5845,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B75" t="s">
         <v>122</v>
@@ -5815,7 +5857,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B76" t="s">
         <v>123</v>
@@ -5828,7 +5870,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="41" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B77" t="s">
         <v>124</v>
@@ -8158,7 +8200,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8190,10 +8232,10 @@
         <v>392</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -8218,7 +8260,7 @@
         <v>147</v>
       </c>
       <c r="H2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -8248,7 +8290,7 @@
         <v>159</v>
       </c>
       <c r="H3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -8276,7 +8318,7 @@
         <v>191</v>
       </c>
       <c r="H4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -8304,7 +8346,7 @@
         <v>176</v>
       </c>
       <c r="H5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -8332,10 +8374,10 @@
         <v>250</v>
       </c>
       <c r="H6" t="s">
-        <v>489</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
+        <v>488</v>
+      </c>
+      <c r="I6" s="38">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -8360,7 +8402,7 @@
         <v>261</v>
       </c>
       <c r="H7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -8388,7 +8430,7 @@
         <v>293</v>
       </c>
       <c r="H8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -8416,7 +8458,7 @@
         <v>284</v>
       </c>
       <c r="H9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -8446,7 +8488,7 @@
         <v>322</v>
       </c>
       <c r="H10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -8476,7 +8518,7 @@
         <v>331</v>
       </c>
       <c r="H11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -8506,7 +8548,7 @@
         <v>201</v>
       </c>
       <c r="H12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -8534,7 +8576,7 @@
         <v>142</v>
       </c>
       <c r="H13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -8564,7 +8606,7 @@
         <v>215</v>
       </c>
       <c r="H14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I14">
         <v>13</v>
@@ -8594,7 +8636,7 @@
         <v>372</v>
       </c>
       <c r="H15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I15">
         <v>14</v>
@@ -8622,7 +8664,7 @@
         <v>366</v>
       </c>
       <c r="H16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I16">
         <v>15</v>
@@ -8650,7 +8692,7 @@
         <v>304</v>
       </c>
       <c r="H17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I17">
         <v>16</v>
@@ -8678,7 +8720,7 @@
         <v>240</v>
       </c>
       <c r="H18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I18">
         <v>17</v>
@@ -8702,7 +8744,7 @@
         <v>211</v>
       </c>
       <c r="H19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I19">
         <v>18</v>
@@ -8729,7 +8771,7 @@
         <v>308</v>
       </c>
       <c r="H20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I20">
         <v>19</v>
@@ -8753,7 +8795,7 @@
         <v>283</v>
       </c>
       <c r="H21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I21">
         <v>20</v>
@@ -8777,7 +8819,7 @@
         <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I22">
         <v>21</v>
@@ -8801,7 +8843,7 @@
         <v>154</v>
       </c>
       <c r="H23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I23">
         <v>22</v>
@@ -8828,7 +8870,7 @@
         <v>174</v>
       </c>
       <c r="H24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I24">
         <v>23</v>
@@ -8852,7 +8894,7 @@
         <v>189</v>
       </c>
       <c r="H25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I25">
         <v>24</v>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6313F42-6CE6-3147-89DC-9E48D7123069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDF5304-54FE-6E42-A05F-543449F5BFF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" activeTab="2" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="509">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -1548,6 +1548,15 @@
   </si>
   <si>
     <t>बाँके</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख २१</t>
+  </si>
+  <si>
+    <t>नेपालगंजमा पहिले संक्रमितका छिमेकि</t>
   </si>
 </sst>
 </file>
@@ -1847,13 +1856,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2176,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2258,17 +2267,17 @@
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
       <c r="R2"/>
     </row>
     <row r="3" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2292,17 +2301,17 @@
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2326,17 +2335,17 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
       <c r="R4"/>
     </row>
     <row r="5" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2360,17 +2369,17 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2394,17 +2403,17 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
       <c r="R6"/>
     </row>
     <row r="7" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2428,17 +2437,17 @@
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
       <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2462,17 +2471,17 @@
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
       <c r="R8"/>
     </row>
     <row r="9" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2496,17 +2505,17 @@
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2530,17 +2539,17 @@
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
       <c r="R10"/>
     </row>
     <row r="11" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2566,17 +2575,17 @@
         <v>494</v>
       </c>
       <c r="H11" s="19"/>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2602,17 +2611,17 @@
         <v>494</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
       <c r="R12"/>
     </row>
     <row r="13" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2638,17 +2647,17 @@
         <v>494</v>
       </c>
       <c r="H13" s="19"/>
-      <c r="I13" s="52" t="s">
+      <c r="I13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2672,17 +2681,17 @@
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="53" t="s">
+      <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
       <c r="R14"/>
     </row>
     <row r="15" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2708,15 +2717,15 @@
         <v>494</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
       <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2740,17 +2749,17 @@
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2774,17 +2783,17 @@
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
       <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2808,17 +2817,17 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2842,17 +2851,17 @@
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
       <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,17 +2885,17 @@
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2910,17 +2919,17 @@
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
       <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2944,17 +2953,17 @@
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2978,17 +2987,17 @@
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="52" t="s">
+      <c r="I23" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3012,17 +3021,17 @@
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="51" t="s">
+      <c r="I24" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3046,17 +3055,17 @@
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3080,17 +3089,17 @@
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3114,17 +3123,17 @@
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
       <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3148,17 +3157,17 @@
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="51" t="s">
+      <c r="I28" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3182,17 +3191,17 @@
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
       <c r="R29" s="9"/>
     </row>
     <row r="30" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3218,17 +3227,17 @@
         <v>469</v>
       </c>
       <c r="H30" s="22"/>
-      <c r="I30" s="51" t="s">
+      <c r="I30" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
       <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3254,17 +3263,17 @@
         <v>469</v>
       </c>
       <c r="H31" s="22"/>
-      <c r="I31" s="52" t="s">
+      <c r="I31" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3288,17 +3297,17 @@
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="51" t="s">
+      <c r="I32" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -3932,51 +3941,272 @@
         <v>13098</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
+    <row r="61" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C61" s="38">
+        <v>36</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C62" s="38">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C63" s="38">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C64" s="38">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C65" s="38">
+        <v>37</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C66" s="38">
+        <v>55</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A67" s="38">
+        <v>66</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C67" s="38">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A68" s="43">
+        <v>67</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C68" s="38">
+        <v>36</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C69" s="38">
+        <v>50</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A70" s="43">
+        <v>69</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C70" s="38">
+        <v>58</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="H70" s="38">
+        <v>13414</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>508</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:R34">
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="I6:Q6"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="I9:Q9"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="I17:Q17"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="I20:Q20"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="I23:Q23"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="I31:Q31"/>
     <mergeCell ref="I32:Q32"/>
     <mergeCell ref="I24:Q24"/>
     <mergeCell ref="I25:Q25"/>
     <mergeCell ref="I26:Q26"/>
     <mergeCell ref="I27:Q27"/>
     <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I9:Q9"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="I6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4023,11 +4253,11 @@
     <row r="2" spans="1:7" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
       <c r="A2" s="50">
         <f>LOOKUP(2, 1/(detail!H:H&lt;&gt;""), detail!H:H)</f>
-        <v>13098</v>
+        <v>13414</v>
       </c>
       <c r="B2" s="27">
         <f>COUNT(detail!A2:'detail'!A323)</f>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C2" s="28">
         <f>COUNTIF(detail!E2:'detail'!E257, "निको")</f>
@@ -4041,7 +4271,7 @@
       </c>
       <c r="F2" s="31">
         <f>B2-C2</f>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G2" s="50"/>
     </row>
@@ -4067,7 +4297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F40CF7-9584-3D43-9273-49D4405146AF}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -4141,7 +4371,7 @@
       </c>
       <c r="B8">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A8,map_update!$B$4:$B$78,0)),"")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4555,7 +4785,7 @@
       </c>
       <c r="B54">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A54,map_update!$B$4:$B$78,0)),"")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -5008,7 +5238,7 @@
       </c>
       <c r="C10" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10))</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -5623,7 +5853,7 @@
       </c>
       <c r="C56" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A56) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A56))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -5904,7 +6134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C54A67-FFF9-F147-A547-2706EC5F8302}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -5927,7 +6157,7 @@
         <v>135</v>
       </c>
       <c r="B2" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A2, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A2, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5936,7 +6166,7 @@
         <v>136</v>
       </c>
       <c r="B3" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A3, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A3, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5945,7 +6175,7 @@
         <v>137</v>
       </c>
       <c r="B4" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A4, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A4, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5954,7 +6184,7 @@
         <v>138</v>
       </c>
       <c r="B5" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A5, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A5, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5963,7 +6193,7 @@
         <v>139</v>
       </c>
       <c r="B6" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A6, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A6, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5972,7 +6202,7 @@
         <v>140</v>
       </c>
       <c r="B7" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A7, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A7, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5981,7 +6211,7 @@
         <v>141</v>
       </c>
       <c r="B8" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A8, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A8, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -5990,7 +6220,7 @@
         <v>142</v>
       </c>
       <c r="B9">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A9, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A9, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>81</v>
       </c>
     </row>
@@ -5999,7 +6229,7 @@
         <v>143</v>
       </c>
       <c r="B10" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A10, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A10, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6008,7 +6238,7 @@
         <v>144</v>
       </c>
       <c r="B11" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A11, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A11, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6017,7 +6247,7 @@
         <v>145</v>
       </c>
       <c r="B12" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A12, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A12, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6026,7 +6256,7 @@
         <v>146</v>
       </c>
       <c r="B13" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A13, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A13, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6035,7 +6265,7 @@
         <v>147</v>
       </c>
       <c r="B14">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A14, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A14, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>11</v>
       </c>
     </row>
@@ -6044,7 +6274,7 @@
         <v>148</v>
       </c>
       <c r="B15" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A15, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A15, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6053,7 +6283,7 @@
         <v>149</v>
       </c>
       <c r="B16" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A16, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A16, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6062,7 +6292,7 @@
         <v>150</v>
       </c>
       <c r="B17" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A17, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A17, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6071,7 +6301,7 @@
         <v>151</v>
       </c>
       <c r="B18" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A18, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A18, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6080,7 +6310,7 @@
         <v>152</v>
       </c>
       <c r="B19" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A19, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A19, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6089,7 +6319,7 @@
         <v>153</v>
       </c>
       <c r="B20" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A20, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A20, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6098,7 +6328,7 @@
         <v>154</v>
       </c>
       <c r="B21">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A21, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A21, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>6</v>
       </c>
     </row>
@@ -6107,7 +6337,7 @@
         <v>155</v>
       </c>
       <c r="B22" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A22, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A22, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6116,7 +6346,7 @@
         <v>156</v>
       </c>
       <c r="B23" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A23, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A23, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6125,7 +6355,7 @@
         <v>157</v>
       </c>
       <c r="B24" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A24, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A24, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6134,7 +6364,7 @@
         <v>158</v>
       </c>
       <c r="B25" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A25, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A25, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6143,7 +6373,7 @@
         <v>159</v>
       </c>
       <c r="B26">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A26, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A26, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>49</v>
       </c>
     </row>
@@ -6152,7 +6382,7 @@
         <v>160</v>
       </c>
       <c r="B27" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A27, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A27, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6161,7 +6391,7 @@
         <v>161</v>
       </c>
       <c r="B28" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A28, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A28, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6170,7 +6400,7 @@
         <v>162</v>
       </c>
       <c r="B29" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A29, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A29, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6179,7 +6409,7 @@
         <v>163</v>
       </c>
       <c r="B30" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A30, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A30, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6188,7 +6418,7 @@
         <v>164</v>
       </c>
       <c r="B31" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A31, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A31, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6197,7 +6427,7 @@
         <v>165</v>
       </c>
       <c r="B32" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A32, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A32, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6206,7 +6436,7 @@
         <v>166</v>
       </c>
       <c r="B33" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A33, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A33, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6215,7 +6445,7 @@
         <v>167</v>
       </c>
       <c r="B34" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A34, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A34, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6224,7 +6454,7 @@
         <v>168</v>
       </c>
       <c r="B35" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A35, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A35, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6233,7 +6463,7 @@
         <v>169</v>
       </c>
       <c r="B36" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A36, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A36, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6242,7 +6472,7 @@
         <v>170</v>
       </c>
       <c r="B37" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A37, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A37, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6251,7 +6481,7 @@
         <v>171</v>
       </c>
       <c r="B38" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A38, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A38, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6260,7 +6490,7 @@
         <v>172</v>
       </c>
       <c r="B39" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A39, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A39, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6269,7 +6499,7 @@
         <v>173</v>
       </c>
       <c r="B40">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A40, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A40, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>3</v>
       </c>
     </row>
@@ -6278,7 +6508,7 @@
         <v>174</v>
       </c>
       <c r="B41">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A41, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A41, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>5</v>
       </c>
     </row>
@@ -6287,7 +6517,7 @@
         <v>175</v>
       </c>
       <c r="B42" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A42, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A42, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6296,7 +6526,7 @@
         <v>176</v>
       </c>
       <c r="B43">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A43, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A43, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>2</v>
       </c>
     </row>
@@ -6305,7 +6535,7 @@
         <v>177</v>
       </c>
       <c r="B44" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A44, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A44, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6314,7 +6544,7 @@
         <v>178</v>
       </c>
       <c r="B45" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A45, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A45, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6323,7 +6553,7 @@
         <v>179</v>
       </c>
       <c r="B46" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A46, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A46, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6332,7 +6562,7 @@
         <v>180</v>
       </c>
       <c r="B47" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A47, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A47, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6341,7 +6571,7 @@
         <v>181</v>
       </c>
       <c r="B48" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A48, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A48, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6350,7 +6580,7 @@
         <v>182</v>
       </c>
       <c r="B49" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A49, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A49, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6359,7 +6589,7 @@
         <v>183</v>
       </c>
       <c r="B50" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A50, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A50, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6368,7 +6598,7 @@
         <v>184</v>
       </c>
       <c r="B51" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A51, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A51, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6377,7 +6607,7 @@
         <v>185</v>
       </c>
       <c r="B52" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A52, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A52, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6386,7 +6616,7 @@
         <v>186</v>
       </c>
       <c r="B53" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A53, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A53, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6395,7 +6625,7 @@
         <v>187</v>
       </c>
       <c r="B54" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A54, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A54, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6404,7 +6634,7 @@
         <v>188</v>
       </c>
       <c r="B55" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A55, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A55, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6413,7 +6643,7 @@
         <v>189</v>
       </c>
       <c r="B56">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A56, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A56, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>3</v>
       </c>
     </row>
@@ -6422,7 +6652,7 @@
         <v>190</v>
       </c>
       <c r="B57" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A57, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A57, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6431,7 +6661,7 @@
         <v>191</v>
       </c>
       <c r="B58">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A58, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A58, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>4</v>
       </c>
     </row>
@@ -6440,7 +6670,7 @@
         <v>192</v>
       </c>
       <c r="B59" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A59, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A59, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6449,7 +6679,7 @@
         <v>193</v>
       </c>
       <c r="B60" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A60, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A60, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6458,7 +6688,7 @@
         <v>194</v>
       </c>
       <c r="B61" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A61, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A61, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6467,7 +6697,7 @@
         <v>195</v>
       </c>
       <c r="B62" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A62, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A62, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6476,7 +6706,7 @@
         <v>196</v>
       </c>
       <c r="B63" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A63, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A63, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6485,7 +6715,7 @@
         <v>197</v>
       </c>
       <c r="B64" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A64, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A64, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6494,7 +6724,7 @@
         <v>198</v>
       </c>
       <c r="B65" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A65, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A65, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6503,7 +6733,7 @@
         <v>199</v>
       </c>
       <c r="B66" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A66, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A66, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6512,7 +6742,7 @@
         <v>200</v>
       </c>
       <c r="B67" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A67, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A67, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6521,7 +6751,7 @@
         <v>201</v>
       </c>
       <c r="B68">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A68, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A68, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>18</v>
       </c>
     </row>
@@ -6530,7 +6760,7 @@
         <v>202</v>
       </c>
       <c r="B69" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A69, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A69, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6539,7 +6769,7 @@
         <v>203</v>
       </c>
       <c r="B70" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A70, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A70, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6548,7 +6778,7 @@
         <v>204</v>
       </c>
       <c r="B71" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A71, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A71, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6557,7 +6787,7 @@
         <v>205</v>
       </c>
       <c r="B72" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A72, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A72, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6566,7 +6796,7 @@
         <v>206</v>
       </c>
       <c r="B73" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A73, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A73, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6575,7 +6805,7 @@
         <v>207</v>
       </c>
       <c r="B74" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A74, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A74, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6584,7 +6814,7 @@
         <v>208</v>
       </c>
       <c r="B75" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A75, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A75, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6593,7 +6823,7 @@
         <v>209</v>
       </c>
       <c r="B76" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A76, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A76, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6602,7 +6832,7 @@
         <v>210</v>
       </c>
       <c r="B77" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A77, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A77, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6611,7 +6841,7 @@
         <v>211</v>
       </c>
       <c r="B78">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A78, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A78, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>1</v>
       </c>
     </row>
@@ -6620,7 +6850,7 @@
         <v>212</v>
       </c>
       <c r="B79" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A79, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A79, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6629,7 +6859,7 @@
         <v>213</v>
       </c>
       <c r="B80" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A80, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A80, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6638,7 +6868,7 @@
         <v>214</v>
       </c>
       <c r="B81" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A81, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A81, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6647,7 +6877,7 @@
         <v>215</v>
       </c>
       <c r="B82">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A82, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A82, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>700</v>
       </c>
     </row>
@@ -6656,7 +6886,7 @@
         <v>216</v>
       </c>
       <c r="B83" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A83, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A83, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6665,7 +6895,7 @@
         <v>217</v>
       </c>
       <c r="B84" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A84, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A84, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6674,7 +6904,7 @@
         <v>218</v>
       </c>
       <c r="B85" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A85, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A85, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6683,7 +6913,7 @@
         <v>219</v>
       </c>
       <c r="B86" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A86, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A86, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6692,7 +6922,7 @@
         <v>220</v>
       </c>
       <c r="B87" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A87, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A87, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6701,7 +6931,7 @@
         <v>221</v>
       </c>
       <c r="B88" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A88, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A88, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6710,7 +6940,7 @@
         <v>222</v>
       </c>
       <c r="B89" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A89, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A89, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6719,7 +6949,7 @@
         <v>223</v>
       </c>
       <c r="B90" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A90, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A90, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6728,7 +6958,7 @@
         <v>224</v>
       </c>
       <c r="B91" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A91, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A91, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6737,7 +6967,7 @@
         <v>225</v>
       </c>
       <c r="B92" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A92, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A92, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6746,7 +6976,7 @@
         <v>226</v>
       </c>
       <c r="B93" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A93, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A93, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6755,7 +6985,7 @@
         <v>227</v>
       </c>
       <c r="B94" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A94, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A94, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6764,7 +6994,7 @@
         <v>228</v>
       </c>
       <c r="B95" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A95, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A95, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6773,7 +7003,7 @@
         <v>229</v>
       </c>
       <c r="B96" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A96, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A96, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6782,7 +7012,7 @@
         <v>230</v>
       </c>
       <c r="B97" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A97, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A97, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6791,7 +7021,7 @@
         <v>231</v>
       </c>
       <c r="B98" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A98, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A98, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6800,7 +7030,7 @@
         <v>232</v>
       </c>
       <c r="B99" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A99, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A99, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6809,7 +7039,7 @@
         <v>233</v>
       </c>
       <c r="B100" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A100, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A100, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6818,7 +7048,7 @@
         <v>234</v>
       </c>
       <c r="B101" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A101, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A101, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6827,7 +7057,7 @@
         <v>235</v>
       </c>
       <c r="B102" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A102, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A102, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6836,7 +7066,7 @@
         <v>236</v>
       </c>
       <c r="B103" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A103, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A103, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6845,7 +7075,7 @@
         <v>237</v>
       </c>
       <c r="B104" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A104, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A104, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6854,7 +7084,7 @@
         <v>238</v>
       </c>
       <c r="B105" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A105, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A105, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6863,7 +7093,7 @@
         <v>239</v>
       </c>
       <c r="B106" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A106, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A106, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6872,7 +7102,7 @@
         <v>240</v>
       </c>
       <c r="B107">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A107, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A107, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>22</v>
       </c>
     </row>
@@ -6881,7 +7111,7 @@
         <v>241</v>
       </c>
       <c r="B108" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A108, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A108, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6890,7 +7120,7 @@
         <v>242</v>
       </c>
       <c r="B109" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A109, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A109, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6899,7 +7129,7 @@
         <v>243</v>
       </c>
       <c r="B110" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A110, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A110, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6908,7 +7138,7 @@
         <v>244</v>
       </c>
       <c r="B111" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A111, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A111, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6917,7 +7147,7 @@
         <v>245</v>
       </c>
       <c r="B112" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A112, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A112, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6926,7 +7156,7 @@
         <v>246</v>
       </c>
       <c r="B113" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A113, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A113, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6935,7 +7165,7 @@
         <v>247</v>
       </c>
       <c r="B114" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A114, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A114, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6944,7 +7174,7 @@
         <v>248</v>
       </c>
       <c r="B115" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A115, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A115, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6953,7 +7183,7 @@
         <v>249</v>
       </c>
       <c r="B116" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A116, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A116, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6962,7 +7192,7 @@
         <v>250</v>
       </c>
       <c r="B117">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A117, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A117, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>3</v>
       </c>
     </row>
@@ -6971,7 +7201,7 @@
         <v>251</v>
       </c>
       <c r="B118" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A118, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A118, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6980,7 +7210,7 @@
         <v>252</v>
       </c>
       <c r="B119" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A119, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A119, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6989,7 +7219,7 @@
         <v>253</v>
       </c>
       <c r="B120" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A120, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A120, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -6998,7 +7228,7 @@
         <v>254</v>
       </c>
       <c r="B121" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A121, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A121, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7007,7 +7237,7 @@
         <v>255</v>
       </c>
       <c r="B122" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A122, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A122, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7016,7 +7246,7 @@
         <v>256</v>
       </c>
       <c r="B123" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A123, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A123, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7025,7 +7255,7 @@
         <v>257</v>
       </c>
       <c r="B124" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A124, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A124, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7034,7 +7264,7 @@
         <v>258</v>
       </c>
       <c r="B125" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A125, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A125, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7043,7 +7273,7 @@
         <v>259</v>
       </c>
       <c r="B126" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A126, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A126, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7052,7 +7282,7 @@
         <v>260</v>
       </c>
       <c r="B127" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A127, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A127, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7061,7 +7291,7 @@
         <v>261</v>
       </c>
       <c r="B128">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A128, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A128, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>42</v>
       </c>
     </row>
@@ -7070,7 +7300,7 @@
         <v>262</v>
       </c>
       <c r="B129" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A129, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A129, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7079,7 +7309,7 @@
         <v>263</v>
       </c>
       <c r="B130" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A130, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A130, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7088,7 +7318,7 @@
         <v>264</v>
       </c>
       <c r="B131" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A131, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A131, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7097,7 +7327,7 @@
         <v>265</v>
       </c>
       <c r="B132" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A132, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A132, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7106,7 +7336,7 @@
         <v>266</v>
       </c>
       <c r="B133" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A133, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A133, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7115,7 +7345,7 @@
         <v>267</v>
       </c>
       <c r="B134" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A134, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A134, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7124,7 +7354,7 @@
         <v>268</v>
       </c>
       <c r="B135" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A135, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A135, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7133,7 +7363,7 @@
         <v>269</v>
       </c>
       <c r="B136" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A136, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A136, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7142,7 +7372,7 @@
         <v>270</v>
       </c>
       <c r="B137" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A137, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A137, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7151,7 +7381,7 @@
         <v>271</v>
       </c>
       <c r="B138" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A138, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A138, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7160,7 +7390,7 @@
         <v>272</v>
       </c>
       <c r="B139" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A139, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A139, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7169,7 +7399,7 @@
         <v>273</v>
       </c>
       <c r="B140" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A140, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A140, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7178,7 +7408,7 @@
         <v>274</v>
       </c>
       <c r="B141" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A141, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A141, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7187,7 +7417,7 @@
         <v>275</v>
       </c>
       <c r="B142" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A142, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A142, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7196,7 +7426,7 @@
         <v>276</v>
       </c>
       <c r="B143" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A143, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A143, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7205,7 +7435,7 @@
         <v>277</v>
       </c>
       <c r="B144" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A144, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A144, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7214,7 +7444,7 @@
         <v>278</v>
       </c>
       <c r="B145" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A145, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A145, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7223,7 +7453,7 @@
         <v>279</v>
       </c>
       <c r="B146" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A146, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A146, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7232,7 +7462,7 @@
         <v>280</v>
       </c>
       <c r="B147" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A147, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A147, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7241,7 +7471,7 @@
         <v>281</v>
       </c>
       <c r="B148" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A148, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A148, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7250,7 +7480,7 @@
         <v>282</v>
       </c>
       <c r="B149" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A149, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A149, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7259,7 +7489,7 @@
         <v>283</v>
       </c>
       <c r="B150">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A150, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A150, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>2</v>
       </c>
     </row>
@@ -7268,7 +7498,7 @@
         <v>284</v>
       </c>
       <c r="B151">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A151, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A151, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>1</v>
       </c>
     </row>
@@ -7277,7 +7507,7 @@
         <v>285</v>
       </c>
       <c r="B152" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A152, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A152, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7286,7 +7516,7 @@
         <v>286</v>
       </c>
       <c r="B153" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A153, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A153, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7295,7 +7525,7 @@
         <v>287</v>
       </c>
       <c r="B154" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A154, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A154, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7304,7 +7534,7 @@
         <v>288</v>
       </c>
       <c r="B155" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A155, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A155, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7313,7 +7543,7 @@
         <v>289</v>
       </c>
       <c r="B156" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A156, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A156, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7322,7 +7552,7 @@
         <v>290</v>
       </c>
       <c r="B157" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A157, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A157, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7331,7 +7561,7 @@
         <v>291</v>
       </c>
       <c r="B158" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A158, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A158, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7340,7 +7570,7 @@
         <v>292</v>
       </c>
       <c r="B159" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A159, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A159, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7349,7 +7579,7 @@
         <v>293</v>
       </c>
       <c r="B160">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A160, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A160, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>3</v>
       </c>
     </row>
@@ -7358,7 +7588,7 @@
         <v>294</v>
       </c>
       <c r="B161" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A161, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A161, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7367,7 +7597,7 @@
         <v>295</v>
       </c>
       <c r="B162" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A162, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A162, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7376,7 +7606,7 @@
         <v>296</v>
       </c>
       <c r="B163" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A163, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A163, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7385,7 +7615,7 @@
         <v>297</v>
       </c>
       <c r="B164" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A164, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A164, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7394,7 +7624,7 @@
         <v>298</v>
       </c>
       <c r="B165" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A165, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A165, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7403,7 +7633,7 @@
         <v>299</v>
       </c>
       <c r="B166" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A166, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A166, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7412,7 +7642,7 @@
         <v>300</v>
       </c>
       <c r="B167" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A167, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A167, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7421,7 +7651,7 @@
         <v>301</v>
       </c>
       <c r="B168" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A168, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A168, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7430,7 +7660,7 @@
         <v>302</v>
       </c>
       <c r="B169" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A169, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A169, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7439,7 +7669,7 @@
         <v>303</v>
       </c>
       <c r="B170" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A170, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A170, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7448,7 +7678,7 @@
         <v>304</v>
       </c>
       <c r="B171">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A171, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A171, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>1</v>
       </c>
     </row>
@@ -7457,7 +7687,7 @@
         <v>305</v>
       </c>
       <c r="B172" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A172, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A172, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7466,7 +7696,7 @@
         <v>306</v>
       </c>
       <c r="B173" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A173, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A173, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7475,7 +7705,7 @@
         <v>307</v>
       </c>
       <c r="B174" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A174, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A174, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7484,7 +7714,7 @@
         <v>308</v>
       </c>
       <c r="B175">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A175, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A175, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>3</v>
       </c>
     </row>
@@ -7493,7 +7723,7 @@
         <v>309</v>
       </c>
       <c r="B176" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A176, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A176, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7502,7 +7732,7 @@
         <v>310</v>
       </c>
       <c r="B177" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A177, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A177, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7511,7 +7741,7 @@
         <v>311</v>
       </c>
       <c r="B178" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A178, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A178, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7520,7 +7750,7 @@
         <v>312</v>
       </c>
       <c r="B179" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A179, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A179, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7529,7 +7759,7 @@
         <v>313</v>
       </c>
       <c r="B180" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A180, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A180, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7538,7 +7768,7 @@
         <v>314</v>
       </c>
       <c r="B181" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A181, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A181, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7547,7 +7777,7 @@
         <v>315</v>
       </c>
       <c r="B182" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A182, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A182, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7556,7 +7786,7 @@
         <v>316</v>
       </c>
       <c r="B183" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A183, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A183, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7565,7 +7795,7 @@
         <v>317</v>
       </c>
       <c r="B184" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A184, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A184, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7574,7 +7804,7 @@
         <v>318</v>
       </c>
       <c r="B185" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A185, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A185, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7583,7 +7813,7 @@
         <v>319</v>
       </c>
       <c r="B186" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A186, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A186, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7592,7 +7822,7 @@
         <v>320</v>
       </c>
       <c r="B187" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A187, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A187, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7601,7 +7831,7 @@
         <v>321</v>
       </c>
       <c r="B188" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A188, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A188, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7610,7 +7840,7 @@
         <v>322</v>
       </c>
       <c r="B189">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A189, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A189, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>27</v>
       </c>
     </row>
@@ -7619,7 +7849,7 @@
         <v>323</v>
       </c>
       <c r="B190" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A190, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A190, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7628,7 +7858,7 @@
         <v>324</v>
       </c>
       <c r="B191" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A191, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A191, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7637,7 +7867,7 @@
         <v>325</v>
       </c>
       <c r="B192" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A192, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A192, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7646,7 +7876,7 @@
         <v>326</v>
       </c>
       <c r="B193" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A193, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A193, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7655,7 +7885,7 @@
         <v>327</v>
       </c>
       <c r="B194" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A194, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A194, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7664,7 +7894,7 @@
         <v>328</v>
       </c>
       <c r="B195" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A195, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A195, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7673,7 +7903,7 @@
         <v>329</v>
       </c>
       <c r="B196" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A196, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A196, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7682,7 +7912,7 @@
         <v>330</v>
       </c>
       <c r="B197" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A197, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A197, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7691,7 +7921,7 @@
         <v>331</v>
       </c>
       <c r="B198">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A198, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A198, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>4</v>
       </c>
     </row>
@@ -7700,7 +7930,7 @@
         <v>332</v>
       </c>
       <c r="B199" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A199, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A199, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7709,7 +7939,7 @@
         <v>333</v>
       </c>
       <c r="B200" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A200, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A200, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7718,7 +7948,7 @@
         <v>334</v>
       </c>
       <c r="B201" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A201, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A201, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7727,7 +7957,7 @@
         <v>335</v>
       </c>
       <c r="B202" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A202, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A202, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7736,7 +7966,7 @@
         <v>336</v>
       </c>
       <c r="B203" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A203, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A203, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7745,7 +7975,7 @@
         <v>337</v>
       </c>
       <c r="B204" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A204, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A204, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7754,7 +7984,7 @@
         <v>338</v>
       </c>
       <c r="B205" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A205, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A205, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7763,7 +7993,7 @@
         <v>339</v>
       </c>
       <c r="B206" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A206, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A206, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7772,7 +8002,7 @@
         <v>340</v>
       </c>
       <c r="B207" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A207, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A207, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7781,7 +8011,7 @@
         <v>341</v>
       </c>
       <c r="B208" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A208, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A208, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7790,7 +8020,7 @@
         <v>342</v>
       </c>
       <c r="B209" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A209, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A209, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7799,7 +8029,7 @@
         <v>343</v>
       </c>
       <c r="B210" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A210, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A210, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7808,7 +8038,7 @@
         <v>344</v>
       </c>
       <c r="B211" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A211, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A211, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7817,7 +8047,7 @@
         <v>345</v>
       </c>
       <c r="B212" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A212, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A212, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7826,7 +8056,7 @@
         <v>346</v>
       </c>
       <c r="B213" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A213, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A213, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7835,7 +8065,7 @@
         <v>347</v>
       </c>
       <c r="B214" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A214, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A214, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7844,7 +8074,7 @@
         <v>348</v>
       </c>
       <c r="B215" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A215, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A215, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7853,7 +8083,7 @@
         <v>349</v>
       </c>
       <c r="B216" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A216, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A216, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7862,7 +8092,7 @@
         <v>350</v>
       </c>
       <c r="B217" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A217, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A217, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7871,7 +8101,7 @@
         <v>351</v>
       </c>
       <c r="B218" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A218, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A218, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7880,7 +8110,7 @@
         <v>352</v>
       </c>
       <c r="B219" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A219, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A219, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7889,7 +8119,7 @@
         <v>353</v>
       </c>
       <c r="B220" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A220, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A220, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7898,7 +8128,7 @@
         <v>354</v>
       </c>
       <c r="B221" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A221, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A221, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7907,7 +8137,7 @@
         <v>355</v>
       </c>
       <c r="B222" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A222, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A222, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7916,7 +8146,7 @@
         <v>356</v>
       </c>
       <c r="B223" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A223, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A223, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7925,7 +8155,7 @@
         <v>357</v>
       </c>
       <c r="B224" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A224, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A224, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7934,7 +8164,7 @@
         <v>358</v>
       </c>
       <c r="B225" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A225, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A225, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7943,7 +8173,7 @@
         <v>359</v>
       </c>
       <c r="B226" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A226, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A226, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7952,7 +8182,7 @@
         <v>360</v>
       </c>
       <c r="B227" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A227, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A227, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7961,7 +8191,7 @@
         <v>361</v>
       </c>
       <c r="B228" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A228, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A228, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7970,7 +8200,7 @@
         <v>362</v>
       </c>
       <c r="B229" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A229, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A229, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7979,7 +8209,7 @@
         <v>363</v>
       </c>
       <c r="B230" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A230, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A230, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7988,7 +8218,7 @@
         <v>364</v>
       </c>
       <c r="B231" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A231, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A231, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -7997,7 +8227,7 @@
         <v>365</v>
       </c>
       <c r="B232" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A232, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A232, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8006,7 +8236,7 @@
         <v>366</v>
       </c>
       <c r="B233">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A233, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A233, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>1</v>
       </c>
     </row>
@@ -8015,7 +8245,7 @@
         <v>367</v>
       </c>
       <c r="B234" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A234, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A234, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8024,7 +8254,7 @@
         <v>368</v>
       </c>
       <c r="B235" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A235, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A235, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8033,7 +8263,7 @@
         <v>369</v>
       </c>
       <c r="B236" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A236, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A236, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8042,7 +8272,7 @@
         <v>370</v>
       </c>
       <c r="B237" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A237, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A237, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8051,7 +8281,7 @@
         <v>371</v>
       </c>
       <c r="B238" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A238, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A238, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8060,7 +8290,7 @@
         <v>372</v>
       </c>
       <c r="B239">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A239, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A239, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v>1000</v>
       </c>
     </row>
@@ -8069,7 +8299,7 @@
         <v>373</v>
       </c>
       <c r="B240" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A240, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A240, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8078,7 +8308,7 @@
         <v>374</v>
       </c>
       <c r="B241" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A241, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A241, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8087,7 +8317,7 @@
         <v>375</v>
       </c>
       <c r="B242" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A242, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A242, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8096,7 +8326,7 @@
         <v>376</v>
       </c>
       <c r="B243" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A243, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A243, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8105,7 +8335,7 @@
         <v>377</v>
       </c>
       <c r="B244" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A244, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A244, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8114,7 +8344,7 @@
         <v>378</v>
       </c>
       <c r="B245" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A245, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A245, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8123,7 +8353,7 @@
         <v>379</v>
       </c>
       <c r="B246" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A246, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A246, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8132,7 +8362,7 @@
         <v>380</v>
       </c>
       <c r="B247" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A247, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A247, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8141,7 +8371,7 @@
         <v>381</v>
       </c>
       <c r="B248" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A248, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A248, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8150,7 +8380,7 @@
         <v>382</v>
       </c>
       <c r="B249" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A249, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A249, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8159,7 +8389,7 @@
         <v>383</v>
       </c>
       <c r="B250" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A250, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A250, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8168,7 +8398,7 @@
         <v>384</v>
       </c>
       <c r="B251" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A251, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A251, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8177,7 +8407,7 @@
         <v>385</v>
       </c>
       <c r="B252" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A252, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A252, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8186,7 +8416,7 @@
         <v>386</v>
       </c>
       <c r="B253" t="str">
-        <f>IFERROR(INDEX(nepali_world_update!$C$2:$C$55, MATCH(A253, nepali_world_update!$A$2:$A$55,0)),"")</f>
+        <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A253, nepali_world_update!$A$3:$A$56,0)),"")</f>
         <v/>
       </c>
     </row>
@@ -8197,10 +8427,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE6DB38-87E3-DC48-9FFA-21F97C9B98B3}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8239,271 +8469,261 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="str">
-        <f>INDEX(G2:G15, MATCH(B2,F2:F15))</f>
-        <v>Australia</v>
-      </c>
+      <c r="A2" s="37"/>
       <c r="B2" s="37" t="s">
-        <v>147</v>
+        <v>506</v>
       </c>
       <c r="C2" s="37">
-        <v>11</v>
+        <f>SUM(C3:C26)</f>
+        <v>1992</v>
       </c>
       <c r="D2" s="37">
-        <v>0</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" t="s">
-        <v>470</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
+        <f t="shared" ref="D2:E2" si="0">SUM(D3:D26)</f>
+        <v>73</v>
+      </c>
+      <c r="E2" s="37">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="str">
-        <f>INDEX(G3:G15, MATCH(B3,F3:F15))</f>
-        <v>Bahrain</v>
+        <f>INDEX(G3:G16, MATCH(B3,F3:F16))</f>
+        <v>Australia</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C3" s="37">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D3" s="37">
         <v>0</v>
       </c>
-      <c r="E3" s="37">
-        <v>34</v>
-      </c>
+      <c r="E3" s="37"/>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="str">
-        <f>INDEX(G4:G15, MATCH(B4,F4:F15))</f>
-        <v>Germany</v>
+        <f>INDEX(G4:G16, MATCH(B4,F4:F16))</f>
+        <v>Bahrain</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="C4" s="37">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D4" s="37">
         <v>0</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="37">
+        <v>34</v>
+      </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="G4" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="H4" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="str">
-        <f>INDEX(G5:G15, MATCH(B5,F5:F15))</f>
-        <v>China</v>
+        <f>INDEX(G5:G16, MATCH(B5,F5:F16))</f>
+        <v>Germany</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="C5" s="37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="37">
         <v>0</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" t="s">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="H5" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="str">
-        <f>INDEX(G6:G15, MATCH(B6,F6:F15))</f>
-        <v>Japan</v>
+        <f>INDEX(G6:G16, MATCH(B6,F6:F16))</f>
+        <v>China</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="45">
-        <v>3</v>
+        <v>393</v>
+      </c>
+      <c r="C6" s="37">
+        <v>2</v>
       </c>
       <c r="D6" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" t="s">
-        <v>250</v>
+        <v>393</v>
       </c>
       <c r="G6" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>488</v>
-      </c>
-      <c r="I6" s="38">
-        <v>6</v>
+        <v>487</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="str">
-        <f>INDEX(G7:G15, MATCH(B7,F7:F15))</f>
-        <v>Kuwait</v>
+        <f>INDEX(G7:G16, MATCH(B7,F7:F16))</f>
+        <v>Japan</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="37">
-        <v>42</v>
+        <v>250</v>
+      </c>
+      <c r="C7" s="45">
+        <v>3</v>
       </c>
       <c r="D7" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="H7" t="s">
-        <v>489</v>
-      </c>
-      <c r="I7">
+        <v>488</v>
+      </c>
+      <c r="I7" s="38">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="str">
-        <f>INDEX(G8:G15, MATCH(B8,F8:F15))</f>
-        <v>Malaysia</v>
+        <f>INDEX(G8:G16, MATCH(B8,F8:F16))</f>
+        <v>Kuwait</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="C8" s="37">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D8" s="37">
         <v>0</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="G8" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="H8" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="str">
-        <f>INDEX(G9:G15, MATCH(B9,F9:F15))</f>
-        <v>Myanmar</v>
+        <f>INDEX(G9:G16, MATCH(B9,F9:F16))</f>
+        <v>Malaysia</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C9" s="37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="37">
         <v>0</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="G9" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H9" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="str">
-        <f>INDEX(G10:G15, MATCH(B10,F10:F15))</f>
-        <v>Portugal</v>
+        <f>INDEX(G10:G16, MATCH(B10,F10:F16))</f>
+        <v>Myanmar</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="C10" s="37">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D10" s="37">
         <v>0</v>
       </c>
-      <c r="E10" s="37">
-        <v>3</v>
-      </c>
+      <c r="E10" s="37"/>
       <c r="F10" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="G10" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="H10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="str">
-        <f>INDEX(G11:G15, MATCH(B11,F11:F15))</f>
-        <v>Saudi Arabia</v>
+        <f>INDEX(G11:G16, MATCH(B11,F11:F16))</f>
+        <v>Portugal</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C11" s="37">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D11" s="37">
         <v>0</v>
@@ -8512,171 +8732,173 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G11" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H11" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="str">
-        <f>INDEX(G12:G15, MATCH(B12,F12:F15))</f>
-        <v>Spain</v>
+        <f>INDEX(G12:G16, MATCH(B12,F12:F16))</f>
+        <v>Saudi Arabia</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>201</v>
+        <v>331</v>
       </c>
       <c r="C12" s="37">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D12" s="37">
         <v>0</v>
       </c>
       <c r="E12" s="37">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" t="s">
+        <v>490</v>
+      </c>
+      <c r="I12">
         <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" t="s">
-        <v>474</v>
-      </c>
-      <c r="I12">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="str">
-        <f>INDEX(G13:G15, MATCH(B13,F13:F15))</f>
-        <v>United Arab Emirates</v>
+        <f>INDEX(G13:G16, MATCH(B13,F13:F16))</f>
+        <v>Spain</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="C13" s="37">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="D13" s="37">
-        <v>2</v>
-      </c>
-      <c r="E13" s="37"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
+        <v>10</v>
+      </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G13" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="H13" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="str">
-        <f>INDEX(G14:G15, MATCH(B14,F14:F15))</f>
-        <v>UK</v>
+        <f>INDEX(G14:G16, MATCH(B14,F14:F16))</f>
+        <v>United Arab Emirates</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>394</v>
+        <v>142</v>
       </c>
       <c r="C14" s="37">
-        <v>700</v>
-      </c>
-      <c r="D14" s="37">
-        <v>33</v>
-      </c>
-      <c r="E14" s="37">
-        <v>150</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D14" s="45">
+        <v>5</v>
+      </c>
+      <c r="E14" s="37"/>
       <c r="F14" t="s">
-        <v>394</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="H14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I14">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="str">
-        <f>INDEX(G15:G15, MATCH(B15,F15:F15))</f>
-        <v>USA</v>
+        <f>INDEX(G15:G16, MATCH(B15,F15:F16))</f>
+        <v>UK</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C15" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="37">
-        <v>10</v>
+        <v>700</v>
+      </c>
+      <c r="D15" s="45">
+        <v>49</v>
       </c>
       <c r="E15" s="37">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G15" t="s">
-        <v>372</v>
+        <v>215</v>
       </c>
       <c r="H15" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="I15">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="str">
-        <f t="shared" ref="A16:A25" si="0">INDEX(G16:G16, MATCH(B16,F16:F16))</f>
-        <v>Turkey</v>
-      </c>
-      <c r="B16" t="s">
-        <v>366</v>
+        <f>INDEX(G16:G16, MATCH(B16,F16:F16))</f>
+        <v>USA</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>395</v>
       </c>
       <c r="C16" s="37">
-        <v>1</v>
-      </c>
-      <c r="D16" s="37">
-        <v>1</v>
-      </c>
-      <c r="E16" s="37"/>
+        <v>1000</v>
+      </c>
+      <c r="D16" s="45">
+        <v>15</v>
+      </c>
+      <c r="E16" s="37">
+        <v>250</v>
+      </c>
       <c r="F16" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="G16" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>Netherlands</v>
+        <f t="shared" ref="A17:A26" si="1">INDEX(G17:G17, MATCH(B17,F17:F17))</f>
+        <v>Turkey</v>
       </c>
       <c r="B17" t="s">
-        <v>304</v>
+        <v>366</v>
       </c>
       <c r="C17" s="37">
         <v>1</v>
@@ -8686,217 +8908,245 @@
       </c>
       <c r="E17" s="37"/>
       <c r="F17" t="s">
-        <v>304</v>
+        <v>366</v>
       </c>
       <c r="G17" t="s">
-        <v>304</v>
+        <v>366</v>
       </c>
       <c r="H17" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="I17">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>Ireland</v>
+        <f t="shared" si="1"/>
+        <v>Netherlands</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="C18" s="37">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D18" s="37">
         <v>1</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="G18" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="H18" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="I18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>France</v>
+        <f t="shared" si="1"/>
+        <v>Ireland</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="C19" s="37">
+        <v>22</v>
+      </c>
+      <c r="D19" s="37">
         <v>1</v>
       </c>
+      <c r="E19" s="37"/>
       <c r="F19" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="G19" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="H19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I19">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>New Zealand</v>
+        <f t="shared" si="1"/>
+        <v>France</v>
       </c>
       <c r="B20" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="C20" s="37">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="H20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I20">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>Malta</v>
+        <f t="shared" si="1"/>
+        <v>New Zealand</v>
       </c>
       <c r="B21" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="C21" s="37">
+        <v>3</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="G21" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="H21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>Canada</v>
+        <f t="shared" si="1"/>
+        <v>Malta</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="C22" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="H22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I22">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>Belgium</v>
+        <f t="shared" si="1"/>
+        <v>Canada</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="C23" s="37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I23">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>Switzerland</v>
+        <f t="shared" si="1"/>
+        <v>Belgium</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C24" s="37">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I24">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>Switzerland</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="37">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" t="s">
+        <v>483</v>
+      </c>
+      <c r="I25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="str">
+        <f t="shared" si="1"/>
         <v>Cyprus</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C26" s="37">
         <v>3</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>189</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>189</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>484</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>24</v>
       </c>
     </row>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDF5304-54FE-6E42-A05F-543449F5BFF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F18CA0F-ED0A-9445-8D0D-6A9E9AB417AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" activeTab="2" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="510">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -1557,6 +1557,9 @@
   </si>
   <si>
     <t>नेपालगंजमा पहिले संक्रमितका छिमेकि</t>
+  </si>
+  <si>
+    <t>नेपालगंज-०८ निवासि</t>
   </si>
 </sst>
 </file>
@@ -1856,13 +1859,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2185,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A1:T70"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63:I70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2267,17 +2270,17 @@
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
       <c r="R2"/>
     </row>
     <row r="3" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2301,17 +2304,17 @@
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2335,17 +2338,17 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
       <c r="R4"/>
     </row>
     <row r="5" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2369,17 +2372,17 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,17 +2406,17 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
       <c r="R6"/>
     </row>
     <row r="7" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2437,17 +2440,17 @@
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2471,17 +2474,17 @@
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
       <c r="R8"/>
     </row>
     <row r="9" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2505,17 +2508,17 @@
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2539,17 +2542,17 @@
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
       <c r="R10"/>
     </row>
     <row r="11" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2575,17 +2578,17 @@
         <v>494</v>
       </c>
       <c r="H11" s="19"/>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2611,17 +2614,17 @@
         <v>494</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
       <c r="R12"/>
     </row>
     <row r="13" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2647,17 +2650,17 @@
         <v>494</v>
       </c>
       <c r="H13" s="19"/>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2681,17 +2684,17 @@
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
       <c r="R14"/>
     </row>
     <row r="15" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2717,15 +2720,15 @@
         <v>494</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2749,17 +2752,17 @@
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2783,17 +2786,17 @@
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
       <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2817,17 +2820,17 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2851,17 +2854,17 @@
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
       <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2885,17 +2888,17 @@
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2919,17 +2922,17 @@
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
       <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2953,17 +2956,17 @@
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2987,17 +2990,17 @@
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="51" t="s">
+      <c r="I23" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3021,17 +3024,17 @@
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="53" t="s">
+      <c r="I24" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3055,17 +3058,17 @@
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3089,17 +3092,17 @@
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="53" t="s">
+      <c r="I26" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3123,17 +3126,17 @@
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
       <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3157,17 +3160,17 @@
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="53" t="s">
+      <c r="I28" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3191,17 +3194,17 @@
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
       <c r="R29" s="9"/>
     </row>
     <row r="30" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3227,17 +3230,17 @@
         <v>469</v>
       </c>
       <c r="H30" s="22"/>
-      <c r="I30" s="53" t="s">
+      <c r="I30" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
       <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3263,17 +3266,17 @@
         <v>469</v>
       </c>
       <c r="H31" s="22"/>
-      <c r="I31" s="51" t="s">
+      <c r="I31" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3297,17 +3300,17 @@
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="53" t="s">
+      <c r="I32" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -4169,6 +4172,147 @@
       </c>
       <c r="I70" s="3" t="s">
         <v>508</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A71" s="38">
+        <v>70</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C71" s="38">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="38">
+        <v>71</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C72" s="38">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A73" s="38">
+        <v>72</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C73" s="38">
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A74" s="38">
+        <v>73</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C74" s="38">
+        <v>40</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A75" s="38">
+        <v>74</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C75" s="38">
+        <v>55</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A76" s="38">
+        <v>75</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C76" s="38">
+        <v>60</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="H76" s="38">
+        <v>13420</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -4176,37 +4320,37 @@
     <sortCondition ref="A2:A34"/>
   </sortState>
   <mergeCells count="31">
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="I6:Q6"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I9:Q9"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="I31:Q31"/>
     <mergeCell ref="I32:Q32"/>
     <mergeCell ref="I24:Q24"/>
     <mergeCell ref="I25:Q25"/>
     <mergeCell ref="I26:Q26"/>
     <mergeCell ref="I27:Q27"/>
     <mergeCell ref="I28:Q28"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="I23:Q23"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="I31:Q31"/>
-    <mergeCell ref="I17:Q17"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="I20:Q20"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="I9:Q9"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="I6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4253,11 +4397,11 @@
     <row r="2" spans="1:7" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
       <c r="A2" s="50">
         <f>LOOKUP(2, 1/(detail!H:H&lt;&gt;""), detail!H:H)</f>
-        <v>13414</v>
+        <v>13420</v>
       </c>
       <c r="B2" s="27">
         <f>COUNT(detail!A2:'detail'!A323)</f>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C2" s="28">
         <f>COUNTIF(detail!E2:'detail'!E257, "निको")</f>
@@ -4271,7 +4415,7 @@
       </c>
       <c r="F2" s="31">
         <f>B2-C2</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G2" s="50"/>
     </row>
@@ -4297,8 +4441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F40CF7-9584-3D43-9273-49D4405146AF}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4371,7 +4515,7 @@
       </c>
       <c r="B8">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A8,map_update!$B$4:$B$78,0)),"")</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4993,10 +5137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7092C9DD-A343-5C4D-8235-021966E86C81}">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5238,7 +5382,7 @@
       </c>
       <c r="C10" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10))</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -6124,6 +6268,15 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="40"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C80" s="1">
+        <f>SUM(C4:C79)</f>
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6134,7 +6287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C54A67-FFF9-F147-A547-2706EC5F8302}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A177" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F18CA0F-ED0A-9445-8D0D-6A9E9AB417AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D5EE6F-006F-4240-8C52-801301BAC211}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" activeTab="1" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="525">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -1560,6 +1560,51 @@
   </si>
   <si>
     <t>नेपालगंज-०८ निवासि</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख २२</t>
+  </si>
+  <si>
+    <t>२ म</t>
+  </si>
+  <si>
+    <t>6 म</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख २४</t>
+  </si>
+  <si>
+    <t>बिरगंज निवासि</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख २ / २४</t>
+  </si>
+  <si>
+    <t>पुन: संक्रमित</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख १ / २४</t>
+  </si>
+  <si>
+    <t>२०७६ चैत ३० / बैशाख २४</t>
+  </si>
+  <si>
+    <t>भारतीय नागरिक / नारायणी अस्पताल विरगंजमा उपचारार्थ</t>
+  </si>
+  <si>
+    <t>नारायणी अस्पताल विरगंजमा उपचारार्थ</t>
+  </si>
+  <si>
+    <t>29 / 30</t>
+  </si>
+  <si>
+    <t>मंसिर २४ गते दिल्लीबाट आएका भारतीय नागरीक / कोशी अस्पताल बिराटनगरमा उपचारार्थ</t>
+  </si>
+  <si>
+    <t>मंसिर २४ गते दिल्लीबाट आएका भारतीय नागरीक v</t>
+  </si>
+  <si>
+    <t>२१ / २२</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1867,6 +1912,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2188,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A1:T76"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2201,7 +2249,8 @@
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="7" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" style="3" customWidth="1"/>
@@ -2641,17 +2690,17 @@
         <v>7</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>3</v>
+        <v>516</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>30</v>
+        <v>518</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>494</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="52" t="s">
-        <v>31</v>
+        <v>519</v>
       </c>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
@@ -2711,16 +2760,18 @@
         <v>7</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>3</v>
+        <v>516</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>32</v>
+        <v>517</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>494</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="52"/>
+      <c r="I15" s="52" t="s">
+        <v>520</v>
+      </c>
       <c r="J15" s="52"/>
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
@@ -2779,12 +2830,14 @@
         <v>7</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>3</v>
+        <v>516</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="20"/>
+        <v>515</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>400</v>
+      </c>
       <c r="H17" s="20"/>
       <c r="I17" s="52" t="s">
         <v>34</v>
@@ -2806,22 +2859,24 @@
       <c r="B18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="21">
-        <v>29</v>
+      <c r="C18" s="54" t="s">
+        <v>521</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="H18" s="22"/>
       <c r="I18" s="51" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="J18" s="51"/>
       <c r="K18" s="51"/>
@@ -2908,7 +2963,7 @@
       <c r="B21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="21">
         <v>25</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -2942,19 +2997,21 @@
       <c r="B22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="21">
-        <v>22</v>
+      <c r="C22" s="21" t="s">
+        <v>524</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="22"/>
+      <c r="G22" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="H22" s="22"/>
       <c r="I22" s="51" t="s">
         <v>396</v>
@@ -2976,22 +3033,24 @@
       <c r="B23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="21">
         <v>28</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="H23" s="20"/>
       <c r="I23" s="52" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
@@ -3112,22 +3171,24 @@
       <c r="B27" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="21">
         <v>26</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="H27" s="20"/>
       <c r="I27" s="52" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="J27" s="52"/>
       <c r="K27" s="52"/>
@@ -3153,15 +3214,17 @@
         <v>7</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="22"/>
+      <c r="G28" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="H28" s="22"/>
       <c r="I28" s="51" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="J28" s="51"/>
       <c r="K28" s="51"/>
@@ -3180,22 +3243,24 @@
       <c r="B29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="21">
         <v>34</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="22" t="s">
+        <v>513</v>
+      </c>
       <c r="H29" s="20"/>
       <c r="I29" s="52" t="s">
-        <v>396</v>
+        <v>523</v>
       </c>
       <c r="J29" s="52"/>
       <c r="K29" s="52"/>
@@ -4313,6 +4378,564 @@
       </c>
       <c r="I76" s="3" t="s">
         <v>509</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A77" s="38">
+        <v>76</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C77" s="38">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A78" s="38">
+        <v>77</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C78" s="38">
+        <v>30</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A79" s="38">
+        <v>78</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C79" s="38">
+        <v>40</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A80" s="38">
+        <v>79</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C80" s="38">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A81" s="38">
+        <v>80</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C81" s="38">
+        <v>32</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A82" s="38">
+        <v>81</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C82" s="38">
+        <v>34</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A83" s="38">
+        <v>82</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C83" s="38">
+        <v>55</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="H83" s="38">
+        <v>13647</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A84" s="38">
+        <v>83</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C84" t="s">
+        <v>511</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A85" s="38">
+        <v>84</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C85" s="38">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A86" s="38">
+        <v>85</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C86" s="38">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A87" s="38">
+        <v>86</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C87" s="38">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A88" s="38">
+        <v>87</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C88" s="38">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A89" s="38">
+        <v>88</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C89" s="38">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A90" s="38">
+        <v>89</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C90" s="38">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A91" s="38">
+        <v>90</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C91" s="38">
+        <v>40</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A92" s="38">
+        <v>91</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C92" s="38">
+        <v>45</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A93" s="38">
+        <v>92</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C93" s="38">
+        <v>66</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A94" s="38">
+        <v>92</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C94" t="s">
+        <v>512</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A95" s="38">
+        <v>92</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C95" s="38">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A96" s="38">
+        <v>92</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C96" s="38">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A97" s="38">
+        <v>92</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C97" s="38">
+        <v>29</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A98" s="38">
+        <v>92</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C98" s="38">
+        <v>32</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A99" s="38">
+        <v>92</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C99" s="38">
+        <v>35</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A100" s="38">
+        <v>92</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C100" s="38">
+        <v>62</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="H100" s="38">
+        <v>14096</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -4360,7 +4983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4D57B-B68B-5E42-9689-ABFDDD3556B4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -4397,15 +5020,15 @@
     <row r="2" spans="1:7" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
       <c r="A2" s="50">
         <f>LOOKUP(2, 1/(detail!H:H&lt;&gt;""), detail!H:H)</f>
-        <v>13420</v>
+        <v>14096</v>
       </c>
       <c r="B2" s="27">
         <f>COUNT(detail!A2:'detail'!A323)</f>
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C2" s="28">
         <f>COUNTIF(detail!E2:'detail'!E257, "निको")</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" s="29">
         <v>0</v>
@@ -4415,7 +5038,7 @@
       </c>
       <c r="F2" s="31">
         <f>B2-C2</f>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="G2" s="50"/>
     </row>
@@ -4441,7 +5064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F40CF7-9584-3D43-9273-49D4405146AF}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A78" sqref="A78:B78"/>
     </sheetView>
   </sheetViews>
@@ -4515,7 +5138,7 @@
       </c>
       <c r="B8">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A8,map_update!$B$4:$B$78,0)),"")</f>
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4929,7 +5552,7 @@
       </c>
       <c r="B54">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A54,map_update!$B$4:$B$78,0)),"")</f>
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -5139,8 +5762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7092C9DD-A343-5C4D-8235-021966E86C81}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5382,7 +6005,7 @@
       </c>
       <c r="C10" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10))</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -5989,15 +6612,15 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="42" t="s">
         <v>399</v>
       </c>
       <c r="B56" t="s">
         <v>103</v>
       </c>
       <c r="C56" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A56) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A56))</f>
-        <v>7</v>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A56) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A56))</f>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -6275,7 +6898,7 @@
       </c>
       <c r="C80" s="1">
         <f>SUM(C4:C79)</f>
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/nepal_data.xlsx
+++ b/nepal_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D5EE6F-006F-4240-8C52-801301BAC211}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7026B8-F0E8-4D4E-AF13-6F0665C4F77E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" activeTab="1" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" activeTab="5" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="533">
   <si>
     <t>केस संख्या</t>
   </si>
@@ -86,9 +86,6 @@
     <t>२०७६ माघ १७मा निको भएको, वुहान विश्वविद्यालयका विद्यार्थी</t>
   </si>
   <si>
-    <t>मध्य पुर्वी देशबाट फर्किएका</t>
-  </si>
-  <si>
     <t>बाग्लुङ</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>२०७६ चैत २२</t>
   </si>
   <si>
-    <t>चौथो केसको भाउजु</t>
-  </si>
-  <si>
     <t>२०७६ चैत ३०</t>
   </si>
   <si>
@@ -1605,6 +1599,36 @@
   </si>
   <si>
     <t>२१ / २२</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख २५</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख २६</t>
+  </si>
+  <si>
+    <t>भेरी अस्पताल नेपालगंजमा उपचारार्थ</t>
+  </si>
+  <si>
+    <t>मध्य पुर्वी देशबाट (दुबई )फर्किएका</t>
+  </si>
+  <si>
+    <t>चौथो केसको भाउजु । धनगडिमा उपचारार्थ</t>
+  </si>
+  <si>
+    <t>कोशी अस्पतालमा उपचारार्थ https://ekantipur.com/news/2020/05/08/15889349151202407.html?fbclid=IwAR18fuRTNsr113zGB-GTK9rvDyononTeFNFCE9oAzD3DxT8FDftTSOPmIx4</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख २७</t>
+  </si>
+  <si>
+    <t>उदयपुर भुल्के निवासि</t>
+  </si>
+  <si>
+    <t>पर्सा छपकेया निवासि</t>
+  </si>
+  <si>
+    <t>जम्मा</t>
   </si>
 </sst>
 </file>
@@ -1904,6 +1928,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1912,9 +1939,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2236,10 +2260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A1:T100"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView topLeftCell="A99" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2279,10 +2303,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>16</v>
@@ -2319,17 +2343,17 @@
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
       <c r="R2"/>
     </row>
     <row r="3" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2353,17 +2377,17 @@
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
+      <c r="I3" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2387,17 +2411,17 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
       <c r="R4"/>
     </row>
     <row r="5" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2405,7 +2429,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="19">
         <v>34</v>
@@ -2421,17 +2445,17 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
+      <c r="I5" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2439,7 +2463,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="17">
         <v>22</v>
@@ -2451,21 +2475,21 @@
         <v>4</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
+      <c r="I6" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
       <c r="R6"/>
     </row>
     <row r="7" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2473,7 +2497,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="19">
         <v>65</v>
@@ -2485,21 +2509,21 @@
         <v>3</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="I7" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
       <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2507,7 +2531,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="17">
         <v>34</v>
@@ -2516,24 +2540,26 @@
         <v>13</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>524</v>
+      </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
+      <c r="I8" s="54" t="s">
+        <v>527</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
       <c r="R8"/>
     </row>
     <row r="9" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2541,7 +2567,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="19">
         <v>21</v>
@@ -2553,21 +2579,21 @@
         <v>3</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
+      <c r="I9" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2575,7 +2601,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="17">
         <v>41</v>
@@ -2587,21 +2613,21 @@
         <v>3</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
+      <c r="I10" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
       <c r="R10"/>
     </row>
     <row r="11" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2609,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C11" s="19">
         <v>37</v>
@@ -2621,23 +2647,23 @@
         <v>3</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H11" s="19"/>
-      <c r="I11" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
+      <c r="I11" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2645,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C12" s="17">
         <v>55</v>
@@ -2657,23 +2683,23 @@
         <v>3</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
+      <c r="I12" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
       <c r="R12"/>
     </row>
     <row r="13" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2681,7 +2707,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C13" s="19">
         <v>44</v>
@@ -2690,26 +2716,26 @@
         <v>7</v>
       </c>
       <c r="E13" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>518</v>
-      </c>
       <c r="G13" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H13" s="19"/>
-      <c r="I13" s="52" t="s">
-        <v>519</v>
-      </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
+      <c r="I13" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2717,7 +2743,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="17">
         <v>65</v>
@@ -2729,21 +2755,21 @@
         <v>3</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
+      <c r="I14" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
       <c r="R14"/>
     </row>
     <row r="15" spans="1:19" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2751,7 +2777,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="19">
         <v>19</v>
@@ -2760,26 +2786,26 @@
         <v>7</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="52" t="s">
-        <v>520</v>
-      </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
+      <c r="I15" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
       <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2799,21 +2825,21 @@
         <v>3</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
+      <c r="I16" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2830,26 +2856,26 @@
         <v>7</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H17" s="20"/>
-      <c r="I17" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
+      <c r="I17" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
       <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2857,10 +2883,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>521</v>
+        <v>34</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>519</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>7</v>
@@ -2869,23 +2895,23 @@
         <v>3</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H18" s="22"/>
-      <c r="I18" s="51" t="s">
-        <v>522</v>
-      </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
+      <c r="I18" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2893,7 +2919,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="19">
         <v>40</v>
@@ -2905,21 +2931,21 @@
         <v>4</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="52" t="s">
-        <v>396</v>
-      </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
+      <c r="I19" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
       <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2927,7 +2953,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="21">
         <v>20</v>
@@ -2939,21 +2965,21 @@
         <v>4</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="51" t="s">
-        <v>396</v>
-      </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
+      <c r="I20" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2961,7 +2987,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="21">
         <v>25</v>
@@ -2973,21 +2999,21 @@
         <v>4</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="52" t="s">
-        <v>396</v>
-      </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
+      <c r="I21" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
       <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2995,10 +3021,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>7</v>
@@ -3007,23 +3033,23 @@
         <v>3</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H22" s="22"/>
-      <c r="I22" s="51" t="s">
-        <v>396</v>
-      </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
+      <c r="I22" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3031,7 +3057,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="21">
         <v>28</v>
@@ -3043,23 +3069,23 @@
         <v>3</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H23" s="20"/>
-      <c r="I23" s="52" t="s">
-        <v>522</v>
-      </c>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
+      <c r="I23" s="53" t="s">
+        <v>520</v>
+      </c>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3067,7 +3093,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="21">
         <v>28</v>
@@ -3079,21 +3105,21 @@
         <v>4</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="51" t="s">
-        <v>396</v>
-      </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
+      <c r="I24" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3101,7 +3127,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="19">
         <v>28</v>
@@ -3113,21 +3139,21 @@
         <v>4</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="52" t="s">
-        <v>396</v>
-      </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
+      <c r="I25" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3135,7 +3161,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="21">
         <v>28</v>
@@ -3147,21 +3173,21 @@
         <v>4</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="51" t="s">
-        <v>396</v>
-      </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
+      <c r="I26" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3169,7 +3195,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="21">
         <v>26</v>
@@ -3181,23 +3207,23 @@
         <v>3</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H27" s="20"/>
-      <c r="I27" s="52" t="s">
-        <v>522</v>
-      </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
+      <c r="I27" s="53" t="s">
+        <v>520</v>
+      </c>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
       <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3205,7 +3231,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="21">
         <v>29</v>
@@ -3217,23 +3243,23 @@
         <v>3</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H28" s="22"/>
-      <c r="I28" s="51" t="s">
-        <v>522</v>
-      </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
+      <c r="I28" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3241,7 +3267,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="21">
         <v>34</v>
@@ -3253,23 +3279,23 @@
         <v>3</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H29" s="20"/>
-      <c r="I29" s="52" t="s">
-        <v>523</v>
-      </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
+      <c r="I29" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
       <c r="R29" s="9"/>
     </row>
     <row r="30" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3277,7 +3303,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="21">
         <v>63</v>
@@ -3289,23 +3315,23 @@
         <v>3</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H30" s="22"/>
-      <c r="I30" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
+      <c r="I30" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
       <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3313,7 +3339,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="19">
         <v>27</v>
@@ -3325,23 +3351,23 @@
         <v>3</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H31" s="22"/>
-      <c r="I31" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
+      <c r="I31" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3349,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="21">
         <v>65</v>
@@ -3361,21 +3387,21 @@
         <v>4</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="51" t="s">
-        <v>396</v>
-      </c>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
+      <c r="I32" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -3383,7 +3409,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" s="19">
         <v>18</v>
@@ -3395,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
@@ -3407,7 +3433,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="21">
         <v>18</v>
@@ -3419,7 +3445,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -3429,7 +3455,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="19">
         <v>20</v>
@@ -3441,7 +3467,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
@@ -3451,7 +3477,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="21">
         <v>33</v>
@@ -3463,7 +3489,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
@@ -3473,7 +3499,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="19">
         <v>40</v>
@@ -3485,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
@@ -3495,7 +3521,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="21">
         <v>41</v>
@@ -3507,7 +3533,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -3517,7 +3543,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="19">
         <v>41</v>
@@ -3526,20 +3552,25 @@
         <v>7</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>524</v>
+      </c>
       <c r="H39" s="20"/>
+      <c r="I39" s="3" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>39</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="21">
         <v>52</v>
@@ -3547,21 +3578,26 @@
       <c r="D40" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="22" t="s">
-        <v>4</v>
+      <c r="E40" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>524</v>
+      </c>
       <c r="H40" s="22"/>
+      <c r="I40" s="3" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>40</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="34">
         <v>58</v>
@@ -3570,40 +3606,50 @@
         <v>7</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>524</v>
+      </c>
       <c r="H41" s="20"/>
+      <c r="I41" s="3" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="22" t="s">
-        <v>4</v>
+      <c r="E42" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>524</v>
+      </c>
       <c r="H42" s="22"/>
+      <c r="I42" s="3" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="34">
         <v>42</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" s="19">
         <v>36</v>
@@ -3612,20 +3658,25 @@
         <v>13</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>524</v>
+      </c>
       <c r="H43" s="20"/>
+      <c r="I43" s="3" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="26" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>43</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44" s="38">
         <v>24</v>
@@ -3634,20 +3685,25 @@
         <v>7</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="G44" s="20"/>
+        <v>395</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>524</v>
+      </c>
       <c r="H44" s="20"/>
+      <c r="I44" s="3" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="45" spans="1:20" ht="26" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>44</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" s="38">
         <v>60</v>
@@ -3656,20 +3712,25 @@
         <v>7</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="20"/>
+        <v>395</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>524</v>
+      </c>
       <c r="H45" s="20"/>
+      <c r="I45" s="3" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="46" spans="1:20" ht="26" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>45</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C46" s="38">
         <v>72</v>
@@ -3678,20 +3739,25 @@
         <v>7</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="G46" s="20"/>
+        <v>395</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>524</v>
+      </c>
       <c r="H46" s="20"/>
+      <c r="I46" s="3" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="47" spans="1:20" ht="26" x14ac:dyDescent="0.3">
       <c r="A47" s="43">
         <v>46</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C47" s="44">
         <v>55</v>
@@ -3703,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
@@ -3713,7 +3779,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C48" s="44">
         <v>14</v>
@@ -3725,7 +3791,7 @@
         <v>4</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
@@ -3735,7 +3801,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C49" s="44">
         <v>26</v>
@@ -3747,12 +3813,12 @@
         <v>4</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3760,7 +3826,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C50" s="44">
         <v>62</v>
@@ -3772,7 +3838,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
@@ -3782,7 +3848,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C51" s="44">
         <v>50</v>
@@ -3794,10 +3860,10 @@
         <v>4</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3805,7 +3871,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C52" s="44">
         <v>50</v>
@@ -3817,10 +3883,10 @@
         <v>4</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3828,7 +3894,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C53" s="44">
         <v>50</v>
@@ -3840,10 +3906,10 @@
         <v>4</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3851,7 +3917,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C54" s="44">
         <v>24</v>
@@ -3863,7 +3929,7 @@
         <v>4</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3871,7 +3937,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" s="44">
         <v>21</v>
@@ -3883,7 +3949,7 @@
         <v>4</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H55" s="38">
         <v>10807</v>
@@ -3894,7 +3960,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C56" s="44">
         <v>57</v>
@@ -3906,11 +3972,11 @@
         <v>4</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H56" s="38"/>
       <c r="I56" s="48" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3918,7 +3984,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C57" s="44">
         <v>43</v>
@@ -3930,11 +3996,11 @@
         <v>4</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H57" s="38"/>
       <c r="I57" s="48" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3942,7 +4008,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C58" s="44">
         <v>31</v>
@@ -3954,13 +4020,13 @@
         <v>4</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H58" s="38">
         <v>11524</v>
       </c>
       <c r="I58" s="48" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -3968,7 +4034,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C59" s="38">
         <v>25</v>
@@ -3980,7 +4046,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H59" s="38">
         <v>12013</v>
@@ -3991,7 +4057,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C60" s="38">
         <v>60</v>
@@ -4003,7 +4069,7 @@
         <v>4</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H60" s="38">
         <v>13098</v>
@@ -4014,7 +4080,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C61" s="38">
         <v>36</v>
@@ -4026,7 +4092,7 @@
         <v>4</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4034,7 +4100,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C62" s="38">
         <v>7</v>
@@ -4046,10 +4112,10 @@
         <v>4</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4057,7 +4123,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C63" s="38">
         <v>32</v>
@@ -4069,10 +4135,10 @@
         <v>4</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4080,7 +4146,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C64" s="38">
         <v>34</v>
@@ -4092,10 +4158,10 @@
         <v>4</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4103,7 +4169,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C65" s="38">
         <v>37</v>
@@ -4115,10 +4181,10 @@
         <v>4</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4126,7 +4192,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C66" s="38">
         <v>55</v>
@@ -4138,10 +4204,10 @@
         <v>4</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4149,7 +4215,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C67" s="38">
         <v>30</v>
@@ -4161,10 +4227,10 @@
         <v>4</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4172,7 +4238,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C68" s="38">
         <v>36</v>
@@ -4184,10 +4250,10 @@
         <v>4</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4195,7 +4261,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C69" s="38">
         <v>50</v>
@@ -4207,10 +4273,10 @@
         <v>4</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4218,7 +4284,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C70" s="38">
         <v>58</v>
@@ -4230,13 +4296,13 @@
         <v>4</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H70" s="38">
         <v>13414</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4244,7 +4310,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C71" s="38">
         <v>16</v>
@@ -4256,10 +4322,10 @@
         <v>4</v>
       </c>
       <c r="F71" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4267,7 +4333,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C72" s="38">
         <v>21</v>
@@ -4279,10 +4345,10 @@
         <v>4</v>
       </c>
       <c r="F72" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4290,7 +4356,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C73" s="38">
         <v>34</v>
@@ -4302,10 +4368,10 @@
         <v>4</v>
       </c>
       <c r="F73" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4313,7 +4379,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C74" s="38">
         <v>40</v>
@@ -4325,10 +4391,10 @@
         <v>4</v>
       </c>
       <c r="F74" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="I74" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4336,7 +4402,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C75" s="38">
         <v>55</v>
@@ -4348,10 +4414,10 @@
         <v>4</v>
       </c>
       <c r="F75" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4359,7 +4425,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C76" s="38">
         <v>60</v>
@@ -4371,13 +4437,13 @@
         <v>4</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H76" s="38">
         <v>13420</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4385,7 +4451,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C77" s="38">
         <v>22</v>
@@ -4397,10 +4463,10 @@
         <v>4</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4408,7 +4474,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C78" s="38">
         <v>30</v>
@@ -4420,10 +4486,10 @@
         <v>4</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4431,7 +4497,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C79" s="38">
         <v>40</v>
@@ -4443,10 +4509,10 @@
         <v>4</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4454,7 +4520,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C80" s="38">
         <v>9</v>
@@ -4466,10 +4532,10 @@
         <v>4</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4477,7 +4543,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C81" s="38">
         <v>32</v>
@@ -4489,10 +4555,10 @@
         <v>4</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4500,7 +4566,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C82" s="38">
         <v>34</v>
@@ -4512,10 +4578,10 @@
         <v>4</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4523,7 +4589,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C83" s="38">
         <v>55</v>
@@ -4535,13 +4601,13 @@
         <v>4</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H83" s="38">
         <v>13647</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4549,10 +4615,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C84" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -4561,10 +4627,10 @@
         <v>4</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4572,7 +4638,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C85" s="38">
         <v>3</v>
@@ -4584,10 +4650,10 @@
         <v>4</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4595,7 +4661,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C86" s="38">
         <v>9</v>
@@ -4607,10 +4673,10 @@
         <v>4</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4618,7 +4684,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C87" s="38">
         <v>12</v>
@@ -4630,10 +4696,10 @@
         <v>4</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4641,7 +4707,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C88" s="38">
         <v>13</v>
@@ -4653,10 +4719,10 @@
         <v>4</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4664,7 +4730,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C89" s="38">
         <v>14</v>
@@ -4676,10 +4742,10 @@
         <v>4</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4687,7 +4753,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C90" s="38">
         <v>17</v>
@@ -4699,10 +4765,10 @@
         <v>4</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4710,7 +4776,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C91" s="38">
         <v>40</v>
@@ -4722,10 +4788,10 @@
         <v>4</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4733,7 +4799,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C92" s="38">
         <v>45</v>
@@ -4745,10 +4811,10 @@
         <v>4</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="26" x14ac:dyDescent="0.3">
@@ -4756,7 +4822,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C93" s="38">
         <v>66</v>
@@ -4768,21 +4834,21 @@
         <v>4</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A94" s="38">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C94" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -4791,18 +4857,18 @@
         <v>4</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A95" s="38">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C95" s="38">
         <v>13</v>
@@ -4814,18 +4880,18 @@
         <v>4</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A96" s="38">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C96" s="38">
         <v>13</v>
@@ -4837,18 +4903,18 @@
         <v>4</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A97" s="38">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C97" s="38">
         <v>29</v>
@@ -4860,18 +4926,18 @@
         <v>4</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A98" s="38">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C98" s="38">
         <v>32</v>
@@ -4883,18 +4949,18 @@
         <v>4</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A99" s="38">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C99" s="38">
         <v>35</v>
@@ -4906,18 +4972,18 @@
         <v>4</v>
       </c>
       <c r="F99" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A100" s="38">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C100" s="38">
         <v>62</v>
@@ -4929,14 +4995,241 @@
         <v>4</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H100" s="38">
         <v>14096</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>514</v>
-      </c>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A101" s="38">
+        <v>100</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C101" s="38">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A102" s="38">
+        <v>101</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C102" s="38">
+        <v>22</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="H102" s="38">
+        <v>14511</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A103" s="38">
+        <v>102</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="C103" s="38">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="H103" s="38">
+        <v>15412</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A104" s="38">
+        <v>103</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="38">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A105" s="38">
+        <v>104</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="38">
+        <v>45</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A106" s="38">
+        <v>105</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="38">
+        <v>65</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A107" s="38">
+        <v>106</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C107" s="38">
+        <v>17</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A108" s="38">
+        <v>107</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C108" s="38">
+        <v>18</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A109" s="38">
+        <v>108</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C109" s="38">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" s="20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A110" s="38">
+        <v>109</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C110" s="38">
+        <v>62</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="H110" s="38">
+        <v>15499</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="E111" s="20"/>
     </row>
   </sheetData>
   <sortState ref="A2:R34">
@@ -4983,7 +5276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4D57B-B68B-5E42-9689-ABFDDD3556B4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -4999,36 +5292,36 @@
   <sheetData>
     <row r="1" spans="1:7" s="26" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="26" customFormat="1" ht="62" x14ac:dyDescent="0.2">
       <c r="A2" s="50">
         <f>LOOKUP(2, 1/(detail!H:H&lt;&gt;""), detail!H:H)</f>
-        <v>14096</v>
+        <v>15499</v>
       </c>
       <c r="B2" s="27">
         <f>COUNT(detail!A2:'detail'!A323)</f>
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C2" s="28">
         <f>COUNTIF(detail!E2:'detail'!E257, "निको")</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D2" s="29">
         <v>0</v>
@@ -5038,7 +5331,7 @@
       </c>
       <c r="F2" s="31">
         <f>B2-C2</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="50"/>
     </row>
@@ -5064,23 +5357,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F40CF7-9584-3D43-9273-49D4405146AF}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:B78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A2,map_update!$B$4:$B$78,0)),"")</f>
@@ -5089,7 +5382,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A3,map_update!$B$4:$B$78,0)),"")</f>
@@ -5098,7 +5391,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A4,map_update!$B$4:$B$78,0)),"")</f>
@@ -5107,7 +5400,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A5,map_update!$B$4:$B$78,0)),"")</f>
@@ -5116,7 +5409,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A6,map_update!$B$4:$B$78,0)),"")</f>
@@ -5125,7 +5418,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A7,map_update!$B$4:$B$78,0)),"")</f>
@@ -5134,16 +5427,16 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A8,map_update!$B$4:$B$78,0)),"")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A9,map_update!$B$4:$B$78,0)),"")</f>
@@ -5152,7 +5445,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A10,map_update!$B$4:$B$78,0)),"")</f>
@@ -5161,7 +5454,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A11,map_update!$B$4:$B$78,0)),"")</f>
@@ -5170,7 +5463,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A12,map_update!$B$4:$B$78,0)),"")</f>
@@ -5179,7 +5472,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A13,map_update!$B$4:$B$78,0)),"")</f>
@@ -5188,7 +5481,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A14,map_update!$B$4:$B$78,0)),"")</f>
@@ -5197,7 +5490,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A15,map_update!$B$4:$B$78,0)),"")</f>
@@ -5206,7 +5499,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A16,map_update!$B$4:$B$78,0)),"")</f>
@@ -5215,7 +5508,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A17,map_update!$B$4:$B$78,0)),"")</f>
@@ -5224,7 +5517,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A18,map_update!$B$4:$B$78,0)),"")</f>
@@ -5233,7 +5526,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A19,map_update!$B$4:$B$78,0)),"")</f>
@@ -5242,7 +5535,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A20,map_update!$B$4:$B$78,0)),"")</f>
@@ -5251,7 +5544,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A21,map_update!$B$4:$B$78,0)),"")</f>
@@ -5260,7 +5553,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A22,map_update!$B$4:$B$78,0)),"")</f>
@@ -5269,7 +5562,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A23,map_update!$B$4:$B$78,0)),"")</f>
@@ -5278,7 +5571,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A24,map_update!$B$4:$B$78,0)),"")</f>
@@ -5287,7 +5580,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A25,map_update!$B$4:$B$78,0)),"")</f>
@@ -5296,7 +5589,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A26,map_update!$B$4:$B$78,0)),"")</f>
@@ -5305,7 +5598,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A27,map_update!$B$4:$B$78,0)),"")</f>
@@ -5314,7 +5607,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A28,map_update!$B$4:$B$78,0)),"")</f>
@@ -5323,7 +5616,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A29,map_update!$B$4:$B$78,0)),"")</f>
@@ -5332,7 +5625,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A30,map_update!$B$4:$B$78,0)),"")</f>
@@ -5341,7 +5634,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A31,map_update!$B$4:$B$78,0)),"")</f>
@@ -5350,7 +5643,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A32,map_update!$B$4:$B$78,0)),"")</f>
@@ -5359,7 +5652,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A33,map_update!$B$4:$B$78,0)),"")</f>
@@ -5368,16 +5661,16 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" t="str">
+        <v>81</v>
+      </c>
+      <c r="B34">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A34,map_update!$B$4:$B$78,0)),"")</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A35,map_update!$B$4:$B$78,0)),"")</f>
@@ -5386,7 +5679,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A36,map_update!$B$4:$B$78,0)),"")</f>
@@ -5395,7 +5688,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A37,map_update!$B$4:$B$78,0)),"")</f>
@@ -5404,7 +5697,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A38,map_update!$B$4:$B$78,0)),"")</f>
@@ -5413,7 +5706,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B39" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A39,map_update!$B$4:$B$78,0)),"")</f>
@@ -5422,7 +5715,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A40,map_update!$B$4:$B$78,0)),"")</f>
@@ -5431,7 +5724,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B41" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A41,map_update!$B$4:$B$78,0)),"")</f>
@@ -5440,7 +5733,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B42" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A42,map_update!$B$4:$B$78,0)),"")</f>
@@ -5449,7 +5742,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A43,map_update!$B$4:$B$78,0)),"")</f>
@@ -5458,7 +5751,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B44" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A44,map_update!$B$4:$B$78,0)),"")</f>
@@ -5467,7 +5760,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A45,map_update!$B$4:$B$78,0)),"")</f>
@@ -5476,7 +5769,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B46" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A46,map_update!$B$4:$B$78,0)),"")</f>
@@ -5485,7 +5778,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A47,map_update!$B$4:$B$78,0)),"")</f>
@@ -5494,7 +5787,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B48" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A48,map_update!$B$4:$B$78,0)),"")</f>
@@ -5503,7 +5796,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A49,map_update!$B$4:$B$78,0)),"")</f>
@@ -5512,7 +5805,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A50,map_update!$B$4:$B$78,0)),"")</f>
@@ -5521,7 +5814,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A51,map_update!$B$4:$B$78,0)),"")</f>
@@ -5530,7 +5823,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A52,map_update!$B$4:$B$78,0)),"")</f>
@@ -5539,7 +5832,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B53" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A53,map_update!$B$4:$B$78,0)),"")</f>
@@ -5548,16 +5841,16 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A54,map_update!$B$4:$B$78,0)),"")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B55" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A55,map_update!$B$4:$B$78,0)),"")</f>
@@ -5566,7 +5859,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B56" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A56,map_update!$B$4:$B$78,0)),"")</f>
@@ -5575,7 +5868,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B57" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A57,map_update!$B$4:$B$78,0)),"")</f>
@@ -5584,7 +5877,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A58,map_update!$B$4:$B$78,0)),"")</f>
@@ -5593,7 +5886,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B59" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A59,map_update!$B$4:$B$78,0)),"")</f>
@@ -5602,7 +5895,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B60" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A60,map_update!$B$4:$B$78,0)),"")</f>
@@ -5611,7 +5904,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B61">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A61,map_update!$B$4:$B$78,0)),"")</f>
@@ -5620,7 +5913,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B62" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A62,map_update!$B$4:$B$78,0)),"")</f>
@@ -5629,7 +5922,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B63" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A63,map_update!$B$4:$B$78,0)),"")</f>
@@ -5638,7 +5931,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B64" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A64,map_update!$B$4:$B$78,0)),"")</f>
@@ -5647,7 +5940,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B65" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A65,map_update!$B$4:$B$78,0)),"")</f>
@@ -5656,7 +5949,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B66" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A66,map_update!$B$4:$B$78,0)),"")</f>
@@ -5665,7 +5958,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B67" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A67,map_update!$B$4:$B$78,0)),"")</f>
@@ -5674,7 +5967,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B68" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A68,map_update!$B$4:$B$78,0)),"")</f>
@@ -5683,7 +5976,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B69" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A69,map_update!$B$4:$B$78,0)),"")</f>
@@ -5692,7 +5985,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B70" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A70,map_update!$B$4:$B$78,0)),"")</f>
@@ -5701,7 +5994,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B71" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A71,map_update!$B$4:$B$78,0)),"")</f>
@@ -5710,7 +6003,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B72" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A72,map_update!$B$4:$B$78,0)),"")</f>
@@ -5719,7 +6012,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B73" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A73,map_update!$B$4:$B$78,0)),"")</f>
@@ -5728,7 +6021,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B74" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A74,map_update!$B$4:$B$78,0)),"")</f>
@@ -5737,7 +6030,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B75" t="str">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A75,map_update!$B$4:$B$78,0)),"")</f>
@@ -5746,11 +6039,11 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B76">
         <f>IFERROR(INDEX(map_update!$C$4:$C$78, MATCH(map!A76,map_update!$B$4:$B$78,0)),"")</f>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5762,8 +6055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7092C9DD-A343-5C4D-8235-021966E86C81}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5775,56 +6068,56 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
         <v>127</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>128</v>
-      </c>
-      <c r="E2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A4) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A4))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A4) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A4))</f>
         <v/>
       </c>
       <c r="D4">
@@ -5848,13 +6141,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A5) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A5))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A5) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A5))</f>
         <v/>
       </c>
       <c r="D5">
@@ -5878,13 +6171,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A6) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A6))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A6) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A6))</f>
         <v>2</v>
       </c>
       <c r="D6">
@@ -5908,13 +6201,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A7) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A7))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A7) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A7))</f>
         <v/>
       </c>
       <c r="D7">
@@ -5938,13 +6231,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A8) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A8))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A8) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A8))</f>
         <v/>
       </c>
       <c r="D8">
@@ -5968,13 +6261,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A9) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A9))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A9) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A9))</f>
         <v/>
       </c>
       <c r="D9">
@@ -5998,14 +6291,14 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A10))</f>
-        <v>23</v>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A10) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A10))</f>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -6028,13 +6321,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A11) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A11))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A11) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A11))</f>
         <v>2</v>
       </c>
       <c r="D11">
@@ -6058,13 +6351,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A12) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A12))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A12) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A12))</f>
         <v/>
       </c>
       <c r="E12" s="35"/>
@@ -6073,13 +6366,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A13) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A13))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A13) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A13))</f>
         <v/>
       </c>
       <c r="D13">
@@ -6104,217 +6397,217 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A14) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A14))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A14) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A14))</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A15) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A15))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A15) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A15))</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A16) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A16))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A16) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A16))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A17) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A17))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A17) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A17))</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A18) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A18))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A18) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A18))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A19) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A19))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A19) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A19))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A20) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A20))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A20) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A20))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A21) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A21))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A21) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A21))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A22) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A22))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A22) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A22))</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A23) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A23))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A23) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A23))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A24) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A24))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A24) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A24))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A25) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A25))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A25) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A25))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A26) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A26))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A26) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A26))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A27) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A27))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A27) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A27))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A28) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A28))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A28) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A28))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A29) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A29))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A29) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A29))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A30) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A30))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A30) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A30))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A31) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A31))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A31) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A31))</f>
         <v>2</v>
       </c>
       <c r="L31" s="41"/>
@@ -6322,76 +6615,76 @@
     </row>
     <row r="32" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A32) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A32))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A32) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A32))</f>
         <v/>
       </c>
       <c r="N32" s="18"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A33) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A33))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A33) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A33))</f>
         <v>4</v>
       </c>
       <c r="L33" s="41"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="40" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A34) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A34))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A34) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A34))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C35" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A35) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A35))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A35) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A35))</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A36) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A36))</f>
-        <v/>
+        <v>81</v>
+      </c>
+      <c r="C36" s="41">
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A36) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A36))</f>
+        <v>5</v>
       </c>
       <c r="L36" s="41"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="41" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A37) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A37))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A37) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A37))</f>
         <v/>
       </c>
     </row>
@@ -6400,493 +6693,493 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A38) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A38))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A38) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A38))</f>
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A39) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A39))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A39) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A39))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="41" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A40) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A40))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A40) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A40))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="41" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A41) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A41))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A41) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A41))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="41" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A42) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A42))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A42) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A42))</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="41" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A43) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A43))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A43) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A43))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="41" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A44) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A44))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A44) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A44))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="41" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A45) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A45))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A45) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A45))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="41" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A46) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A46))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A46) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A46))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="41" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A47) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A47))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A47) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A47))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="41" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A48) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A48))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A48) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A48))</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="41" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A49) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A49))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A49) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A49))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="41" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A50) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A50))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A50) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A50))</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="41" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C51" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A51) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A51))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A51) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A51))</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="41" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C52" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A52) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A52))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A52) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A52))</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="41" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A53) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A53))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A53) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A53))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="41" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C54" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A54) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A54))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A54) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A54))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="41" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C55" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A55) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A55))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A55) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A55))</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" s="41">
         <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A56) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A56))</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="41" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C57" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A57) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A57))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A57) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A57))</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="41" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C58" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A58) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A58))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A58) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A58))</f>
         <v/>
       </c>
       <c r="L58" s="41"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="41" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C59" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A59) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A59))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A59) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A59))</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C60" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A60) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A60))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A60) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A60))</f>
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="41" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C61" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A61) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A61))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A61) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A61))</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="41" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C62" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A62) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A62))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A62) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A62))</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C63" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A63) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A63))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A63) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A63))</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="41" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C64" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A64) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A64))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A64) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A64))</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="41" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C65" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A65) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A65))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A65) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A65))</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="41" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C66" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A66) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A66))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A66) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A66))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="41" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C67" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A67) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A67))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A67) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A67))</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="41" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C68" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A68) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A68))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A68) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A68))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="41" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C69" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A69) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A69))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A69) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A69))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="41" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C70" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A70) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A70))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A70) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A70))</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="41" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C71" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A71) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A71))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A71) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A71))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="41" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C72" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A72) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A72))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A72) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A72))</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="41" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C73" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A73) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A73))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A73) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A73))</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="41" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C74" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A74) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A74))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A74) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A74))</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="41" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C75" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A75) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A75))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A75) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A75))</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="41" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C76" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A76) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A76))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A76) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A76))</f>
         <v/>
       </c>
       <c r="L76" s="42"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="41" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C77" s="41" t="str">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A77) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A77))</f>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A77) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A77))</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C78" s="41">
-        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A78) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$85, map_update!A78))</f>
-        <v>28</v>
+        <f>IF(COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A78) = 0, "", COUNTIF(detail!$B$2:'detail'!$B$185, map_update!A78))</f>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -6894,11 +7187,11 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C80" s="1">
         <f>SUM(C4:C79)</f>
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6910,7 +7203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C54A67-FFF9-F147-A547-2706EC5F8302}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -6922,15 +7215,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A2, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -6939,7 +7232,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A3, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -6948,7 +7241,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A4, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -6957,7 +7250,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A5, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -6966,7 +7259,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A6, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -6975,7 +7268,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B7" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A7, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -6984,7 +7277,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A8, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -6993,7 +7286,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A9, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7002,7 +7295,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A10, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7011,7 +7304,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A11, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7020,7 +7313,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A12, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7029,7 +7322,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A13, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7038,7 +7331,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A14, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7047,7 +7340,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A15, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7056,7 +7349,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B16" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A16, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7065,7 +7358,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A17, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7074,7 +7367,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B18" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A18, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7083,7 +7376,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A19, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7092,7 +7385,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B20" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A20, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7101,7 +7394,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A21, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7110,7 +7403,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A22, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7119,7 +7412,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B23" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A23, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7128,7 +7421,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B24" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A24, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7137,7 +7430,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B25" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A25, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7146,7 +7439,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B26">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A26, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7155,7 +7448,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B27" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A27, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7164,7 +7457,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A28, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7173,7 +7466,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B29" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A29, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7182,7 +7475,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B30" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A30, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7191,7 +7484,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B31" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A31, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7200,7 +7493,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B32" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A32, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7209,7 +7502,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B33" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A33, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7218,7 +7511,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B34" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A34, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7227,7 +7520,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B35" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A35, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7236,7 +7529,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B36" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A36, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7245,7 +7538,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B37" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A37, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7254,7 +7547,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B38" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A38, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7263,7 +7556,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B39" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A39, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7272,7 +7565,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B40">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A40, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7281,7 +7574,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B41">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A41, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7290,7 +7583,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B42" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A42, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7299,7 +7592,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B43">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A43, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7308,7 +7601,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B44" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A44, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7317,7 +7610,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B45" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A45, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7326,7 +7619,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B46" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A46, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7335,7 +7628,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B47" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A47, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7344,7 +7637,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B48" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A48, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7353,7 +7646,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B49" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A49, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7362,7 +7655,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B50" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A50, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7371,7 +7664,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B51" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A51, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7380,7 +7673,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B52" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A52, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7389,7 +7682,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B53" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A53, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7398,7 +7691,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B54" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A54, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7407,7 +7700,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B55" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A55, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7416,7 +7709,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B56">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A56, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7425,7 +7718,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B57" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A57, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7434,7 +7727,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B58">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A58, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7443,7 +7736,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B59" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A59, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7452,7 +7745,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B60" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A60, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7461,7 +7754,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B61" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A61, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7470,7 +7763,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B62" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A62, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7479,7 +7772,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B63" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A63, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7488,7 +7781,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B64" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A64, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7497,7 +7790,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B65" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A65, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7506,7 +7799,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B66" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A66, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7515,7 +7808,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B67" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A67, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7524,7 +7817,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B68">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A68, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7533,7 +7826,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B69" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A69, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7542,7 +7835,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B70" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A70, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7551,7 +7844,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B71" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A71, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7560,7 +7853,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B72" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A72, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7569,7 +7862,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B73" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A73, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7578,7 +7871,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B74" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A74, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7587,7 +7880,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B75" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A75, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7596,7 +7889,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B76" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A76, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7605,7 +7898,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B77" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A77, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7614,7 +7907,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B78">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A78, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7623,7 +7916,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B79" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A79, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7632,7 +7925,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B80" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A80, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7641,7 +7934,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B81" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A81, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7650,7 +7943,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B82">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A82, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7659,7 +7952,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B83" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A83, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7668,7 +7961,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B84" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A84, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7677,7 +7970,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B85" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A85, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7686,7 +7979,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B86" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A86, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7695,7 +7988,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B87" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A87, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7704,7 +7997,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B88" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A88, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7713,7 +8006,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B89" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A89, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7722,7 +8015,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B90" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A90, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7731,7 +8024,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B91" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A91, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7740,7 +8033,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B92" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A92, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7749,7 +8042,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B93" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A93, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7758,7 +8051,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B94" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A94, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7767,7 +8060,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B95" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A95, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7776,7 +8069,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B96" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A96, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7785,7 +8078,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B97" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A97, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7794,7 +8087,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B98" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A98, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7803,7 +8096,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B99" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A99, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7812,7 +8105,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B100" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A100, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7821,7 +8114,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B101" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A101, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7830,7 +8123,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B102" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A102, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7839,7 +8132,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B103" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A103, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7848,7 +8141,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B104" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A104, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7857,7 +8150,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B105" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A105, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7866,7 +8159,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B106" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A106, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7875,7 +8168,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B107">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A107, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7884,7 +8177,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B108" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A108, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7893,7 +8186,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B109" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A109, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7902,7 +8195,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B110" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A110, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7911,7 +8204,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B111" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A111, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7920,7 +8213,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B112" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A112, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7929,7 +8222,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B113" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A113, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7938,7 +8231,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B114" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A114, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7947,7 +8240,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B115" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A115, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7956,7 +8249,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B116" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A116, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7965,7 +8258,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B117">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A117, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7974,7 +8267,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B118" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A118, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7983,7 +8276,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B119" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A119, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -7992,7 +8285,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B120" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A120, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8001,7 +8294,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B121" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A121, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8010,7 +8303,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B122" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A122, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8019,7 +8312,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B123" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A123, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8028,7 +8321,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B124" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A124, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8037,7 +8330,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B125" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A125, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8046,7 +8339,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B126" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A126, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8055,7 +8348,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B127" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A127, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8064,7 +8357,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B128">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A128, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8073,7 +8366,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B129" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A129, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8082,7 +8375,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B130" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A130, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8091,7 +8384,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B131" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A131, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8100,7 +8393,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B132" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A132, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8109,7 +8402,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B133" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A133, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8118,7 +8411,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B134" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A134, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8127,7 +8420,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B135" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A135, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8136,7 +8429,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B136" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A136, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8145,7 +8438,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B137" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A137, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8154,7 +8447,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B138" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A138, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8163,7 +8456,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B139" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A139, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8172,7 +8465,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B140" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A140, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8181,7 +8474,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B141" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A141, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8190,7 +8483,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B142" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A142, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8199,7 +8492,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B143" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A143, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8208,7 +8501,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B144" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A144, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8217,7 +8510,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B145" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A145, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8226,7 +8519,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B146" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A146, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8235,7 +8528,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B147" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A147, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8244,7 +8537,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B148" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A148, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8253,7 +8546,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B149" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A149, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8262,7 +8555,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B150">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A150, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8271,7 +8564,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B151">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A151, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8280,7 +8573,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B152" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A152, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8289,7 +8582,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B153" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A153, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8298,7 +8591,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B154" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A154, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8307,7 +8600,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B155" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A155, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8316,7 +8609,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B156" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A156, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8325,7 +8618,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B157" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A157, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8334,7 +8627,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B158" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A158, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8343,7 +8636,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B159" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A159, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8352,16 +8645,16 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B160">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A160, nepali_world_update!$A$3:$A$56,0)),"")</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B161" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A161, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8370,7 +8663,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B162" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A162, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8379,7 +8672,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B163" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A163, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8388,7 +8681,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B164" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A164, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8397,7 +8690,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B165" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A165, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8406,7 +8699,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B166" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A166, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8415,7 +8708,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B167" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A167, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8424,7 +8717,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B168" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A168, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8433,7 +8726,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B169" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A169, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8442,7 +8735,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B170" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A170, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8451,7 +8744,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B171">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A171, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8460,7 +8753,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B172" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A172, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8469,7 +8762,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B173" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A173, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8478,7 +8771,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B174" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A174, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8487,7 +8780,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B175">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A175, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8496,7 +8789,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B176" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A176, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8505,7 +8798,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B177" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A177, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8514,7 +8807,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B178" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A178, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8523,7 +8816,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B179" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A179, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8532,7 +8825,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B180" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A180, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8541,7 +8834,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B181" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A181, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8550,7 +8843,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B182" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A182, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8559,7 +8852,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B183" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A183, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8568,7 +8861,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B184" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A184, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8577,7 +8870,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B185" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A185, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8586,7 +8879,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B186" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A186, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8595,7 +8888,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B187" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A187, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8604,7 +8897,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B188" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A188, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8613,7 +8906,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B189">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A189, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8622,7 +8915,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B190" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A190, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8631,7 +8924,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B191" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A191, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8640,7 +8933,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B192" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A192, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8649,7 +8942,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B193" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A193, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8658,7 +8951,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B194" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A194, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8667,7 +8960,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B195" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A195, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8676,7 +8969,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B196" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A196, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8685,7 +8978,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B197" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A197, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8694,7 +8987,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B198">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A198, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8703,7 +8996,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B199" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A199, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8712,7 +9005,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B200" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A200, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8721,7 +9014,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B201" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A201, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8730,7 +9023,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B202" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A202, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8739,7 +9032,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B203" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A203, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8748,7 +9041,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B204" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A204, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8757,7 +9050,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B205" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A205, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8766,7 +9059,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B206" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A206, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8775,7 +9068,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B207" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A207, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8784,7 +9077,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B208" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A208, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8793,7 +9086,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B209" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A209, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8802,7 +9095,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B210" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A210, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8811,7 +9104,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B211" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A211, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8820,7 +9113,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B212" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A212, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8829,7 +9122,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B213" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A213, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8838,7 +9131,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B214" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A214, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8847,7 +9140,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B215" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A215, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8856,7 +9149,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B216" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A216, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8865,7 +9158,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B217" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A217, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8874,7 +9167,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B218" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A218, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8883,7 +9176,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B219" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A219, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8892,7 +9185,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B220" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A220, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8901,7 +9194,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B221" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A221, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8910,7 +9203,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B222" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A222, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8919,7 +9212,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B223" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A223, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8928,7 +9221,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B224" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A224, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8937,7 +9230,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B225" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A225, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8946,7 +9239,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B226" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A226, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8955,7 +9248,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B227" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A227, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8964,7 +9257,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B228" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A228, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8973,7 +9266,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B229" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A229, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8982,7 +9275,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B230" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A230, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -8991,7 +9284,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B231" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A231, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9000,7 +9293,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B232" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A232, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9009,7 +9302,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B233">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A233, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9018,7 +9311,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B234" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A234, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9027,7 +9320,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B235" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A235, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9036,7 +9329,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B236" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A236, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9045,7 +9338,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B237" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A237, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9054,7 +9347,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B238" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A238, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9063,7 +9356,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B239">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A239, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9072,7 +9365,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B240" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A240, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9081,7 +9374,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B241" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A241, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9090,7 +9383,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B242" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A242, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9099,7 +9392,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B243" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A243, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9108,7 +9401,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B244" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A244, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9117,7 +9410,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B245" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A245, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9126,7 +9419,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B246" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A246, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9135,7 +9428,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B247" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A247, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9144,7 +9437,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B248" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A248, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9153,7 +9446,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B249" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A249, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9162,7 +9455,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B250" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A250, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9171,7 +9464,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B251" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A251, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9180,7 +9473,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B252" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A252, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9189,7 +9482,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B253" t="str">
         <f>IFERROR(INDEX(nepali_world_update!$C$3:$C$56, MATCH(A253, nepali_world_update!$A$3:$A$56,0)),"")</f>
@@ -9205,8 +9498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE6DB38-87E3-DC48-9FFA-21F97C9B98B3}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9217,41 +9510,41 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="E1" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
         <v>389</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="G1" t="s">
         <v>390</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G1" t="s">
-        <v>392</v>
-      </c>
       <c r="H1" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="37"/>
       <c r="B2" s="37" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C2" s="37">
         <f>SUM(C3:C26)</f>
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="D2" s="37">
         <f t="shared" ref="D2:E2" si="0">SUM(D3:D26)</f>
@@ -9261,7 +9554,9 @@
         <f t="shared" si="0"/>
         <v>455</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="37" t="s">
+        <v>532</v>
+      </c>
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9270,7 +9565,7 @@
         <v>Australia</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="37">
         <v>11</v>
@@ -9280,13 +9575,13 @@
       </c>
       <c r="E3" s="37"/>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -9298,7 +9593,7 @@
         <v>Bahrain</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C4" s="37">
         <v>49</v>
@@ -9310,13 +9605,13 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -9328,7 +9623,7 @@
         <v>Germany</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
     